--- a/AAII_Financials/Quarterly/GRST_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GRST_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>

--- a/AAII_Financials/Quarterly/GRST_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GRST_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="92">
   <si>
     <t>GRST</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,79 +665,82 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E7" s="2">
         <v>43738</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43373</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43190</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43100</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43008</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>42916</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42825</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42735</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="3">
-        <v>100</v>
+      <c r="D8" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E8" s="3">
         <v>100</v>
@@ -746,37 +749,40 @@
         <v>100</v>
       </c>
       <c r="G8" s="3">
+        <v>100</v>
+      </c>
+      <c r="H8" s="3">
         <v>400</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>300</v>
       </c>
-      <c r="I8" s="3">
-        <v>100</v>
-      </c>
       <c r="J8" s="3">
         <v>100</v>
       </c>
       <c r="K8" s="3">
+        <v>100</v>
+      </c>
+      <c r="L8" s="3">
         <v>900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>300</v>
       </c>
-      <c r="O8" s="3">
-        <v>0</v>
-      </c>
       <c r="P8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -819,8 +825,11 @@
       <c r="P9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -863,8 +872,11 @@
       <c r="P10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -881,8 +893,9 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -925,8 +938,11 @@
       <c r="P12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -969,19 +985,22 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
+        <v>900</v>
       </c>
       <c r="E14" s="3">
-        <v>100</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>5</v>
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
+        <v>100</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>5</v>
@@ -995,8 +1014,8 @@
       <c r="J14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
+      <c r="K14" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="L14" s="3">
         <v>0</v>
@@ -1013,8 +1032,11 @@
       <c r="P14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1022,17 +1044,17 @@
         <v>0</v>
       </c>
       <c r="E15" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F15" s="3">
         <v>100</v>
       </c>
       <c r="G15" s="3">
+        <v>100</v>
+      </c>
+      <c r="H15" s="3">
         <v>300</v>
       </c>
-      <c r="H15" s="3">
-        <v>100</v>
-      </c>
       <c r="I15" s="3">
         <v>100</v>
       </c>
@@ -1040,25 +1062,28 @@
         <v>100</v>
       </c>
       <c r="K15" s="3">
+        <v>100</v>
+      </c>
+      <c r="L15" s="3">
         <v>200</v>
       </c>
-      <c r="L15" s="3">
-        <v>100</v>
-      </c>
       <c r="M15" s="3">
         <v>100</v>
       </c>
       <c r="N15" s="3">
-        <v>0</v>
-      </c>
-      <c r="O15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P15" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+      <c r="P15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1072,96 +1097,103 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E17" s="3">
         <v>1200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>3300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E18" s="3">
         <v>-1100</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-1500</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-1400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-2900</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-900</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-1500</v>
       </c>
-      <c r="L18" s="3">
-        <v>100</v>
-      </c>
       <c r="M18" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N18" s="3">
+        <v>0</v>
+      </c>
+      <c r="O18" s="3">
         <v>-600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1178,184 +1210,197 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E20" s="3">
         <v>2000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>900</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-600</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
       <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
         <v>-100</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-700</v>
       </c>
-      <c r="J20" s="3">
-        <v>100</v>
-      </c>
       <c r="K20" s="3">
+        <v>100</v>
+      </c>
+      <c r="L20" s="3">
         <v>-6300</v>
       </c>
-      <c r="L20" s="3">
-        <v>100</v>
-      </c>
       <c r="M20" s="3">
+        <v>100</v>
+      </c>
+      <c r="N20" s="3">
         <v>-100</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-4800</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-200</v>
       </c>
-      <c r="P20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E21" s="3">
         <v>1000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-600</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-1900</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-2600</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-900</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-1300</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-7600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>200</v>
       </c>
-      <c r="M21" s="3">
-        <v>0</v>
-      </c>
       <c r="N21" s="3">
+        <v>0</v>
+      </c>
+      <c r="O21" s="3">
         <v>-5400</v>
       </c>
-      <c r="O21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P21" s="3">
+      <c r="P21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q21" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E22" s="3">
         <v>1300</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>1000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>1100</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>5200</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>1400</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>1500</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>900</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>400</v>
       </c>
-      <c r="L22" s="3">
-        <v>100</v>
-      </c>
       <c r="M22" s="3">
         <v>100</v>
       </c>
       <c r="N22" s="3">
+        <v>100</v>
+      </c>
+      <c r="O22" s="3">
         <v>300</v>
       </c>
-      <c r="O22" s="3">
-        <v>0</v>
-      </c>
       <c r="P22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-9800</v>
+      </c>
+      <c r="E23" s="3">
         <v>-400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-1700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-3100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-8100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-2400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-2900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-1200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-8200</v>
       </c>
-      <c r="L23" s="3">
-        <v>100</v>
-      </c>
       <c r="M23" s="3">
+        <v>100</v>
+      </c>
+      <c r="N23" s="3">
         <v>-200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-5700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-1000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1369,10 +1414,10 @@
         <v>0</v>
       </c>
       <c r="G24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I24" s="3">
         <v>0</v>
@@ -1398,8 +1443,11 @@
       <c r="P24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1442,96 +1490,105 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-9800</v>
+      </c>
+      <c r="E26" s="3">
         <v>-400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-1700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-3100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-8200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-2400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-2900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-1200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-8200</v>
       </c>
-      <c r="L26" s="3">
-        <v>100</v>
-      </c>
       <c r="M26" s="3">
+        <v>100</v>
+      </c>
+      <c r="N26" s="3">
         <v>-200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-5700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-1000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-9800</v>
+      </c>
+      <c r="E27" s="3">
         <v>-400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-1700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-3100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-8200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-2400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-2900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-1200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-8200</v>
       </c>
-      <c r="L27" s="3">
-        <v>100</v>
-      </c>
       <c r="M27" s="3">
+        <v>100</v>
+      </c>
+      <c r="N27" s="3">
         <v>-200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-5700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-1000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1574,8 +1631,11 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1588,8 +1648,8 @@
       <c r="F29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G29" s="3">
-        <v>0</v>
+      <c r="G29" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="H29" s="3">
         <v>0</v>
@@ -1601,25 +1661,28 @@
         <v>0</v>
       </c>
       <c r="K29" s="3">
+        <v>0</v>
+      </c>
+      <c r="L29" s="3">
         <v>6800</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>-200</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>-100</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>7600</v>
       </c>
-      <c r="O29" s="3">
+      <c r="P29" s="3">
         <v>700</v>
       </c>
-      <c r="P29" s="3">
+      <c r="Q29" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1662,8 +1725,11 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1706,96 +1772,105 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3">
+      <c r="D32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E32" s="3">
         <v>-2000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-900</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>600</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
       <c r="H32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I32" s="3">
+        <v>100</v>
+      </c>
+      <c r="J32" s="3">
         <v>700</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>6300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-100</v>
       </c>
-      <c r="M32" s="3">
-        <v>100</v>
-      </c>
       <c r="N32" s="3">
+        <v>100</v>
+      </c>
+      <c r="O32" s="3">
         <v>4800</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>200</v>
       </c>
-      <c r="P32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-9800</v>
+      </c>
+      <c r="E33" s="3">
         <v>-400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-1700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-3100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-8200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-2400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-2900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-1200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-1400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>1900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-300</v>
       </c>
-      <c r="P33" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q33" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1838,101 +1913,110 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-9800</v>
+      </c>
+      <c r="E35" s="3">
         <v>-400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-1700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-3100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-8200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-2400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-2900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-1200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-1400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>1900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-300</v>
       </c>
-      <c r="P35" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q35" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E38" s="2">
         <v>43738</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43373</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43190</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43100</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43008</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>42916</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42825</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42735</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1949,8 +2033,9 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1967,8 +2052,9 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -1985,14 +2071,14 @@
         <v>0</v>
       </c>
       <c r="H41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I41" s="3">
+        <v>100</v>
+      </c>
+      <c r="J41" s="3">
         <v>300</v>
       </c>
-      <c r="J41" s="3">
-        <v>0</v>
-      </c>
       <c r="K41" s="3">
         <v>0</v>
       </c>
@@ -2003,16 +2089,19 @@
         <v>0</v>
       </c>
       <c r="N41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2055,52 +2144,58 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>100</v>
+      </c>
+      <c r="E43" s="3">
         <v>200</v>
-      </c>
-      <c r="E43" s="3">
-        <v>300</v>
       </c>
       <c r="F43" s="3">
         <v>300</v>
       </c>
       <c r="G43" s="3">
+        <v>300</v>
+      </c>
+      <c r="H43" s="3">
         <v>200</v>
       </c>
-      <c r="H43" s="3">
-        <v>100</v>
-      </c>
       <c r="I43" s="3">
         <v>100</v>
       </c>
       <c r="J43" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K43" s="3">
         <v>200</v>
       </c>
       <c r="L43" s="3">
+        <v>200</v>
+      </c>
+      <c r="M43" s="3">
         <v>1000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>600</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>300</v>
       </c>
-      <c r="O43" s="3">
-        <v>100</v>
-      </c>
       <c r="P43" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q43" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2143,37 +2238,40 @@
       <c r="P44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E45" s="3">
         <v>200</v>
       </c>
       <c r="F45" s="3">
+        <v>200</v>
+      </c>
+      <c r="G45" s="3">
         <v>2000</v>
       </c>
-      <c r="G45" s="3">
-        <v>100</v>
-      </c>
       <c r="H45" s="3">
         <v>100</v>
       </c>
       <c r="I45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K45" s="3">
         <v>100</v>
       </c>
       <c r="L45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M45" s="3">
         <v>0</v>
@@ -2182,57 +2280,63 @@
         <v>0</v>
       </c>
       <c r="O45" s="3">
+        <v>0</v>
+      </c>
+      <c r="P45" s="3">
         <v>200</v>
       </c>
-      <c r="P45" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q45" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>300</v>
+      </c>
+      <c r="E46" s="3">
         <v>400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>2400</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>400</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>300</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>500</v>
-      </c>
-      <c r="J46" s="3">
-        <v>300</v>
       </c>
       <c r="K46" s="3">
         <v>300</v>
       </c>
       <c r="L46" s="3">
+        <v>300</v>
+      </c>
+      <c r="M46" s="3">
         <v>1000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>600</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>400</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>300</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2266,31 +2370,34 @@
       <c r="M47" s="3">
         <v>0</v>
       </c>
-      <c r="N47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O47" s="3">
-        <v>100</v>
-      </c>
-      <c r="P47" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="N47" s="3">
+        <v>0</v>
+      </c>
+      <c r="O47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P47" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q47" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E48" s="3">
         <v>20100</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>20400</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>22900</v>
-      </c>
-      <c r="G48" s="3">
-        <v>8900</v>
       </c>
       <c r="H48" s="3">
         <v>8900</v>
@@ -2299,28 +2406,31 @@
         <v>8900</v>
       </c>
       <c r="J48" s="3">
+        <v>8900</v>
+      </c>
+      <c r="K48" s="3">
         <v>9000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>9200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>12200</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>12000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>10800</v>
       </c>
-      <c r="O48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P48" s="3">
+      <c r="P48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q48" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2345,11 +2455,11 @@
       <c r="J49" s="3">
         <v>0</v>
       </c>
-      <c r="K49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L49" s="3">
-        <v>1400</v>
+      <c r="K49" s="3">
+        <v>0</v>
+      </c>
+      <c r="L49" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="M49" s="3">
         <v>1400</v>
@@ -2357,14 +2467,17 @@
       <c r="N49" s="3">
         <v>1400</v>
       </c>
-      <c r="O49" s="3" t="s">
-        <v>5</v>
+      <c r="O49" s="3">
+        <v>1400</v>
       </c>
       <c r="P49" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2407,8 +2520,11 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2451,13 +2567,16 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="E52" s="3">
         <v>3000</v>
@@ -2466,37 +2585,40 @@
         <v>3000</v>
       </c>
       <c r="G52" s="3">
+        <v>3000</v>
+      </c>
+      <c r="H52" s="3">
         <v>3300</v>
-      </c>
-      <c r="H52" s="3">
-        <v>3400</v>
       </c>
       <c r="I52" s="3">
         <v>3400</v>
       </c>
       <c r="J52" s="3">
+        <v>3400</v>
+      </c>
+      <c r="K52" s="3">
         <v>2600</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>2800</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>1400</v>
-      </c>
-      <c r="M52" s="3">
-        <v>1300</v>
       </c>
       <c r="N52" s="3">
         <v>1300</v>
       </c>
       <c r="O52" s="3">
-        <v>100</v>
+        <v>1300</v>
       </c>
       <c r="P52" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q52" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2539,52 +2661,58 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>3200</v>
+      </c>
+      <c r="E54" s="3">
         <v>23500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>24000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>28300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>12700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>12600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>12800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>11900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>12300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>16000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>15300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>13900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2601,8 +2729,9 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2619,31 +2748,32 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E57" s="3">
         <v>2200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1800</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1600</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1100</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>700</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>300</v>
-      </c>
-      <c r="J57" s="3">
-        <v>400</v>
       </c>
       <c r="K57" s="3">
         <v>400</v>
@@ -2655,207 +2785,222 @@
         <v>400</v>
       </c>
       <c r="N57" s="3">
+        <v>400</v>
+      </c>
+      <c r="O57" s="3">
         <v>500</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>400</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>7700</v>
+        <v>8100</v>
       </c>
       <c r="E58" s="3">
         <v>7700</v>
       </c>
       <c r="F58" s="3">
+        <v>7700</v>
+      </c>
+      <c r="G58" s="3">
         <v>10400</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>7200</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>6100</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>4800</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>3500</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>2900</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>2000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>6000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>5500</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>500</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>9500</v>
+      </c>
+      <c r="E59" s="3">
         <v>4300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>5500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>7200</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>5400</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>5600</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>5400</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>4000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>3500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>500</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>600</v>
-      </c>
-      <c r="O59" s="3">
-        <v>2800</v>
       </c>
       <c r="P59" s="3">
         <v>2800</v>
       </c>
-    </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q59" s="3">
+        <v>2800</v>
+      </c>
+    </row>
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>18600</v>
+      </c>
+      <c r="E60" s="3">
         <v>14200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>15000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>19200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>13700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>12400</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>10600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>7900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>6900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>2900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>6900</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>6600</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>3600</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>3400</v>
       </c>
     </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>4700</v>
+      </c>
+      <c r="E61" s="3">
         <v>4600</v>
-      </c>
-      <c r="E61" s="3">
-        <v>3900</v>
       </c>
       <c r="F61" s="3">
         <v>3900</v>
       </c>
       <c r="G61" s="3">
+        <v>3900</v>
+      </c>
+      <c r="H61" s="3">
         <v>6700</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>7000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>6900</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>7000</v>
-      </c>
-      <c r="K61" s="3">
-        <v>7200</v>
       </c>
       <c r="L61" s="3">
         <v>7200</v>
       </c>
       <c r="M61" s="3">
-        <v>3000</v>
+        <v>7200</v>
       </c>
       <c r="N61" s="3">
         <v>3000</v>
       </c>
       <c r="O61" s="3">
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="P61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D62" s="3">
+      <c r="D62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E62" s="3">
         <v>14600</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>14800</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>15000</v>
       </c>
-      <c r="G62" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="H62" s="3" t="s">
         <v>5</v>
       </c>
@@ -2865,8 +3010,8 @@
       <c r="J62" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K62" s="3">
-        <v>0</v>
+      <c r="K62" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="L62" s="3">
         <v>0</v>
@@ -2883,8 +3028,11 @@
       <c r="P62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2927,8 +3075,11 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2971,8 +3122,11 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3015,52 +3169,58 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>23200</v>
+      </c>
+      <c r="E66" s="3">
         <v>33400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>33700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>38200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>20400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>19400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>17500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>14900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>14000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>10100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>9900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>9600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>3600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>3500</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3077,8 +3237,9 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3121,8 +3282,11 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3165,8 +3329,11 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3209,8 +3376,11 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3253,52 +3423,58 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-45500</v>
+      </c>
+      <c r="E72" s="3">
         <v>-35600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-35300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-33600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-30500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-28900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-26500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-23600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-22400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-14800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-14700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-15500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-21000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-20400</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3341,8 +3517,11 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3385,8 +3564,11 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3429,52 +3611,58 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-20000</v>
+      </c>
+      <c r="E76" s="3">
         <v>-10000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-9700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-9900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-7700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-6800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-4800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-3000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-1800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>5900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>5400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>4400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-3200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-2900</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3517,101 +3705,110 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E80" s="2">
         <v>43738</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43373</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43190</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43100</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43008</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>42916</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42825</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42735</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-9800</v>
+      </c>
+      <c r="E81" s="3">
         <v>-400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-1700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-3100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-8200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-2400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-2900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-1200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-1400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>1900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-300</v>
       </c>
-      <c r="P81" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q81" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3628,8 +3825,9 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3637,17 +3835,17 @@
         <v>0</v>
       </c>
       <c r="E83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F83" s="3">
         <v>100</v>
       </c>
       <c r="G83" s="3">
+        <v>100</v>
+      </c>
+      <c r="H83" s="3">
         <v>300</v>
       </c>
-      <c r="H83" s="3">
-        <v>100</v>
-      </c>
       <c r="I83" s="3">
         <v>100</v>
       </c>
@@ -3655,25 +3853,28 @@
         <v>100</v>
       </c>
       <c r="K83" s="3">
+        <v>100</v>
+      </c>
+      <c r="L83" s="3">
         <v>200</v>
       </c>
-      <c r="L83" s="3">
-        <v>100</v>
-      </c>
       <c r="M83" s="3">
         <v>100</v>
       </c>
       <c r="N83" s="3">
         <v>100</v>
       </c>
-      <c r="O83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P83" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="O83" s="3">
+        <v>100</v>
+      </c>
+      <c r="P83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3716,8 +3917,11 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3760,8 +3964,11 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3804,8 +4011,11 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3848,8 +4058,11 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3892,52 +4105,58 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E89" s="3">
         <v>-500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-900</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-1100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-1500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-800</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-4600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-3100</v>
       </c>
-      <c r="O89" s="3">
-        <v>0</v>
-      </c>
       <c r="P89" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q89" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3954,13 +4173,14 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E91" s="3">
         <v>0</v>
@@ -3969,37 +4189,40 @@
         <v>0</v>
       </c>
       <c r="G91" s="3">
+        <v>0</v>
+      </c>
+      <c r="H91" s="3">
         <v>-300</v>
       </c>
-      <c r="H91" s="3">
-        <v>0</v>
-      </c>
-      <c r="I91" s="3" t="s">
-        <v>5</v>
+      <c r="I91" s="3">
+        <v>0</v>
       </c>
       <c r="J91" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K91" s="3">
+      <c r="K91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L91" s="3">
         <v>-400</v>
       </c>
-      <c r="L91" s="3">
-        <v>0</v>
-      </c>
       <c r="M91" s="3">
         <v>0</v>
       </c>
       <c r="N91" s="3">
         <v>0</v>
       </c>
-      <c r="O91" s="3" t="s">
-        <v>5</v>
+      <c r="O91" s="3">
+        <v>0</v>
       </c>
       <c r="P91" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4042,8 +4265,11 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4086,52 +4312,58 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="E94" s="3">
+        <v>0</v>
+      </c>
+      <c r="F94" s="3">
         <v>3300</v>
       </c>
-      <c r="F94" s="3">
-        <v>0</v>
-      </c>
       <c r="G94" s="3">
+        <v>0</v>
+      </c>
+      <c r="H94" s="3">
         <v>-1400</v>
       </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
       <c r="I94" s="3">
+        <v>0</v>
+      </c>
+      <c r="J94" s="3">
         <v>-900</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>1400</v>
       </c>
-      <c r="L94" s="3">
-        <v>100</v>
-      </c>
       <c r="M94" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N94" s="3">
+        <v>0</v>
+      </c>
+      <c r="O94" s="3">
         <v>3300</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-100</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4148,8 +4380,9 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4192,8 +4425,11 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4236,8 +4472,11 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4280,8 +4519,11 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4324,96 +4566,105 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E100" s="3">
         <v>500</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-2500</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>1000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>3400</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>500</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>1800</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>3300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>200</v>
       </c>
-      <c r="M100" s="3">
-        <v>100</v>
-      </c>
       <c r="N100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O100" s="3">
+        <v>0</v>
+      </c>
+      <c r="P100" s="3">
         <v>200</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>100</v>
+      </c>
+      <c r="E101" s="3">
         <v>-100</v>
       </c>
-      <c r="E101" s="3">
-        <v>100</v>
-      </c>
       <c r="F101" s="3">
         <v>100</v>
       </c>
       <c r="G101" s="3">
+        <v>100</v>
+      </c>
+      <c r="H101" s="3">
         <v>-400</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>200</v>
-      </c>
-      <c r="I101" s="3">
-        <v>-100</v>
       </c>
       <c r="J101" s="3">
         <v>-100</v>
       </c>
       <c r="K101" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L101" s="3">
+        <v>0</v>
+      </c>
+      <c r="M101" s="3">
         <v>300</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>200</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-200</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-100</v>
       </c>
-      <c r="P101" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -4430,14 +4681,14 @@
         <v>0</v>
       </c>
       <c r="H102" s="3">
+        <v>0</v>
+      </c>
+      <c r="I102" s="3">
         <v>-300</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>300</v>
       </c>
-      <c r="J102" s="3">
-        <v>0</v>
-      </c>
       <c r="K102" s="3">
         <v>0</v>
       </c>
@@ -4445,15 +4696,18 @@
         <v>0</v>
       </c>
       <c r="M102" s="3">
+        <v>0</v>
+      </c>
+      <c r="N102" s="3">
         <v>-100</v>
       </c>
-      <c r="N102" s="3">
-        <v>100</v>
-      </c>
       <c r="O102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/GRST_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GRST_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="92">
   <si>
     <t>GRST</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,82 +665,94 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="F7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="E7" s="2">
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="F7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="G7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="H7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="I7" s="2">
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
-      <c r="J7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="K7" s="2">
+      <c r="N7" s="2">
         <v>43190</v>
       </c>
-      <c r="L7" s="2">
+      <c r="O7" s="2">
         <v>43100</v>
       </c>
-      <c r="M7" s="2">
+      <c r="P7" s="2">
         <v>43008</v>
       </c>
-      <c r="N7" s="2">
+      <c r="Q7" s="2">
         <v>42916</v>
       </c>
-      <c r="O7" s="2">
+      <c r="R7" s="2">
         <v>42825</v>
       </c>
-      <c r="P7" s="2">
+      <c r="S7" s="2">
         <v>42735</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="T7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>5</v>
+      <c r="D8" s="3">
+        <v>100</v>
       </c>
       <c r="E8" s="3">
         <v>100</v>
@@ -749,40 +761,49 @@
         <v>100</v>
       </c>
       <c r="G8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H8" s="3">
+        <v>100</v>
+      </c>
+      <c r="I8" s="3">
+        <v>100</v>
+      </c>
+      <c r="J8" s="3">
+        <v>100</v>
+      </c>
+      <c r="K8" s="3">
         <v>400</v>
       </c>
-      <c r="I8" s="3">
+      <c r="L8" s="3">
         <v>300</v>
       </c>
-      <c r="J8" s="3">
-        <v>100</v>
-      </c>
-      <c r="K8" s="3">
-        <v>100</v>
-      </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
+        <v>100</v>
+      </c>
+      <c r="N8" s="3">
+        <v>100</v>
+      </c>
+      <c r="O8" s="3">
         <v>900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="P8" s="3">
         <v>600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="Q8" s="3">
         <v>400</v>
       </c>
-      <c r="O8" s="3">
+      <c r="R8" s="3">
         <v>300</v>
       </c>
-      <c r="P8" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="S8" s="3">
+        <v>0</v>
+      </c>
+      <c r="T8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -828,8 +849,17 @@
       <c r="Q9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -875,8 +905,17 @@
       <c r="Q10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -894,8 +933,11 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -941,8 +983,17 @@
       <c r="Q12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -988,28 +1039,37 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
+        <v>-12700</v>
+      </c>
+      <c r="F14" s="3">
+        <v>300</v>
+      </c>
+      <c r="G14" s="3">
         <v>900</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3">
-        <v>100</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>5</v>
+      <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
+        <v>100</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>5</v>
@@ -1017,14 +1077,14 @@
       <c r="K14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
-      <c r="N14" s="3">
-        <v>0</v>
+      <c r="L14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N14" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="O14" s="3">
         <v>0</v>
@@ -1035,8 +1095,17 @@
       <c r="Q14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1047,43 +1116,52 @@
         <v>0</v>
       </c>
       <c r="F15" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G15" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H15" s="3">
+        <v>0</v>
+      </c>
+      <c r="I15" s="3">
+        <v>100</v>
+      </c>
+      <c r="J15" s="3">
+        <v>100</v>
+      </c>
+      <c r="K15" s="3">
         <v>300</v>
       </c>
-      <c r="I15" s="3">
-        <v>100</v>
-      </c>
-      <c r="J15" s="3">
-        <v>100</v>
-      </c>
-      <c r="K15" s="3">
-        <v>100</v>
-      </c>
       <c r="L15" s="3">
+        <v>100</v>
+      </c>
+      <c r="M15" s="3">
+        <v>100</v>
+      </c>
+      <c r="N15" s="3">
+        <v>100</v>
+      </c>
+      <c r="O15" s="3">
         <v>200</v>
       </c>
-      <c r="M15" s="3">
-        <v>100</v>
-      </c>
-      <c r="N15" s="3">
-        <v>100</v>
-      </c>
-      <c r="O15" s="3">
-        <v>0</v>
-      </c>
-      <c r="P15" s="3" t="s">
-        <v>5</v>
+      <c r="P15" s="3">
+        <v>100</v>
       </c>
       <c r="Q15" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+      <c r="S15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1098,102 +1176,123 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+      <c r="S16" s="3"/>
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>100</v>
+      </c>
+      <c r="E17" s="3">
+        <v>-12600</v>
+      </c>
+      <c r="F17" s="3">
+        <v>500</v>
+      </c>
+      <c r="G17" s="3">
         <v>1100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="H17" s="3">
         <v>1200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="I17" s="3">
         <v>1600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="J17" s="3">
         <v>1500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="K17" s="3">
         <v>3300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="L17" s="3">
         <v>1200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="M17" s="3">
         <v>800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="N17" s="3">
         <v>500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="O17" s="3">
         <v>2400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="P17" s="3">
         <v>500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="Q17" s="3">
         <v>400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="R17" s="3">
         <v>900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="S17" s="3">
         <v>800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="T17" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>5</v>
+      <c r="D18" s="3">
+        <v>0</v>
       </c>
       <c r="E18" s="3">
+        <v>12700</v>
+      </c>
+      <c r="F18" s="3">
+        <v>-400</v>
+      </c>
+      <c r="G18" s="3">
         <v>-1100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="I18" s="3">
         <v>-1500</v>
       </c>
-      <c r="G18" s="3">
+      <c r="J18" s="3">
         <v>-1400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="K18" s="3">
         <v>-2900</v>
       </c>
-      <c r="I18" s="3">
+      <c r="L18" s="3">
         <v>-900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="M18" s="3">
         <v>-700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="N18" s="3">
         <v>-400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="O18" s="3">
         <v>-1500</v>
       </c>
-      <c r="M18" s="3">
-        <v>100</v>
-      </c>
-      <c r="N18" s="3">
-        <v>0</v>
-      </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q18" s="3">
+        <v>0</v>
+      </c>
+      <c r="R18" s="3">
         <v>-600</v>
       </c>
-      <c r="P18" s="3">
+      <c r="S18" s="3">
         <v>-800</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="T18" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1211,196 +1310,235 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+      <c r="S19" s="3"/>
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>5</v>
+      <c r="D20" s="3">
+        <v>-10000</v>
       </c>
       <c r="E20" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="F20" s="3">
+        <v>-9400</v>
+      </c>
+      <c r="G20" s="3">
+        <v>-7800</v>
+      </c>
+      <c r="H20" s="3">
         <v>2000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="I20" s="3">
         <v>900</v>
       </c>
-      <c r="G20" s="3">
+      <c r="J20" s="3">
         <v>-600</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
         <v>-100</v>
       </c>
-      <c r="J20" s="3">
+      <c r="M20" s="3">
         <v>-700</v>
       </c>
-      <c r="K20" s="3">
-        <v>100</v>
-      </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
+        <v>100</v>
+      </c>
+      <c r="O20" s="3">
         <v>-6300</v>
       </c>
-      <c r="M20" s="3">
-        <v>100</v>
-      </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q20" s="3">
         <v>-100</v>
       </c>
-      <c r="O20" s="3">
+      <c r="R20" s="3">
         <v>-4800</v>
       </c>
-      <c r="P20" s="3">
+      <c r="S20" s="3">
         <v>-200</v>
       </c>
-      <c r="Q20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="T20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>5</v>
+      <c r="D21" s="3">
+        <v>-10000</v>
       </c>
       <c r="E21" s="3">
+        <v>9400</v>
+      </c>
+      <c r="F21" s="3">
+        <v>-9700</v>
+      </c>
+      <c r="G21" s="3">
+        <v>-8800</v>
+      </c>
+      <c r="H21" s="3">
         <v>1000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="I21" s="3">
         <v>-600</v>
       </c>
-      <c r="G21" s="3">
+      <c r="J21" s="3">
         <v>-1900</v>
       </c>
-      <c r="H21" s="3">
+      <c r="K21" s="3">
         <v>-2600</v>
       </c>
-      <c r="I21" s="3">
+      <c r="L21" s="3">
         <v>-900</v>
       </c>
-      <c r="J21" s="3">
+      <c r="M21" s="3">
         <v>-1300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="N21" s="3">
         <v>-200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="O21" s="3">
         <v>-7600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="P21" s="3">
         <v>200</v>
       </c>
-      <c r="N21" s="3">
-        <v>0</v>
-      </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
+        <v>0</v>
+      </c>
+      <c r="R21" s="3">
         <v>-5400</v>
       </c>
-      <c r="P21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T21" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>200</v>
+      </c>
+      <c r="E22" s="3">
+        <v>300</v>
+      </c>
+      <c r="F22" s="3">
+        <v>600</v>
+      </c>
+      <c r="G22" s="3">
         <v>1000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="H22" s="3">
         <v>1300</v>
       </c>
-      <c r="F22" s="3">
+      <c r="I22" s="3">
         <v>1000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="J22" s="3">
         <v>1100</v>
       </c>
-      <c r="H22" s="3">
+      <c r="K22" s="3">
         <v>5200</v>
       </c>
-      <c r="I22" s="3">
+      <c r="L22" s="3">
         <v>1400</v>
       </c>
-      <c r="J22" s="3">
+      <c r="M22" s="3">
         <v>1500</v>
       </c>
-      <c r="K22" s="3">
+      <c r="N22" s="3">
         <v>900</v>
       </c>
-      <c r="L22" s="3">
+      <c r="O22" s="3">
         <v>400</v>
       </c>
-      <c r="M22" s="3">
-        <v>100</v>
-      </c>
-      <c r="N22" s="3">
-        <v>100</v>
-      </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q22" s="3">
+        <v>100</v>
+      </c>
+      <c r="R22" s="3">
         <v>300</v>
       </c>
-      <c r="P22" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q22" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-10200</v>
+      </c>
+      <c r="E23" s="3">
+        <v>9000</v>
+      </c>
+      <c r="F23" s="3">
+        <v>-10300</v>
+      </c>
+      <c r="G23" s="3">
         <v>-9800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="H23" s="3">
         <v>-400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="I23" s="3">
         <v>-1700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="J23" s="3">
         <v>-3100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="K23" s="3">
         <v>-8100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="L23" s="3">
         <v>-2400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="M23" s="3">
         <v>-2900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="N23" s="3">
         <v>-1200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="O23" s="3">
         <v>-8200</v>
       </c>
-      <c r="M23" s="3">
-        <v>100</v>
-      </c>
-      <c r="N23" s="3">
-        <v>-200</v>
-      </c>
-      <c r="O23" s="3">
-        <v>-5700</v>
-      </c>
       <c r="P23" s="3">
-        <v>-1000</v>
+        <v>100</v>
       </c>
       <c r="Q23" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R23" s="3">
+        <v>-5700</v>
+      </c>
+      <c r="S23" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="T23" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1417,7 +1555,7 @@
         <v>0</v>
       </c>
       <c r="H24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I24" s="3">
         <v>0</v>
@@ -1426,7 +1564,7 @@
         <v>0</v>
       </c>
       <c r="K24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L24" s="3">
         <v>0</v>
@@ -1446,8 +1584,17 @@
       <c r="Q24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+      <c r="S24" s="3">
+        <v>0</v>
+      </c>
+      <c r="T24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1493,102 +1640,129 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-10200</v>
+      </c>
+      <c r="E26" s="3">
+        <v>9000</v>
+      </c>
+      <c r="F26" s="3">
+        <v>-10300</v>
+      </c>
+      <c r="G26" s="3">
         <v>-9800</v>
       </c>
-      <c r="E26" s="3">
+      <c r="H26" s="3">
         <v>-400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="I26" s="3">
         <v>-1700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="J26" s="3">
         <v>-3100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="K26" s="3">
         <v>-8200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="L26" s="3">
         <v>-2400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="M26" s="3">
         <v>-2900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="N26" s="3">
         <v>-1200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="O26" s="3">
         <v>-8200</v>
       </c>
-      <c r="M26" s="3">
-        <v>100</v>
-      </c>
-      <c r="N26" s="3">
-        <v>-200</v>
-      </c>
-      <c r="O26" s="3">
-        <v>-5700</v>
-      </c>
       <c r="P26" s="3">
-        <v>-1000</v>
+        <v>100</v>
       </c>
       <c r="Q26" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R26" s="3">
+        <v>-5700</v>
+      </c>
+      <c r="S26" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="T26" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-10300</v>
+      </c>
+      <c r="E27" s="3">
+        <v>9000</v>
+      </c>
+      <c r="F27" s="3">
+        <v>-10300</v>
+      </c>
+      <c r="G27" s="3">
         <v>-9800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="H27" s="3">
         <v>-400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="I27" s="3">
         <v>-1700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="J27" s="3">
         <v>-3100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="K27" s="3">
         <v>-8200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="L27" s="3">
         <v>-2400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="M27" s="3">
         <v>-2900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="N27" s="3">
         <v>-1200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="O27" s="3">
         <v>-8200</v>
       </c>
-      <c r="M27" s="3">
-        <v>100</v>
-      </c>
-      <c r="N27" s="3">
-        <v>-200</v>
-      </c>
-      <c r="O27" s="3">
-        <v>-5700</v>
-      </c>
       <c r="P27" s="3">
-        <v>-1000</v>
+        <v>100</v>
       </c>
       <c r="Q27" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R27" s="3">
+        <v>-5700</v>
+      </c>
+      <c r="S27" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="T27" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1634,8 +1808,17 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1651,38 +1834,47 @@
       <c r="G29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H29" s="3">
-        <v>0</v>
-      </c>
-      <c r="I29" s="3">
-        <v>0</v>
-      </c>
-      <c r="J29" s="3">
-        <v>0</v>
+      <c r="H29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J29" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="K29" s="3">
         <v>0</v>
       </c>
       <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3">
         <v>6800</v>
       </c>
-      <c r="M29" s="3">
+      <c r="P29" s="3">
         <v>-200</v>
       </c>
-      <c r="N29" s="3">
+      <c r="Q29" s="3">
         <v>-100</v>
       </c>
-      <c r="O29" s="3">
+      <c r="R29" s="3">
         <v>7600</v>
       </c>
-      <c r="P29" s="3">
+      <c r="S29" s="3">
         <v>700</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="T29" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1728,8 +1920,17 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1775,102 +1976,129 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>5</v>
+      <c r="D32" s="3">
+        <v>10000</v>
       </c>
       <c r="E32" s="3">
+        <v>3300</v>
+      </c>
+      <c r="F32" s="3">
+        <v>9400</v>
+      </c>
+      <c r="G32" s="3">
+        <v>7800</v>
+      </c>
+      <c r="H32" s="3">
         <v>-2000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="I32" s="3">
         <v>-900</v>
       </c>
-      <c r="G32" s="3">
+      <c r="J32" s="3">
         <v>600</v>
       </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
-      <c r="I32" s="3">
-        <v>100</v>
-      </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
+        <v>100</v>
+      </c>
+      <c r="M32" s="3">
         <v>700</v>
       </c>
-      <c r="K32" s="3">
+      <c r="N32" s="3">
         <v>-100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="O32" s="3">
         <v>6300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="P32" s="3">
         <v>-100</v>
       </c>
-      <c r="N32" s="3">
-        <v>100</v>
-      </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
+        <v>100</v>
+      </c>
+      <c r="R32" s="3">
         <v>4800</v>
       </c>
-      <c r="P32" s="3">
+      <c r="S32" s="3">
         <v>200</v>
       </c>
-      <c r="Q32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="T32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-10300</v>
+      </c>
+      <c r="E33" s="3">
+        <v>9000</v>
+      </c>
+      <c r="F33" s="3">
+        <v>-10300</v>
+      </c>
+      <c r="G33" s="3">
         <v>-9800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="H33" s="3">
         <v>-400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="I33" s="3">
         <v>-1700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="J33" s="3">
         <v>-3100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="K33" s="3">
         <v>-8200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="L33" s="3">
         <v>-2400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="M33" s="3">
         <v>-2900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="N33" s="3">
         <v>-1200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="O33" s="3">
         <v>-1400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="P33" s="3">
         <v>-100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="Q33" s="3">
         <v>-300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="R33" s="3">
         <v>1900</v>
       </c>
-      <c r="P33" s="3">
+      <c r="S33" s="3">
         <v>-300</v>
       </c>
-      <c r="Q33" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="T33" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1916,107 +2144,134 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-10300</v>
+      </c>
+      <c r="E35" s="3">
+        <v>9000</v>
+      </c>
+      <c r="F35" s="3">
+        <v>-10300</v>
+      </c>
+      <c r="G35" s="3">
         <v>-9800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="H35" s="3">
         <v>-400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="I35" s="3">
         <v>-1700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="J35" s="3">
         <v>-3100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="K35" s="3">
         <v>-8200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="L35" s="3">
         <v>-2400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="M35" s="3">
         <v>-2900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="N35" s="3">
         <v>-1200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="O35" s="3">
         <v>-1400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="P35" s="3">
         <v>-100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="Q35" s="3">
         <v>-300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="R35" s="3">
         <v>1900</v>
       </c>
-      <c r="P35" s="3">
+      <c r="S35" s="3">
         <v>-300</v>
       </c>
-      <c r="Q35" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="T35" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="F38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="E38" s="2">
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="F38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="G38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="H38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="I38" s="2">
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
-      <c r="J38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="K38" s="2">
+      <c r="N38" s="2">
         <v>43190</v>
       </c>
-      <c r="L38" s="2">
+      <c r="O38" s="2">
         <v>43100</v>
       </c>
-      <c r="M38" s="2">
+      <c r="P38" s="2">
         <v>43008</v>
       </c>
-      <c r="N38" s="2">
+      <c r="Q38" s="2">
         <v>42916</v>
       </c>
-      <c r="O38" s="2">
+      <c r="R38" s="2">
         <v>42825</v>
       </c>
-      <c r="P38" s="2">
+      <c r="S38" s="2">
         <v>42735</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="T38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2034,8 +2289,11 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+      <c r="S39" s="3"/>
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2053,8 +2311,11 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+      <c r="S40" s="3"/>
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2074,25 +2335,25 @@
         <v>0</v>
       </c>
       <c r="I41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J41" s="3">
+        <v>0</v>
+      </c>
+      <c r="K41" s="3">
+        <v>0</v>
+      </c>
+      <c r="L41" s="3">
+        <v>100</v>
+      </c>
+      <c r="M41" s="3">
         <v>300</v>
       </c>
-      <c r="K41" s="3">
-        <v>0</v>
-      </c>
-      <c r="L41" s="3">
-        <v>0</v>
-      </c>
-      <c r="M41" s="3">
-        <v>0</v>
-      </c>
       <c r="N41" s="3">
         <v>0</v>
       </c>
       <c r="O41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P41" s="3">
         <v>0</v>
@@ -2100,8 +2361,17 @@
       <c r="Q41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R41" s="3">
+        <v>100</v>
+      </c>
+      <c r="S41" s="3">
+        <v>0</v>
+      </c>
+      <c r="T41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2147,55 +2417,73 @@
       <c r="Q42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E43" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="F43" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="G43" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="H43" s="3">
         <v>200</v>
       </c>
       <c r="I43" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="J43" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="K43" s="3">
         <v>200</v>
       </c>
       <c r="L43" s="3">
+        <v>100</v>
+      </c>
+      <c r="M43" s="3">
+        <v>100</v>
+      </c>
+      <c r="N43" s="3">
         <v>200</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
+        <v>200</v>
+      </c>
+      <c r="P43" s="3">
         <v>1000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="Q43" s="3">
         <v>600</v>
       </c>
-      <c r="O43" s="3">
+      <c r="R43" s="3">
         <v>300</v>
       </c>
-      <c r="P43" s="3">
-        <v>100</v>
-      </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
+        <v>100</v>
+      </c>
+      <c r="T43" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2241,13 +2529,22 @@
       <c r="Q44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="E45" s="3">
         <v>200</v>
@@ -2256,17 +2553,17 @@
         <v>200</v>
       </c>
       <c r="G45" s="3">
+        <v>100</v>
+      </c>
+      <c r="H45" s="3">
+        <v>200</v>
+      </c>
+      <c r="I45" s="3">
+        <v>200</v>
+      </c>
+      <c r="J45" s="3">
         <v>2000</v>
       </c>
-      <c r="H45" s="3">
-        <v>100</v>
-      </c>
-      <c r="I45" s="3">
-        <v>100</v>
-      </c>
-      <c r="J45" s="3">
-        <v>0</v>
-      </c>
       <c r="K45" s="3">
         <v>100</v>
       </c>
@@ -2277,66 +2574,84 @@
         <v>0</v>
       </c>
       <c r="N45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P45" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q45" s="3">
+        <v>0</v>
+      </c>
+      <c r="R45" s="3">
+        <v>0</v>
+      </c>
+      <c r="S45" s="3">
         <v>200</v>
       </c>
-      <c r="Q45" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="T45" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>500</v>
+      </c>
+      <c r="E46" s="3">
+        <v>200</v>
+      </c>
+      <c r="F46" s="3">
+        <v>200</v>
+      </c>
+      <c r="G46" s="3">
         <v>300</v>
-      </c>
-      <c r="E46" s="3">
-        <v>400</v>
-      </c>
-      <c r="F46" s="3">
-        <v>600</v>
-      </c>
-      <c r="G46" s="3">
-        <v>2400</v>
       </c>
       <c r="H46" s="3">
         <v>400</v>
       </c>
       <c r="I46" s="3">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="J46" s="3">
-        <v>500</v>
+        <v>2400</v>
       </c>
       <c r="K46" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="L46" s="3">
         <v>300</v>
       </c>
       <c r="M46" s="3">
+        <v>500</v>
+      </c>
+      <c r="N46" s="3">
+        <v>300</v>
+      </c>
+      <c r="O46" s="3">
+        <v>300</v>
+      </c>
+      <c r="P46" s="3">
         <v>1000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="Q46" s="3">
         <v>600</v>
       </c>
-      <c r="O46" s="3">
+      <c r="R46" s="3">
         <v>400</v>
       </c>
-      <c r="P46" s="3">
+      <c r="S46" s="3">
         <v>300</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="T46" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2373,64 +2688,82 @@
       <c r="N47" s="3">
         <v>0</v>
       </c>
-      <c r="O47" s="3" t="s">
-        <v>5</v>
+      <c r="O47" s="3">
+        <v>0</v>
       </c>
       <c r="P47" s="3">
-        <v>100</v>
-      </c>
-      <c r="Q47" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+      <c r="R47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S47" s="3">
+        <v>100</v>
+      </c>
+      <c r="T47" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E48" s="3">
+        <v>2800</v>
+      </c>
+      <c r="F48" s="3">
+        <v>2700</v>
+      </c>
+      <c r="G48" s="3">
         <v>3000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="H48" s="3">
         <v>20100</v>
       </c>
-      <c r="F48" s="3">
+      <c r="I48" s="3">
         <v>20400</v>
       </c>
-      <c r="G48" s="3">
+      <c r="J48" s="3">
         <v>22900</v>
       </c>
-      <c r="H48" s="3">
+      <c r="K48" s="3">
         <v>8900</v>
       </c>
-      <c r="I48" s="3">
+      <c r="L48" s="3">
         <v>8900</v>
       </c>
-      <c r="J48" s="3">
+      <c r="M48" s="3">
         <v>8900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="N48" s="3">
         <v>9000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="O48" s="3">
         <v>9200</v>
       </c>
-      <c r="M48" s="3">
+      <c r="P48" s="3">
         <v>12200</v>
       </c>
-      <c r="N48" s="3">
+      <c r="Q48" s="3">
         <v>12000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="R48" s="3">
         <v>10800</v>
       </c>
-      <c r="P48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T48" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2458,26 +2791,35 @@
       <c r="K49" s="3">
         <v>0</v>
       </c>
-      <c r="L49" s="3" t="s">
-        <v>5</v>
+      <c r="L49" s="3">
+        <v>0</v>
       </c>
       <c r="M49" s="3">
+        <v>0</v>
+      </c>
+      <c r="N49" s="3">
+        <v>0</v>
+      </c>
+      <c r="O49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P49" s="3">
         <v>1400</v>
       </c>
-      <c r="N49" s="3">
+      <c r="Q49" s="3">
         <v>1400</v>
       </c>
-      <c r="O49" s="3">
+      <c r="R49" s="3">
         <v>1400</v>
       </c>
-      <c r="P49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q49" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="S49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T49" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2523,8 +2865,17 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2570,8 +2921,17 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2579,46 +2939,55 @@
         <v>0</v>
       </c>
       <c r="E52" s="3">
+        <v>0</v>
+      </c>
+      <c r="F52" s="3">
+        <v>0</v>
+      </c>
+      <c r="G52" s="3">
+        <v>0</v>
+      </c>
+      <c r="H52" s="3">
         <v>3000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="I52" s="3">
         <v>3000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="J52" s="3">
         <v>3000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="K52" s="3">
         <v>3300</v>
       </c>
-      <c r="I52" s="3">
+      <c r="L52" s="3">
         <v>3400</v>
       </c>
-      <c r="J52" s="3">
+      <c r="M52" s="3">
         <v>3400</v>
       </c>
-      <c r="K52" s="3">
+      <c r="N52" s="3">
         <v>2600</v>
       </c>
-      <c r="L52" s="3">
+      <c r="O52" s="3">
         <v>2800</v>
       </c>
-      <c r="M52" s="3">
+      <c r="P52" s="3">
         <v>1400</v>
       </c>
-      <c r="N52" s="3">
+      <c r="Q52" s="3">
         <v>1300</v>
       </c>
-      <c r="O52" s="3">
+      <c r="R52" s="3">
         <v>1300</v>
       </c>
-      <c r="P52" s="3">
-        <v>100</v>
-      </c>
-      <c r="Q52" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="S52" s="3">
+        <v>100</v>
+      </c>
+      <c r="T52" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2664,55 +3033,73 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>3300</v>
+      </c>
+      <c r="E54" s="3">
+        <v>3000</v>
+      </c>
+      <c r="F54" s="3">
+        <v>2900</v>
+      </c>
+      <c r="G54" s="3">
         <v>3200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="H54" s="3">
         <v>23500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="I54" s="3">
         <v>24000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="J54" s="3">
         <v>28300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="K54" s="3">
         <v>12700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="L54" s="3">
         <v>12600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="M54" s="3">
         <v>12800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="N54" s="3">
         <v>11900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="O54" s="3">
         <v>12300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="P54" s="3">
         <v>16000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="Q54" s="3">
         <v>15300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="R54" s="3">
         <v>13900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="S54" s="3">
         <v>500</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="T54" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2730,8 +3117,11 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+      <c r="S55" s="3"/>
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2749,278 +3139,326 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+      <c r="S56" s="3"/>
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>800</v>
+      </c>
+      <c r="E57" s="3">
+        <v>800</v>
+      </c>
+      <c r="F57" s="3">
+        <v>900</v>
+      </c>
+      <c r="G57" s="3">
         <v>1000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="H57" s="3">
         <v>2200</v>
       </c>
-      <c r="F57" s="3">
+      <c r="I57" s="3">
         <v>1800</v>
       </c>
-      <c r="G57" s="3">
+      <c r="J57" s="3">
         <v>1600</v>
       </c>
-      <c r="H57" s="3">
+      <c r="K57" s="3">
         <v>1100</v>
       </c>
-      <c r="I57" s="3">
+      <c r="L57" s="3">
         <v>700</v>
       </c>
-      <c r="J57" s="3">
+      <c r="M57" s="3">
         <v>300</v>
-      </c>
-      <c r="K57" s="3">
-        <v>400</v>
-      </c>
-      <c r="L57" s="3">
-        <v>400</v>
-      </c>
-      <c r="M57" s="3">
-        <v>400</v>
       </c>
       <c r="N57" s="3">
         <v>400</v>
       </c>
       <c r="O57" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="P57" s="3">
         <v>400</v>
       </c>
       <c r="Q57" s="3">
+        <v>400</v>
+      </c>
+      <c r="R57" s="3">
+        <v>500</v>
+      </c>
+      <c r="S57" s="3">
+        <v>400</v>
+      </c>
+      <c r="T57" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>7500</v>
+      </c>
+      <c r="E58" s="3">
+        <v>7300</v>
+      </c>
+      <c r="F58" s="3">
+        <v>8300</v>
+      </c>
+      <c r="G58" s="3">
         <v>8100</v>
       </c>
-      <c r="E58" s="3">
+      <c r="H58" s="3">
         <v>7700</v>
       </c>
-      <c r="F58" s="3">
+      <c r="I58" s="3">
         <v>7700</v>
       </c>
-      <c r="G58" s="3">
+      <c r="J58" s="3">
         <v>10400</v>
       </c>
-      <c r="H58" s="3">
+      <c r="K58" s="3">
         <v>7200</v>
       </c>
-      <c r="I58" s="3">
+      <c r="L58" s="3">
         <v>6100</v>
       </c>
-      <c r="J58" s="3">
+      <c r="M58" s="3">
         <v>4800</v>
       </c>
-      <c r="K58" s="3">
+      <c r="N58" s="3">
         <v>3500</v>
       </c>
-      <c r="L58" s="3">
+      <c r="O58" s="3">
         <v>2900</v>
       </c>
-      <c r="M58" s="3">
+      <c r="P58" s="3">
         <v>2000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="Q58" s="3">
         <v>6000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="R58" s="3">
         <v>5500</v>
       </c>
-      <c r="P58" s="3">
+      <c r="S58" s="3">
         <v>500</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="T58" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>20500</v>
+      </c>
+      <c r="E59" s="3">
+        <v>10200</v>
+      </c>
+      <c r="F59" s="3">
+        <v>19200</v>
+      </c>
+      <c r="G59" s="3">
         <v>9500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="H59" s="3">
         <v>4300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="I59" s="3">
         <v>5500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="J59" s="3">
         <v>7200</v>
       </c>
-      <c r="H59" s="3">
+      <c r="K59" s="3">
         <v>5400</v>
       </c>
-      <c r="I59" s="3">
+      <c r="L59" s="3">
         <v>5600</v>
       </c>
-      <c r="J59" s="3">
+      <c r="M59" s="3">
         <v>5400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="N59" s="3">
         <v>4000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="O59" s="3">
         <v>3500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="P59" s="3">
         <v>600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="Q59" s="3">
         <v>500</v>
       </c>
-      <c r="O59" s="3">
+      <c r="R59" s="3">
         <v>600</v>
       </c>
-      <c r="P59" s="3">
+      <c r="S59" s="3">
         <v>2800</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="T59" s="3">
         <v>2800</v>
       </c>
     </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>28800</v>
+      </c>
+      <c r="E60" s="3">
+        <v>18300</v>
+      </c>
+      <c r="F60" s="3">
+        <v>28400</v>
+      </c>
+      <c r="G60" s="3">
         <v>18600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="H60" s="3">
         <v>14200</v>
       </c>
-      <c r="F60" s="3">
+      <c r="I60" s="3">
         <v>15000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="J60" s="3">
         <v>19200</v>
       </c>
-      <c r="H60" s="3">
+      <c r="K60" s="3">
         <v>13700</v>
       </c>
-      <c r="I60" s="3">
+      <c r="L60" s="3">
         <v>12400</v>
       </c>
-      <c r="J60" s="3">
+      <c r="M60" s="3">
         <v>10600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="N60" s="3">
         <v>7900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="O60" s="3">
         <v>6900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="P60" s="3">
         <v>2900</v>
       </c>
-      <c r="N60" s="3">
+      <c r="Q60" s="3">
         <v>6900</v>
       </c>
-      <c r="O60" s="3">
+      <c r="R60" s="3">
         <v>6600</v>
       </c>
-      <c r="P60" s="3">
+      <c r="S60" s="3">
         <v>3600</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="T60" s="3">
         <v>3400</v>
       </c>
     </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>4400</v>
+      </c>
+      <c r="E61" s="3">
+        <v>4400</v>
+      </c>
+      <c r="F61" s="3">
+        <v>4300</v>
+      </c>
+      <c r="G61" s="3">
         <v>4700</v>
       </c>
-      <c r="E61" s="3">
+      <c r="H61" s="3">
         <v>4600</v>
       </c>
-      <c r="F61" s="3">
+      <c r="I61" s="3">
         <v>3900</v>
       </c>
-      <c r="G61" s="3">
+      <c r="J61" s="3">
         <v>3900</v>
       </c>
-      <c r="H61" s="3">
+      <c r="K61" s="3">
         <v>6700</v>
       </c>
-      <c r="I61" s="3">
+      <c r="L61" s="3">
         <v>7000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="M61" s="3">
         <v>6900</v>
       </c>
-      <c r="K61" s="3">
+      <c r="N61" s="3">
         <v>7000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="O61" s="3">
         <v>7200</v>
       </c>
-      <c r="M61" s="3">
+      <c r="P61" s="3">
         <v>7200</v>
       </c>
-      <c r="N61" s="3">
+      <c r="Q61" s="3">
         <v>3000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="R61" s="3">
         <v>3000</v>
       </c>
-      <c r="P61" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q61" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E62" s="3">
+      <c r="E62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H62" s="3">
         <v>14600</v>
       </c>
-      <c r="F62" s="3">
+      <c r="I62" s="3">
         <v>14800</v>
       </c>
-      <c r="G62" s="3">
+      <c r="J62" s="3">
         <v>15000</v>
       </c>
-      <c r="H62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J62" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="K62" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L62" s="3">
-        <v>0</v>
-      </c>
-      <c r="M62" s="3">
-        <v>0</v>
-      </c>
-      <c r="N62" s="3">
-        <v>0</v>
+      <c r="L62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N62" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="O62" s="3">
         <v>0</v>
@@ -3031,8 +3469,17 @@
       <c r="Q62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R62" s="3">
+        <v>0</v>
+      </c>
+      <c r="S62" s="3">
+        <v>0</v>
+      </c>
+      <c r="T62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3078,8 +3525,17 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3125,8 +3581,17 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3172,55 +3637,73 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>33900</v>
+      </c>
+      <c r="E66" s="3">
+        <v>23400</v>
+      </c>
+      <c r="F66" s="3">
+        <v>32600</v>
+      </c>
+      <c r="G66" s="3">
         <v>23200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="H66" s="3">
         <v>33400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="I66" s="3">
         <v>33700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="J66" s="3">
         <v>38200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="K66" s="3">
         <v>20400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="L66" s="3">
         <v>19400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="M66" s="3">
         <v>17500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="N66" s="3">
         <v>14900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="O66" s="3">
         <v>14000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="P66" s="3">
         <v>10100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="Q66" s="3">
         <v>9900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="R66" s="3">
         <v>9600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="S66" s="3">
         <v>3600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="T66" s="3">
         <v>3500</v>
       </c>
     </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3238,8 +3721,11 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+      <c r="S67" s="3"/>
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3285,8 +3771,17 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3332,16 +3827,25 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E70" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F70" s="3">
         <v>0</v>
@@ -3379,8 +3883,17 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3426,55 +3939,73 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-57100</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-46800</v>
+      </c>
+      <c r="F72" s="3">
+        <v>-55800</v>
+      </c>
+      <c r="G72" s="3">
         <v>-45500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="H72" s="3">
         <v>-35600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="I72" s="3">
         <v>-35300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="J72" s="3">
         <v>-33600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="K72" s="3">
         <v>-30500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="L72" s="3">
         <v>-28900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="M72" s="3">
         <v>-26500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="N72" s="3">
         <v>-23600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="O72" s="3">
         <v>-22400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="P72" s="3">
         <v>-14800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="Q72" s="3">
         <v>-14700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="R72" s="3">
         <v>-15500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="S72" s="3">
         <v>-21000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="T72" s="3">
         <v>-20400</v>
       </c>
     </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3520,8 +4051,17 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3567,8 +4107,17 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3614,55 +4163,73 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-31000</v>
+      </c>
+      <c r="E76" s="3">
+        <v>-20800</v>
+      </c>
+      <c r="F76" s="3">
+        <v>-29800</v>
+      </c>
+      <c r="G76" s="3">
         <v>-20000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="H76" s="3">
         <v>-10000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="I76" s="3">
         <v>-9700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="J76" s="3">
         <v>-9900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="K76" s="3">
         <v>-7700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="L76" s="3">
         <v>-6800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="M76" s="3">
         <v>-4800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="N76" s="3">
         <v>-3000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="O76" s="3">
         <v>-1800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="P76" s="3">
         <v>5900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="Q76" s="3">
         <v>5400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="R76" s="3">
         <v>4400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="S76" s="3">
         <v>-3200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="T76" s="3">
         <v>-2900</v>
       </c>
     </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3708,107 +4275,134 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="F80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="E80" s="2">
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="F80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="G80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="H80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="I80" s="2">
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
-      <c r="J80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="K80" s="2">
+      <c r="N80" s="2">
         <v>43190</v>
       </c>
-      <c r="L80" s="2">
+      <c r="O80" s="2">
         <v>43100</v>
       </c>
-      <c r="M80" s="2">
+      <c r="P80" s="2">
         <v>43008</v>
       </c>
-      <c r="N80" s="2">
+      <c r="Q80" s="2">
         <v>42916</v>
       </c>
-      <c r="O80" s="2">
+      <c r="R80" s="2">
         <v>42825</v>
       </c>
-      <c r="P80" s="2">
+      <c r="S80" s="2">
         <v>42735</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="T80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-10300</v>
+      </c>
+      <c r="E81" s="3">
+        <v>9000</v>
+      </c>
+      <c r="F81" s="3">
+        <v>-10300</v>
+      </c>
+      <c r="G81" s="3">
         <v>-9800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="H81" s="3">
         <v>-400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="I81" s="3">
         <v>-1700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="J81" s="3">
         <v>-3100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="K81" s="3">
         <v>-8200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="L81" s="3">
         <v>-2400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="M81" s="3">
         <v>-2900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="N81" s="3">
         <v>-1200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="O81" s="3">
         <v>-1400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="P81" s="3">
         <v>-100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="Q81" s="3">
         <v>-300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="R81" s="3">
         <v>1900</v>
       </c>
-      <c r="P81" s="3">
+      <c r="S81" s="3">
         <v>-300</v>
       </c>
-      <c r="Q81" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="T81" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3826,8 +4420,11 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+      <c r="S82" s="3"/>
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3838,43 +4435,52 @@
         <v>0</v>
       </c>
       <c r="F83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H83" s="3">
+        <v>0</v>
+      </c>
+      <c r="I83" s="3">
+        <v>100</v>
+      </c>
+      <c r="J83" s="3">
+        <v>100</v>
+      </c>
+      <c r="K83" s="3">
         <v>300</v>
       </c>
-      <c r="I83" s="3">
-        <v>100</v>
-      </c>
-      <c r="J83" s="3">
-        <v>100</v>
-      </c>
-      <c r="K83" s="3">
-        <v>100</v>
-      </c>
       <c r="L83" s="3">
+        <v>100</v>
+      </c>
+      <c r="M83" s="3">
+        <v>100</v>
+      </c>
+      <c r="N83" s="3">
+        <v>100</v>
+      </c>
+      <c r="O83" s="3">
         <v>200</v>
       </c>
-      <c r="M83" s="3">
-        <v>100</v>
-      </c>
-      <c r="N83" s="3">
-        <v>100</v>
-      </c>
-      <c r="O83" s="3">
-        <v>100</v>
-      </c>
-      <c r="P83" s="3" t="s">
-        <v>5</v>
+      <c r="P83" s="3">
+        <v>100</v>
       </c>
       <c r="Q83" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="R83" s="3">
+        <v>100</v>
+      </c>
+      <c r="S83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3920,8 +4526,17 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3967,8 +4582,17 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4014,8 +4638,17 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4061,8 +4694,17 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4108,55 +4750,73 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-600</v>
+      </c>
+      <c r="F89" s="3">
+        <v>500</v>
+      </c>
+      <c r="G89" s="3">
         <v>-400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="H89" s="3">
         <v>-500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="I89" s="3">
         <v>-900</v>
       </c>
-      <c r="G89" s="3">
+      <c r="J89" s="3">
         <v>-1100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="K89" s="3">
         <v>-1500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="L89" s="3">
         <v>-800</v>
       </c>
-      <c r="J89" s="3">
+      <c r="M89" s="3">
         <v>-400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="N89" s="3">
         <v>200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="O89" s="3">
         <v>-4600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="P89" s="3">
         <v>-500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="Q89" s="3">
         <v>-400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="R89" s="3">
         <v>-3100</v>
       </c>
-      <c r="P89" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
+        <v>0</v>
+      </c>
+      <c r="T89" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4174,55 +4834,67 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+      <c r="S90" s="3"/>
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3">
+      <c r="D91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G91" s="3">
         <v>-100</v>
       </c>
-      <c r="E91" s="3">
-        <v>0</v>
-      </c>
-      <c r="F91" s="3">
-        <v>0</v>
-      </c>
-      <c r="G91" s="3">
-        <v>0</v>
-      </c>
       <c r="H91" s="3">
+        <v>0</v>
+      </c>
+      <c r="I91" s="3">
+        <v>0</v>
+      </c>
+      <c r="J91" s="3">
+        <v>0</v>
+      </c>
+      <c r="K91" s="3">
         <v>-300</v>
       </c>
-      <c r="I91" s="3">
-        <v>0</v>
-      </c>
-      <c r="J91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K91" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="L91" s="3">
+        <v>0</v>
+      </c>
+      <c r="M91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O91" s="3">
         <v>-400</v>
       </c>
-      <c r="M91" s="3">
-        <v>0</v>
-      </c>
-      <c r="N91" s="3">
-        <v>0</v>
-      </c>
-      <c r="O91" s="3">
-        <v>0</v>
-      </c>
-      <c r="P91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q91" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="P91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+      <c r="R91" s="3">
+        <v>0</v>
+      </c>
+      <c r="S91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T91" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4268,8 +4940,17 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4315,55 +4996,73 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>0</v>
+      </c>
+      <c r="E94" s="3">
+        <v>0</v>
+      </c>
+      <c r="F94" s="3">
+        <v>0</v>
+      </c>
+      <c r="G94" s="3">
         <v>1200</v>
       </c>
-      <c r="E94" s="3">
-        <v>0</v>
-      </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
+        <v>0</v>
+      </c>
+      <c r="I94" s="3">
         <v>3300</v>
       </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
+        <v>0</v>
+      </c>
+      <c r="K94" s="3">
         <v>-1400</v>
       </c>
-      <c r="I94" s="3">
-        <v>0</v>
-      </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
+        <v>0</v>
+      </c>
+      <c r="M94" s="3">
         <v>-900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="N94" s="3">
         <v>-300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="O94" s="3">
         <v>1400</v>
       </c>
-      <c r="M94" s="3">
-        <v>100</v>
-      </c>
-      <c r="N94" s="3">
-        <v>0</v>
-      </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+      <c r="R94" s="3">
         <v>3300</v>
       </c>
-      <c r="P94" s="3">
+      <c r="S94" s="3">
         <v>-100</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="T94" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4381,8 +5080,11 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+      <c r="S95" s="3"/>
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4428,8 +5130,17 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4475,8 +5186,17 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4522,8 +5242,17 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4569,102 +5298,129 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>300</v>
+      </c>
+      <c r="E100" s="3">
+        <v>100</v>
+      </c>
+      <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
         <v>-1000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="H100" s="3">
         <v>500</v>
       </c>
-      <c r="F100" s="3">
+      <c r="I100" s="3">
         <v>-2500</v>
       </c>
-      <c r="G100" s="3">
+      <c r="J100" s="3">
         <v>1000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="K100" s="3">
         <v>3400</v>
       </c>
-      <c r="I100" s="3">
+      <c r="L100" s="3">
         <v>500</v>
       </c>
-      <c r="J100" s="3">
+      <c r="M100" s="3">
         <v>1800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="N100" s="3">
         <v>200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="O100" s="3">
         <v>3300</v>
-      </c>
-      <c r="M100" s="3">
-        <v>200</v>
-      </c>
-      <c r="N100" s="3">
-        <v>100</v>
-      </c>
-      <c r="O100" s="3">
-        <v>0</v>
       </c>
       <c r="P100" s="3">
         <v>200</v>
       </c>
       <c r="Q100" s="3">
+        <v>100</v>
+      </c>
+      <c r="R100" s="3">
+        <v>0</v>
+      </c>
+      <c r="S100" s="3">
+        <v>200</v>
+      </c>
+      <c r="T100" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E101" s="3">
+        <v>500</v>
+      </c>
+      <c r="F101" s="3">
+        <v>-500</v>
+      </c>
+      <c r="G101" s="3">
+        <v>100</v>
+      </c>
+      <c r="H101" s="3">
         <v>-100</v>
       </c>
-      <c r="F101" s="3">
-        <v>100</v>
-      </c>
-      <c r="G101" s="3">
-        <v>100</v>
-      </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
+        <v>100</v>
+      </c>
+      <c r="J101" s="3">
+        <v>100</v>
+      </c>
+      <c r="K101" s="3">
         <v>-400</v>
       </c>
-      <c r="I101" s="3">
+      <c r="L101" s="3">
         <v>200</v>
       </c>
-      <c r="J101" s="3">
+      <c r="M101" s="3">
         <v>-100</v>
       </c>
-      <c r="K101" s="3">
+      <c r="N101" s="3">
         <v>-100</v>
       </c>
-      <c r="L101" s="3">
-        <v>0</v>
-      </c>
-      <c r="M101" s="3">
+      <c r="O101" s="3">
+        <v>0</v>
+      </c>
+      <c r="P101" s="3">
         <v>300</v>
       </c>
-      <c r="N101" s="3">
+      <c r="Q101" s="3">
         <v>200</v>
       </c>
-      <c r="O101" s="3">
+      <c r="R101" s="3">
         <v>-200</v>
       </c>
-      <c r="P101" s="3">
+      <c r="S101" s="3">
         <v>-100</v>
       </c>
-      <c r="Q101" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -4684,30 +5440,39 @@
         <v>0</v>
       </c>
       <c r="I102" s="3">
+        <v>0</v>
+      </c>
+      <c r="J102" s="3">
+        <v>0</v>
+      </c>
+      <c r="K102" s="3">
+        <v>0</v>
+      </c>
+      <c r="L102" s="3">
         <v>-300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="M102" s="3">
         <v>300</v>
       </c>
-      <c r="K102" s="3">
-        <v>0</v>
-      </c>
-      <c r="L102" s="3">
-        <v>0</v>
-      </c>
-      <c r="M102" s="3">
-        <v>0</v>
-      </c>
       <c r="N102" s="3">
+        <v>0</v>
+      </c>
+      <c r="O102" s="3">
+        <v>0</v>
+      </c>
+      <c r="P102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="3">
         <v>-100</v>
       </c>
-      <c r="O102" s="3">
-        <v>100</v>
-      </c>
-      <c r="P102" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
+        <v>100</v>
+      </c>
+      <c r="S102" s="3">
+        <v>0</v>
+      </c>
+      <c r="T102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/GRST_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GRST_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="92">
   <si>
     <t>GRST</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,89 +665,92 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43373</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43190</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43100</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43008</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42916</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42825</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42735</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -761,10 +764,10 @@
         <v>100</v>
       </c>
       <c r="G8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I8" s="3">
         <v>100</v>
@@ -773,37 +776,40 @@
         <v>100</v>
       </c>
       <c r="K8" s="3">
+        <v>100</v>
+      </c>
+      <c r="L8" s="3">
         <v>400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>300</v>
       </c>
-      <c r="M8" s="3">
-        <v>100</v>
-      </c>
       <c r="N8" s="3">
         <v>100</v>
       </c>
       <c r="O8" s="3">
+        <v>100</v>
+      </c>
+      <c r="P8" s="3">
         <v>900</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>600</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>400</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>300</v>
       </c>
-      <c r="S8" s="3">
-        <v>0</v>
-      </c>
       <c r="T8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -858,8 +864,11 @@
       <c r="T9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -914,8 +923,11 @@
       <c r="T10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -936,8 +948,9 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -992,8 +1005,11 @@
       <c r="T12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1048,31 +1064,34 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
         <v>-12700</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>300</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>900</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
       <c r="I14" s="3">
-        <v>100</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>5</v>
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
+        <v>100</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>5</v>
@@ -1086,8 +1105,8 @@
       <c r="N14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
+      <c r="O14" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="P14" s="3">
         <v>0</v>
@@ -1104,8 +1123,11 @@
       <c r="T14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1125,17 +1147,17 @@
         <v>0</v>
       </c>
       <c r="I15" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J15" s="3">
         <v>100</v>
       </c>
       <c r="K15" s="3">
+        <v>100</v>
+      </c>
+      <c r="L15" s="3">
         <v>300</v>
       </c>
-      <c r="L15" s="3">
-        <v>100</v>
-      </c>
       <c r="M15" s="3">
         <v>100</v>
       </c>
@@ -1143,25 +1165,28 @@
         <v>100</v>
       </c>
       <c r="O15" s="3">
+        <v>100</v>
+      </c>
+      <c r="P15" s="3">
         <v>200</v>
       </c>
-      <c r="P15" s="3">
-        <v>100</v>
-      </c>
       <c r="Q15" s="3">
         <v>100</v>
       </c>
       <c r="R15" s="3">
-        <v>0</v>
-      </c>
-      <c r="S15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T15" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+      <c r="T15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1179,120 +1204,127 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="E17" s="3">
+        <v>100</v>
+      </c>
+      <c r="F17" s="3">
         <v>-12600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1100</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>3300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>2400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>400</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>900</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>800</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>0</v>
+        <v>-400</v>
       </c>
       <c r="E18" s="3">
+        <v>0</v>
+      </c>
+      <c r="F18" s="3">
         <v>12700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-400</v>
-      </c>
-      <c r="G18" s="3">
-        <v>-1100</v>
       </c>
       <c r="H18" s="3">
         <v>-1100</v>
       </c>
       <c r="I18" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="J18" s="3">
         <v>-1500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-1400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-2900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-1500</v>
       </c>
-      <c r="P18" s="3">
-        <v>100</v>
-      </c>
       <c r="Q18" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R18" s="3">
+        <v>0</v>
+      </c>
+      <c r="S18" s="3">
         <v>-600</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-800</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1313,237 +1345,250 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>15400</v>
+      </c>
+      <c r="E20" s="3">
         <v>-10000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-3300</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-9400</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-7800</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>2000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>900</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-600</v>
       </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
       <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
         <v>-100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-700</v>
       </c>
-      <c r="N20" s="3">
-        <v>100</v>
-      </c>
       <c r="O20" s="3">
+        <v>100</v>
+      </c>
+      <c r="P20" s="3">
         <v>-6300</v>
       </c>
-      <c r="P20" s="3">
-        <v>100</v>
-      </c>
       <c r="Q20" s="3">
+        <v>100</v>
+      </c>
+      <c r="R20" s="3">
         <v>-100</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-4800</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-200</v>
       </c>
-      <c r="T20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>15000</v>
+      </c>
+      <c r="E21" s="3">
         <v>-10000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>9400</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-9700</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-8800</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>1000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-600</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-1900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-2600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-900</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-1300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-200</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-7600</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>200</v>
       </c>
-      <c r="Q21" s="3">
-        <v>0</v>
-      </c>
       <c r="R21" s="3">
+        <v>0</v>
+      </c>
+      <c r="S21" s="3">
         <v>-5400</v>
       </c>
-      <c r="S21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T21" s="3">
+      <c r="T21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U21" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>400</v>
+      </c>
+      <c r="E22" s="3">
         <v>200</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>300</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>600</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>1000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>1300</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>1000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>1100</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>5200</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>1400</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>1500</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>900</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>400</v>
       </c>
-      <c r="P22" s="3">
-        <v>100</v>
-      </c>
       <c r="Q22" s="3">
         <v>100</v>
       </c>
       <c r="R22" s="3">
+        <v>100</v>
+      </c>
+      <c r="S22" s="3">
         <v>300</v>
       </c>
-      <c r="S22" s="3">
-        <v>0</v>
-      </c>
       <c r="T22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>14600</v>
+      </c>
+      <c r="E23" s="3">
         <v>-10200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>9000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-10300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-9800</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-1700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-3100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-8100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-2400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-2900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-1200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-8200</v>
       </c>
-      <c r="P23" s="3">
-        <v>100</v>
-      </c>
       <c r="Q23" s="3">
+        <v>100</v>
+      </c>
+      <c r="R23" s="3">
         <v>-200</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-5700</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-1000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="3">
-        <v>0</v>
+      <c r="D24" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E24" s="3">
         <v>0</v>
@@ -1564,10 +1609,10 @@
         <v>0</v>
       </c>
       <c r="K24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M24" s="3">
         <v>0</v>
@@ -1593,8 +1638,11 @@
       <c r="T24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1649,120 +1697,129 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>14600</v>
+      </c>
+      <c r="E26" s="3">
         <v>-10200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>9000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-10300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-9800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-1700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-3100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-8200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-2400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-2900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-1200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-8200</v>
       </c>
-      <c r="P26" s="3">
-        <v>100</v>
-      </c>
       <c r="Q26" s="3">
+        <v>100</v>
+      </c>
+      <c r="R26" s="3">
         <v>-200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-5700</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-1000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>14600</v>
+      </c>
+      <c r="E27" s="3">
         <v>-10300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>9000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-10300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-9800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-1700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-3100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-8200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-2400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-2900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-1200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-8200</v>
       </c>
-      <c r="P27" s="3">
-        <v>100</v>
-      </c>
       <c r="Q27" s="3">
+        <v>100</v>
+      </c>
+      <c r="R27" s="3">
         <v>-200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-5700</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-1000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1817,8 +1874,11 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1843,8 +1903,8 @@
       <c r="J29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K29" s="3">
-        <v>0</v>
+      <c r="K29" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="L29" s="3">
         <v>0</v>
@@ -1856,25 +1916,28 @@
         <v>0</v>
       </c>
       <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3">
         <v>6800</v>
       </c>
-      <c r="P29" s="3">
+      <c r="Q29" s="3">
         <v>-200</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="R29" s="3">
         <v>-100</v>
       </c>
-      <c r="R29" s="3">
+      <c r="S29" s="3">
         <v>7600</v>
       </c>
-      <c r="S29" s="3">
+      <c r="T29" s="3">
         <v>700</v>
       </c>
-      <c r="T29" s="3">
+      <c r="U29" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1929,8 +1992,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1985,120 +2051,129 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-15400</v>
+      </c>
+      <c r="E32" s="3">
         <v>10000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>3300</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>9400</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>7800</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-2000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-900</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>600</v>
       </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
       <c r="L32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M32" s="3">
+        <v>100</v>
+      </c>
+      <c r="N32" s="3">
         <v>700</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-100</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>6300</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-100</v>
       </c>
-      <c r="Q32" s="3">
-        <v>100</v>
-      </c>
       <c r="R32" s="3">
+        <v>100</v>
+      </c>
+      <c r="S32" s="3">
         <v>4800</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>200</v>
       </c>
-      <c r="T32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>14600</v>
+      </c>
+      <c r="E33" s="3">
         <v>-10300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>9000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-10300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-9800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-1700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-3100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-8200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-2400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-2900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-1200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-1400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-300</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>1900</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-300</v>
       </c>
-      <c r="T33" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U33" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2153,125 +2228,134 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>14600</v>
+      </c>
+      <c r="E35" s="3">
         <v>-10300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>9000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-10300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-9800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-1700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-3100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-8200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-2400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-2900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-1200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-1400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-300</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>1900</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-300</v>
       </c>
-      <c r="T35" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U35" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43373</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43190</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43100</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43008</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42916</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42825</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42735</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2292,8 +2376,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2314,13 +2399,14 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E41" s="3">
         <v>0</v>
@@ -2344,14 +2430,14 @@
         <v>0</v>
       </c>
       <c r="L41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M41" s="3">
+        <v>100</v>
+      </c>
+      <c r="N41" s="3">
         <v>300</v>
       </c>
-      <c r="N41" s="3">
-        <v>0</v>
-      </c>
       <c r="O41" s="3">
         <v>0</v>
       </c>
@@ -2362,39 +2448,42 @@
         <v>0</v>
       </c>
       <c r="R41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>0</v>
-      </c>
-      <c r="E42" s="3">
-        <v>0</v>
-      </c>
-      <c r="F42" s="3">
-        <v>0</v>
-      </c>
-      <c r="G42" s="3">
-        <v>0</v>
-      </c>
-      <c r="H42" s="3">
-        <v>0</v>
-      </c>
-      <c r="I42" s="3">
-        <v>0</v>
-      </c>
-      <c r="J42" s="3">
-        <v>0</v>
+        <v>700</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J42" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="K42" s="3">
         <v>0</v>
@@ -2426,8 +2515,11 @@
       <c r="T42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2438,52 +2530,55 @@
         <v>0</v>
       </c>
       <c r="F43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G43" s="3">
         <v>100</v>
       </c>
       <c r="H43" s="3">
+        <v>100</v>
+      </c>
+      <c r="I43" s="3">
         <v>200</v>
-      </c>
-      <c r="I43" s="3">
-        <v>300</v>
       </c>
       <c r="J43" s="3">
         <v>300</v>
       </c>
       <c r="K43" s="3">
+        <v>300</v>
+      </c>
+      <c r="L43" s="3">
         <v>200</v>
       </c>
-      <c r="L43" s="3">
-        <v>100</v>
-      </c>
       <c r="M43" s="3">
         <v>100</v>
       </c>
       <c r="N43" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="O43" s="3">
         <v>200</v>
       </c>
       <c r="P43" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q43" s="3">
         <v>1000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>600</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>300</v>
       </c>
-      <c r="S43" s="3">
-        <v>100</v>
-      </c>
       <c r="T43" s="3">
+        <v>100</v>
+      </c>
+      <c r="U43" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2538,49 +2633,52 @@
       <c r="T44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>200</v>
+      </c>
+      <c r="E45" s="3">
         <v>500</v>
-      </c>
-      <c r="E45" s="3">
-        <v>200</v>
       </c>
       <c r="F45" s="3">
         <v>200</v>
       </c>
       <c r="G45" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="H45" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="I45" s="3">
         <v>200</v>
       </c>
       <c r="J45" s="3">
+        <v>200</v>
+      </c>
+      <c r="K45" s="3">
         <v>2000</v>
       </c>
-      <c r="K45" s="3">
-        <v>100</v>
-      </c>
       <c r="L45" s="3">
         <v>100</v>
       </c>
       <c r="M45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O45" s="3">
         <v>100</v>
       </c>
       <c r="P45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q45" s="3">
         <v>0</v>
@@ -2589,69 +2687,75 @@
         <v>0</v>
       </c>
       <c r="S45" s="3">
+        <v>0</v>
+      </c>
+      <c r="T45" s="3">
         <v>200</v>
       </c>
-      <c r="T45" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U45" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>900</v>
+      </c>
+      <c r="E46" s="3">
         <v>500</v>
-      </c>
-      <c r="E46" s="3">
-        <v>200</v>
       </c>
       <c r="F46" s="3">
         <v>200</v>
       </c>
       <c r="G46" s="3">
+        <v>200</v>
+      </c>
+      <c r="H46" s="3">
         <v>300</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>400</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>600</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>2400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>300</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>500</v>
-      </c>
-      <c r="N46" s="3">
-        <v>300</v>
       </c>
       <c r="O46" s="3">
         <v>300</v>
       </c>
       <c r="P46" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q46" s="3">
         <v>1000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>600</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>400</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>300</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2697,43 +2801,46 @@
       <c r="Q47" s="3">
         <v>0</v>
       </c>
-      <c r="R47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S47" s="3">
-        <v>100</v>
-      </c>
-      <c r="T47" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+      <c r="S47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T47" s="3">
+        <v>100</v>
+      </c>
+      <c r="U47" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2800</v>
+        <v>2900</v>
       </c>
       <c r="E48" s="3">
         <v>2800</v>
       </c>
       <c r="F48" s="3">
+        <v>2800</v>
+      </c>
+      <c r="G48" s="3">
         <v>2700</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>3000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>20100</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>20400</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>22900</v>
-      </c>
-      <c r="K48" s="3">
-        <v>8900</v>
       </c>
       <c r="L48" s="3">
         <v>8900</v>
@@ -2742,28 +2849,31 @@
         <v>8900</v>
       </c>
       <c r="N48" s="3">
+        <v>8900</v>
+      </c>
+      <c r="O48" s="3">
         <v>9000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>9200</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>12200</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>12000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>10800</v>
       </c>
-      <c r="S48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T48" s="3">
+      <c r="T48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U48" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2800,11 +2910,11 @@
       <c r="N49" s="3">
         <v>0</v>
       </c>
-      <c r="O49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P49" s="3">
-        <v>1400</v>
+      <c r="O49" s="3">
+        <v>0</v>
+      </c>
+      <c r="P49" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="Q49" s="3">
         <v>1400</v>
@@ -2812,14 +2922,17 @@
       <c r="R49" s="3">
         <v>1400</v>
       </c>
-      <c r="S49" s="3" t="s">
-        <v>5</v>
+      <c r="S49" s="3">
+        <v>1400</v>
       </c>
       <c r="T49" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U49" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2874,8 +2987,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2930,8 +3046,11 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2948,7 +3067,7 @@
         <v>0</v>
       </c>
       <c r="H52" s="3">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="I52" s="3">
         <v>3000</v>
@@ -2957,37 +3076,40 @@
         <v>3000</v>
       </c>
       <c r="K52" s="3">
+        <v>3000</v>
+      </c>
+      <c r="L52" s="3">
         <v>3300</v>
-      </c>
-      <c r="L52" s="3">
-        <v>3400</v>
       </c>
       <c r="M52" s="3">
         <v>3400</v>
       </c>
       <c r="N52" s="3">
+        <v>3400</v>
+      </c>
+      <c r="O52" s="3">
         <v>2600</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>2800</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>1400</v>
-      </c>
-      <c r="Q52" s="3">
-        <v>1300</v>
       </c>
       <c r="R52" s="3">
         <v>1300</v>
       </c>
       <c r="S52" s="3">
-        <v>100</v>
+        <v>1300</v>
       </c>
       <c r="T52" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U52" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3042,64 +3164,70 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>3800</v>
+      </c>
+      <c r="E54" s="3">
         <v>3300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>3000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>2900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>3200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>23500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>24000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>28300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>12700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>12600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>12800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>11900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>12300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>16000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>15300</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>13900</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>500</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3120,8 +3248,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3142,8 +3271,9 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3154,31 +3284,31 @@
         <v>800</v>
       </c>
       <c r="F57" s="3">
+        <v>800</v>
+      </c>
+      <c r="G57" s="3">
         <v>900</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>2200</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1800</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>300</v>
-      </c>
-      <c r="N57" s="3">
-        <v>400</v>
       </c>
       <c r="O57" s="3">
         <v>400</v>
@@ -3190,240 +3320,255 @@
         <v>400</v>
       </c>
       <c r="R57" s="3">
+        <v>400</v>
+      </c>
+      <c r="S57" s="3">
         <v>500</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>400</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>7400</v>
+      </c>
+      <c r="E58" s="3">
         <v>7500</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>7300</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>8300</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>8100</v>
-      </c>
-      <c r="H58" s="3">
-        <v>7700</v>
       </c>
       <c r="I58" s="3">
         <v>7700</v>
       </c>
       <c r="J58" s="3">
+        <v>7700</v>
+      </c>
+      <c r="K58" s="3">
         <v>10400</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>7200</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>6100</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>4800</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>3500</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>2900</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>2000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>6000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>5500</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>500</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>5600</v>
+      </c>
+      <c r="E59" s="3">
         <v>20500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>10200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>19200</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>9500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>4300</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>5500</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>7200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>5400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>5600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>5400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>4000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>3500</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>600</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>500</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>600</v>
-      </c>
-      <c r="S59" s="3">
-        <v>2800</v>
       </c>
       <c r="T59" s="3">
         <v>2800</v>
       </c>
-    </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U59" s="3">
+        <v>2800</v>
+      </c>
+    </row>
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>13900</v>
+      </c>
+      <c r="E60" s="3">
         <v>28800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>18300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>28400</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>18600</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>14200</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>15000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>19200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>13700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>12400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>10600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>7900</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>6900</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>2900</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>6900</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>6600</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>3600</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>3400</v>
       </c>
     </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>4400</v>
+        <v>4600</v>
       </c>
       <c r="E61" s="3">
         <v>4400</v>
       </c>
       <c r="F61" s="3">
+        <v>4400</v>
+      </c>
+      <c r="G61" s="3">
         <v>4300</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>4700</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>4600</v>
-      </c>
-      <c r="I61" s="3">
-        <v>3900</v>
       </c>
       <c r="J61" s="3">
         <v>3900</v>
       </c>
       <c r="K61" s="3">
+        <v>3900</v>
+      </c>
+      <c r="L61" s="3">
         <v>6700</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>7000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>6900</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>7000</v>
-      </c>
-      <c r="O61" s="3">
-        <v>7200</v>
       </c>
       <c r="P61" s="3">
         <v>7200</v>
       </c>
       <c r="Q61" s="3">
-        <v>3000</v>
+        <v>7200</v>
       </c>
       <c r="R61" s="3">
         <v>3000</v>
       </c>
       <c r="S61" s="3">
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="T61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3439,18 +3584,18 @@
       <c r="G62" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H62" s="3">
+      <c r="H62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I62" s="3">
         <v>14600</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>14800</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>15000</v>
       </c>
-      <c r="K62" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="L62" s="3" t="s">
         <v>5</v>
       </c>
@@ -3460,8 +3605,8 @@
       <c r="N62" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O62" s="3">
-        <v>0</v>
+      <c r="O62" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="P62" s="3">
         <v>0</v>
@@ -3478,8 +3623,11 @@
       <c r="T62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3534,8 +3682,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3590,8 +3741,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3646,64 +3800,70 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>19100</v>
+      </c>
+      <c r="E66" s="3">
         <v>33900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>23400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>32600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>23200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>33400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>33700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>38200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>20400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>19400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>17500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>14900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>14000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>10100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>9900</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>9600</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>3600</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>3500</v>
       </c>
     </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3724,8 +3884,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3780,8 +3941,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3836,8 +4000,11 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3848,7 +4015,7 @@
         <v>400</v>
       </c>
       <c r="F70" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G70" s="3">
         <v>0</v>
@@ -3892,8 +4059,11 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3948,64 +4118,70 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-42500</v>
+      </c>
+      <c r="E72" s="3">
         <v>-57100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-46800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-55800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-45500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-35600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-35300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-33600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-30500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-28900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-26500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-23600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-22400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-14800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-14700</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-15500</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-21000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-20400</v>
       </c>
     </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4060,8 +4236,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4116,8 +4295,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4172,64 +4354,70 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-15800</v>
+      </c>
+      <c r="E76" s="3">
         <v>-31000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-20800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-29800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-20000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-10000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-9700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-9900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-7700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-6800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-4800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-3000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-1800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>5900</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>5400</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>4400</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-3200</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>-2900</v>
       </c>
     </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4284,125 +4472,134 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43373</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43190</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43100</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43008</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42916</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42825</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42735</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>14600</v>
+      </c>
+      <c r="E81" s="3">
         <v>-10300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>9000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-10300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-9800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-1700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-3100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-8200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-2400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-2900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-1200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-1400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-300</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>1900</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-300</v>
       </c>
-      <c r="T81" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U81" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4423,8 +4620,9 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4444,17 +4642,17 @@
         <v>0</v>
       </c>
       <c r="I83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J83" s="3">
         <v>100</v>
       </c>
       <c r="K83" s="3">
+        <v>100</v>
+      </c>
+      <c r="L83" s="3">
         <v>300</v>
       </c>
-      <c r="L83" s="3">
-        <v>100</v>
-      </c>
       <c r="M83" s="3">
         <v>100</v>
       </c>
@@ -4462,25 +4660,28 @@
         <v>100</v>
       </c>
       <c r="O83" s="3">
+        <v>100</v>
+      </c>
+      <c r="P83" s="3">
         <v>200</v>
       </c>
-      <c r="P83" s="3">
-        <v>100</v>
-      </c>
       <c r="Q83" s="3">
         <v>100</v>
       </c>
       <c r="R83" s="3">
         <v>100</v>
       </c>
-      <c r="S83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T83" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="S83" s="3">
+        <v>100</v>
+      </c>
+      <c r="T83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4535,8 +4736,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4591,8 +4795,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4647,8 +4854,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4703,8 +4913,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4759,64 +4972,70 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>300</v>
+      </c>
+      <c r="E89" s="3">
         <v>-300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-600</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-900</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-1100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-1500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-4600</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-500</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-400</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-3100</v>
       </c>
-      <c r="S89" s="3">
-        <v>0</v>
-      </c>
       <c r="T89" s="3">
+        <v>0</v>
+      </c>
+      <c r="U89" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4837,8 +5056,9 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4851,12 +5071,12 @@
       <c r="F91" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G91" s="3">
+      <c r="G91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H91" s="3">
         <v>-100</v>
       </c>
-      <c r="H91" s="3">
-        <v>0</v>
-      </c>
       <c r="I91" s="3">
         <v>0</v>
       </c>
@@ -4864,37 +5084,40 @@
         <v>0</v>
       </c>
       <c r="K91" s="3">
+        <v>0</v>
+      </c>
+      <c r="L91" s="3">
         <v>-300</v>
       </c>
-      <c r="L91" s="3">
-        <v>0</v>
-      </c>
-      <c r="M91" s="3" t="s">
-        <v>5</v>
+      <c r="M91" s="3">
+        <v>0</v>
       </c>
       <c r="N91" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O91" s="3">
+      <c r="O91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P91" s="3">
         <v>-400</v>
       </c>
-      <c r="P91" s="3">
-        <v>0</v>
-      </c>
       <c r="Q91" s="3">
         <v>0</v>
       </c>
       <c r="R91" s="3">
         <v>0</v>
       </c>
-      <c r="S91" s="3" t="s">
-        <v>5</v>
+      <c r="S91" s="3">
+        <v>0</v>
       </c>
       <c r="T91" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U91" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4949,8 +5172,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5005,13 +5231,16 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>0</v>
+        <v>-700</v>
       </c>
       <c r="E94" s="3">
         <v>0</v>
@@ -5020,49 +5249,52 @@
         <v>0</v>
       </c>
       <c r="G94" s="3">
+        <v>0</v>
+      </c>
+      <c r="H94" s="3">
         <v>1200</v>
       </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
       <c r="I94" s="3">
+        <v>0</v>
+      </c>
+      <c r="J94" s="3">
         <v>3300</v>
       </c>
-      <c r="J94" s="3">
-        <v>0</v>
-      </c>
       <c r="K94" s="3">
+        <v>0</v>
+      </c>
+      <c r="L94" s="3">
         <v>-1400</v>
       </c>
-      <c r="L94" s="3">
-        <v>0</v>
-      </c>
       <c r="M94" s="3">
+        <v>0</v>
+      </c>
+      <c r="N94" s="3">
         <v>-900</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-300</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>1400</v>
       </c>
-      <c r="P94" s="3">
-        <v>100</v>
-      </c>
       <c r="Q94" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R94" s="3">
+        <v>0</v>
+      </c>
+      <c r="S94" s="3">
         <v>3300</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-100</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5083,8 +5315,9 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5139,8 +5372,11 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5195,8 +5431,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5251,8 +5490,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5307,64 +5549,70 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>400</v>
+      </c>
+      <c r="E100" s="3">
         <v>300</v>
       </c>
-      <c r="E100" s="3">
-        <v>100</v>
-      </c>
       <c r="F100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
         <v>-1000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>500</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-2500</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>1000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>3400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>500</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>1800</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>200</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>3300</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>200</v>
       </c>
-      <c r="Q100" s="3">
-        <v>100</v>
-      </c>
       <c r="R100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S100" s="3">
+        <v>0</v>
+      </c>
+      <c r="T100" s="3">
         <v>200</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5372,60 +5620,63 @@
         <v>0</v>
       </c>
       <c r="E101" s="3">
+        <v>0</v>
+      </c>
+      <c r="F101" s="3">
         <v>500</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-500</v>
       </c>
-      <c r="G101" s="3">
-        <v>100</v>
-      </c>
       <c r="H101" s="3">
+        <v>100</v>
+      </c>
+      <c r="I101" s="3">
         <v>-100</v>
       </c>
-      <c r="I101" s="3">
-        <v>100</v>
-      </c>
       <c r="J101" s="3">
         <v>100</v>
       </c>
       <c r="K101" s="3">
+        <v>100</v>
+      </c>
+      <c r="L101" s="3">
         <v>-400</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>200</v>
-      </c>
-      <c r="M101" s="3">
-        <v>-100</v>
       </c>
       <c r="N101" s="3">
         <v>-100</v>
       </c>
       <c r="O101" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="P101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q101" s="3">
         <v>300</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>200</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-200</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-100</v>
       </c>
-      <c r="T101" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E102" s="3">
         <v>0</v>
@@ -5449,14 +5700,14 @@
         <v>0</v>
       </c>
       <c r="L102" s="3">
+        <v>0</v>
+      </c>
+      <c r="M102" s="3">
         <v>-300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>300</v>
       </c>
-      <c r="N102" s="3">
-        <v>0</v>
-      </c>
       <c r="O102" s="3">
         <v>0</v>
       </c>
@@ -5464,15 +5715,18 @@
         <v>0</v>
       </c>
       <c r="Q102" s="3">
+        <v>0</v>
+      </c>
+      <c r="R102" s="3">
         <v>-100</v>
       </c>
-      <c r="R102" s="3">
-        <v>100</v>
-      </c>
       <c r="S102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T102" s="3">
+        <v>0</v>
+      </c>
+      <c r="U102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/GRST_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GRST_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="92">
   <si>
     <t>GRST</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,92 +665,96 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43373</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43281</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43190</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43100</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43008</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42916</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42825</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42735</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -767,10 +771,10 @@
         <v>100</v>
       </c>
       <c r="H8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J8" s="3">
         <v>100</v>
@@ -779,37 +783,40 @@
         <v>100</v>
       </c>
       <c r="L8" s="3">
+        <v>100</v>
+      </c>
+      <c r="M8" s="3">
         <v>400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>300</v>
       </c>
-      <c r="N8" s="3">
-        <v>100</v>
-      </c>
       <c r="O8" s="3">
         <v>100</v>
       </c>
       <c r="P8" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q8" s="3">
         <v>900</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>600</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>400</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>300</v>
       </c>
-      <c r="T8" s="3">
-        <v>0</v>
-      </c>
       <c r="U8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -867,8 +874,11 @@
       <c r="U9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -926,8 +936,11 @@
       <c r="U10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -949,8 +962,9 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1008,8 +1022,11 @@
       <c r="U12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1067,34 +1084,37 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E14" s="3">
         <v>400</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
       <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
         <v>-12700</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>300</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>900</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
       <c r="J14" s="3">
-        <v>100</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>5</v>
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
+        <v>100</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>5</v>
@@ -1108,8 +1128,8 @@
       <c r="O14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
+      <c r="P14" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="Q14" s="3">
         <v>0</v>
@@ -1126,8 +1146,11 @@
       <c r="U14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1150,17 +1173,17 @@
         <v>0</v>
       </c>
       <c r="J15" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K15" s="3">
         <v>100</v>
       </c>
       <c r="L15" s="3">
+        <v>100</v>
+      </c>
+      <c r="M15" s="3">
         <v>300</v>
       </c>
-      <c r="M15" s="3">
-        <v>100</v>
-      </c>
       <c r="N15" s="3">
         <v>100</v>
       </c>
@@ -1168,25 +1191,28 @@
         <v>100</v>
       </c>
       <c r="P15" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q15" s="3">
         <v>200</v>
       </c>
-      <c r="Q15" s="3">
-        <v>100</v>
-      </c>
       <c r="R15" s="3">
         <v>100</v>
       </c>
       <c r="S15" s="3">
-        <v>0</v>
-      </c>
-      <c r="T15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U15" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+      <c r="U15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1205,126 +1231,133 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E17" s="3">
         <v>500</v>
       </c>
-      <c r="E17" s="3">
-        <v>100</v>
-      </c>
       <c r="F17" s="3">
+        <v>100</v>
+      </c>
+      <c r="G17" s="3">
         <v>-12600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>3300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>2400</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>500</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>400</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>900</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>800</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E18" s="3">
         <v>-400</v>
       </c>
-      <c r="E18" s="3">
-        <v>0</v>
-      </c>
       <c r="F18" s="3">
+        <v>0</v>
+      </c>
+      <c r="G18" s="3">
         <v>12700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-400</v>
-      </c>
-      <c r="H18" s="3">
-        <v>-1100</v>
       </c>
       <c r="I18" s="3">
         <v>-1100</v>
       </c>
       <c r="J18" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="K18" s="3">
         <v>-1500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-1400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-2900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-1500</v>
       </c>
-      <c r="Q18" s="3">
-        <v>100</v>
-      </c>
       <c r="R18" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S18" s="3">
+        <v>0</v>
+      </c>
+      <c r="T18" s="3">
         <v>-600</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-800</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1346,252 +1379,265 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E20" s="3">
         <v>15400</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-10000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-3300</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-9400</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-7800</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>2000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>900</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-600</v>
       </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
       <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
         <v>-100</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-700</v>
       </c>
-      <c r="O20" s="3">
-        <v>100</v>
-      </c>
       <c r="P20" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q20" s="3">
         <v>-6300</v>
       </c>
-      <c r="Q20" s="3">
-        <v>100</v>
-      </c>
       <c r="R20" s="3">
+        <v>100</v>
+      </c>
+      <c r="S20" s="3">
         <v>-100</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-4800</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-200</v>
       </c>
-      <c r="U20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="E21" s="3">
         <v>15000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-10000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>9400</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-9700</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-8800</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>1000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-1900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-2600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-900</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-1300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-200</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-7600</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>200</v>
       </c>
-      <c r="R21" s="3">
-        <v>0</v>
-      </c>
       <c r="S21" s="3">
+        <v>0</v>
+      </c>
+      <c r="T21" s="3">
         <v>-5400</v>
       </c>
-      <c r="T21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U21" s="3">
+      <c r="U21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V21" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>600</v>
+      </c>
+      <c r="E22" s="3">
         <v>400</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>200</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>300</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>600</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>1000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>1300</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>1000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>1100</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>5200</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>1400</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>1500</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>900</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>400</v>
       </c>
-      <c r="Q22" s="3">
-        <v>100</v>
-      </c>
       <c r="R22" s="3">
         <v>100</v>
       </c>
       <c r="S22" s="3">
+        <v>100</v>
+      </c>
+      <c r="T22" s="3">
         <v>300</v>
       </c>
-      <c r="T22" s="3">
-        <v>0</v>
-      </c>
       <c r="U22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="E23" s="3">
         <v>14600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-10200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>9000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-10300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-9800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-1700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-3100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-8100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-2400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-2900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-1200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-8200</v>
       </c>
-      <c r="Q23" s="3">
-        <v>100</v>
-      </c>
       <c r="R23" s="3">
+        <v>100</v>
+      </c>
+      <c r="S23" s="3">
         <v>-200</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-5700</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-1000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E24" s="3">
-        <v>0</v>
+      <c r="D24" s="3">
+        <v>0</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="F24" s="3">
         <v>0</v>
@@ -1612,10 +1658,10 @@
         <v>0</v>
       </c>
       <c r="L24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N24" s="3">
         <v>0</v>
@@ -1641,8 +1687,11 @@
       <c r="U24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1700,126 +1749,135 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="E26" s="3">
         <v>14600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-10200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>9000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-10300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-9800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-1700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-3100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-8200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-2400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-2900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-1200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-8200</v>
       </c>
-      <c r="Q26" s="3">
-        <v>100</v>
-      </c>
       <c r="R26" s="3">
+        <v>100</v>
+      </c>
+      <c r="S26" s="3">
         <v>-200</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-5700</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-1000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="E27" s="3">
         <v>14600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-10300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>9000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-10300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-9800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-1700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-3100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-8200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-2400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-2900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-1200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-8200</v>
       </c>
-      <c r="Q27" s="3">
-        <v>100</v>
-      </c>
       <c r="R27" s="3">
+        <v>100</v>
+      </c>
+      <c r="S27" s="3">
         <v>-200</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-5700</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-1000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1877,37 +1935,40 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>5</v>
+      <c r="D29" s="3">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3">
+        <v>0</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L29" s="3">
-        <v>0</v>
+      <c r="L29" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="M29" s="3">
         <v>0</v>
@@ -1919,25 +1980,28 @@
         <v>0</v>
       </c>
       <c r="P29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="3">
         <v>6800</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="R29" s="3">
         <v>-200</v>
       </c>
-      <c r="R29" s="3">
+      <c r="S29" s="3">
         <v>-100</v>
       </c>
-      <c r="S29" s="3">
+      <c r="T29" s="3">
         <v>7600</v>
       </c>
-      <c r="T29" s="3">
+      <c r="U29" s="3">
         <v>700</v>
       </c>
-      <c r="U29" s="3">
+      <c r="V29" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1995,8 +2059,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2054,126 +2121,135 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>700</v>
+      </c>
+      <c r="E32" s="3">
         <v>-15400</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>10000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>3300</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>9400</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>7800</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-2000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-900</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>600</v>
       </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
       <c r="M32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N32" s="3">
+        <v>100</v>
+      </c>
+      <c r="O32" s="3">
         <v>700</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-100</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>6300</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-100</v>
       </c>
-      <c r="R32" s="3">
-        <v>100</v>
-      </c>
       <c r="S32" s="3">
+        <v>100</v>
+      </c>
+      <c r="T32" s="3">
         <v>4800</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>200</v>
       </c>
-      <c r="U32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="E33" s="3">
         <v>14600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-10300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>9000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-10300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-9800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-1700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-3100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-8200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-2400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-2900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-1200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-1400</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-100</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-300</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>1900</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-300</v>
       </c>
-      <c r="U33" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V33" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2231,131 +2307,140 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="E35" s="3">
         <v>14600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-10300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>9000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-10300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-9800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-1700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-3100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-8200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-2400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-2900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-1200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-1400</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-100</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-300</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>1900</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-300</v>
       </c>
-      <c r="U35" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V35" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43373</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43281</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43190</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43100</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43008</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42916</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42825</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42735</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2377,8 +2462,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2400,16 +2486,17 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F41" s="3">
         <v>0</v>
@@ -2433,14 +2520,14 @@
         <v>0</v>
       </c>
       <c r="M41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N41" s="3">
+        <v>100</v>
+      </c>
+      <c r="O41" s="3">
         <v>300</v>
       </c>
-      <c r="O41" s="3">
-        <v>0</v>
-      </c>
       <c r="P41" s="3">
         <v>0</v>
       </c>
@@ -2451,25 +2538,28 @@
         <v>0</v>
       </c>
       <c r="S41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E42" s="3">
         <v>700</v>
       </c>
-      <c r="E42" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="F42" s="3" t="s">
         <v>5</v>
       </c>
@@ -2485,8 +2575,8 @@
       <c r="J42" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K42" s="3">
-        <v>0</v>
+      <c r="K42" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="L42" s="3">
         <v>0</v>
@@ -2518,8 +2608,11 @@
       <c r="U42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2533,52 +2626,55 @@
         <v>0</v>
       </c>
       <c r="G43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H43" s="3">
         <v>100</v>
       </c>
       <c r="I43" s="3">
+        <v>100</v>
+      </c>
+      <c r="J43" s="3">
         <v>200</v>
-      </c>
-      <c r="J43" s="3">
-        <v>300</v>
       </c>
       <c r="K43" s="3">
         <v>300</v>
       </c>
       <c r="L43" s="3">
+        <v>300</v>
+      </c>
+      <c r="M43" s="3">
         <v>200</v>
       </c>
-      <c r="M43" s="3">
-        <v>100</v>
-      </c>
       <c r="N43" s="3">
         <v>100</v>
       </c>
       <c r="O43" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="P43" s="3">
         <v>200</v>
       </c>
       <c r="Q43" s="3">
+        <v>200</v>
+      </c>
+      <c r="R43" s="3">
         <v>1000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>600</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>300</v>
       </c>
-      <c r="T43" s="3">
-        <v>100</v>
-      </c>
       <c r="U43" s="3">
+        <v>100</v>
+      </c>
+      <c r="V43" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2636,52 +2732,55 @@
       <c r="U44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>100</v>
+      </c>
+      <c r="E45" s="3">
         <v>200</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>500</v>
-      </c>
-      <c r="F45" s="3">
-        <v>200</v>
       </c>
       <c r="G45" s="3">
         <v>200</v>
       </c>
       <c r="H45" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="I45" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="J45" s="3">
         <v>200</v>
       </c>
       <c r="K45" s="3">
+        <v>200</v>
+      </c>
+      <c r="L45" s="3">
         <v>2000</v>
       </c>
-      <c r="L45" s="3">
-        <v>100</v>
-      </c>
       <c r="M45" s="3">
         <v>100</v>
       </c>
       <c r="N45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P45" s="3">
         <v>100</v>
       </c>
       <c r="Q45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R45" s="3">
         <v>0</v>
@@ -2690,72 +2789,78 @@
         <v>0</v>
       </c>
       <c r="T45" s="3">
+        <v>0</v>
+      </c>
+      <c r="U45" s="3">
         <v>200</v>
       </c>
-      <c r="U45" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V45" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E46" s="3">
         <v>900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>500</v>
-      </c>
-      <c r="F46" s="3">
-        <v>200</v>
       </c>
       <c r="G46" s="3">
         <v>200</v>
       </c>
       <c r="H46" s="3">
+        <v>200</v>
+      </c>
+      <c r="I46" s="3">
         <v>300</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>400</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>2400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>300</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>500</v>
-      </c>
-      <c r="O46" s="3">
-        <v>300</v>
       </c>
       <c r="P46" s="3">
         <v>300</v>
       </c>
       <c r="Q46" s="3">
+        <v>300</v>
+      </c>
+      <c r="R46" s="3">
         <v>1000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>600</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>400</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>300</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2804,17 +2909,20 @@
       <c r="R47" s="3">
         <v>0</v>
       </c>
-      <c r="S47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T47" s="3">
-        <v>100</v>
-      </c>
-      <c r="U47" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+      <c r="T47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U47" s="3">
+        <v>100</v>
+      </c>
+      <c r="V47" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2822,28 +2930,28 @@
         <v>2900</v>
       </c>
       <c r="E48" s="3">
-        <v>2800</v>
+        <v>2900</v>
       </c>
       <c r="F48" s="3">
         <v>2800</v>
       </c>
       <c r="G48" s="3">
+        <v>2800</v>
+      </c>
+      <c r="H48" s="3">
         <v>2700</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>3000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>20100</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>20400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>22900</v>
-      </c>
-      <c r="L48" s="3">
-        <v>8900</v>
       </c>
       <c r="M48" s="3">
         <v>8900</v>
@@ -2852,28 +2960,31 @@
         <v>8900</v>
       </c>
       <c r="O48" s="3">
+        <v>8900</v>
+      </c>
+      <c r="P48" s="3">
         <v>9000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>9200</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>12200</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>12000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>10800</v>
       </c>
-      <c r="T48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U48" s="3">
+      <c r="U48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V48" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2913,11 +3024,11 @@
       <c r="O49" s="3">
         <v>0</v>
       </c>
-      <c r="P49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q49" s="3">
-        <v>1400</v>
+      <c r="P49" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q49" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="R49" s="3">
         <v>1400</v>
@@ -2925,14 +3036,17 @@
       <c r="S49" s="3">
         <v>1400</v>
       </c>
-      <c r="T49" s="3" t="s">
-        <v>5</v>
+      <c r="T49" s="3">
+        <v>1400</v>
       </c>
       <c r="U49" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V49" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2990,8 +3104,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3049,8 +3166,11 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3070,7 +3190,7 @@
         <v>0</v>
       </c>
       <c r="I52" s="3">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="J52" s="3">
         <v>3000</v>
@@ -3079,37 +3199,40 @@
         <v>3000</v>
       </c>
       <c r="L52" s="3">
+        <v>3000</v>
+      </c>
+      <c r="M52" s="3">
         <v>3300</v>
-      </c>
-      <c r="M52" s="3">
-        <v>3400</v>
       </c>
       <c r="N52" s="3">
         <v>3400</v>
       </c>
       <c r="O52" s="3">
+        <v>3400</v>
+      </c>
+      <c r="P52" s="3">
         <v>2600</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>2800</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>1400</v>
-      </c>
-      <c r="R52" s="3">
-        <v>1300</v>
       </c>
       <c r="S52" s="3">
         <v>1300</v>
       </c>
       <c r="T52" s="3">
-        <v>100</v>
+        <v>1300</v>
       </c>
       <c r="U52" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V52" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3167,67 +3290,73 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>4100</v>
+      </c>
+      <c r="E54" s="3">
         <v>3800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>3300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>3000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>2900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>3200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>23500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>24000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>28300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>12700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>12600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>12800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>11900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>12300</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>16000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>15300</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>13900</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>500</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3249,8 +3378,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3272,8 +3402,9 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3287,31 +3418,31 @@
         <v>800</v>
       </c>
       <c r="G57" s="3">
+        <v>800</v>
+      </c>
+      <c r="H57" s="3">
         <v>900</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>2200</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1100</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>700</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>300</v>
-      </c>
-      <c r="O57" s="3">
-        <v>400</v>
       </c>
       <c r="P57" s="3">
         <v>400</v>
@@ -3323,134 +3454,143 @@
         <v>400</v>
       </c>
       <c r="S57" s="3">
+        <v>400</v>
+      </c>
+      <c r="T57" s="3">
         <v>500</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>400</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>7800</v>
+      </c>
+      <c r="E58" s="3">
         <v>7400</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>7500</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>7300</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>8300</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>8100</v>
-      </c>
-      <c r="I58" s="3">
-        <v>7700</v>
       </c>
       <c r="J58" s="3">
         <v>7700</v>
       </c>
       <c r="K58" s="3">
+        <v>7700</v>
+      </c>
+      <c r="L58" s="3">
         <v>10400</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>7200</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>6100</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>4800</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>3500</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>2900</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>2000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>6000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>5500</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>500</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>5300</v>
+      </c>
+      <c r="E59" s="3">
         <v>5600</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>20500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>10200</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>19200</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>9500</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>4300</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>5500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>7200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>5400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>5600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>5400</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>4000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>3500</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>600</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>500</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>600</v>
-      </c>
-      <c r="T59" s="3">
-        <v>2800</v>
       </c>
       <c r="U59" s="3">
         <v>2800</v>
       </c>
-    </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V59" s="3">
+        <v>2800</v>
+      </c>
+    </row>
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3458,58 +3598,61 @@
         <v>13900</v>
       </c>
       <c r="E60" s="3">
+        <v>13900</v>
+      </c>
+      <c r="F60" s="3">
         <v>28800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>18300</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>28400</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>18600</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>14200</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>15000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>19200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>13700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>12400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>10600</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>7900</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>6900</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>2900</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>6900</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>6600</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>3600</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>3400</v>
       </c>
     </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3517,58 +3660,61 @@
         <v>4600</v>
       </c>
       <c r="E61" s="3">
-        <v>4400</v>
+        <v>4600</v>
       </c>
       <c r="F61" s="3">
         <v>4400</v>
       </c>
       <c r="G61" s="3">
+        <v>4400</v>
+      </c>
+      <c r="H61" s="3">
         <v>4300</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>4700</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>4600</v>
-      </c>
-      <c r="J61" s="3">
-        <v>3900</v>
       </c>
       <c r="K61" s="3">
         <v>3900</v>
       </c>
       <c r="L61" s="3">
+        <v>3900</v>
+      </c>
+      <c r="M61" s="3">
         <v>6700</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>7000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>6900</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>7000</v>
-      </c>
-      <c r="P61" s="3">
-        <v>7200</v>
       </c>
       <c r="Q61" s="3">
         <v>7200</v>
       </c>
       <c r="R61" s="3">
-        <v>3000</v>
+        <v>7200</v>
       </c>
       <c r="S61" s="3">
         <v>3000</v>
       </c>
       <c r="T61" s="3">
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="U61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3587,18 +3733,18 @@
       <c r="H62" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I62" s="3">
+      <c r="I62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J62" s="3">
         <v>14600</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>14800</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>15000</v>
       </c>
-      <c r="L62" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="M62" s="3" t="s">
         <v>5</v>
       </c>
@@ -3608,8 +3754,8 @@
       <c r="O62" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P62" s="3">
-        <v>0</v>
+      <c r="P62" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="Q62" s="3">
         <v>0</v>
@@ -3626,8 +3772,11 @@
       <c r="U62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3685,8 +3834,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3744,8 +3896,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3803,67 +3958,73 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>19200</v>
+      </c>
+      <c r="E66" s="3">
         <v>19100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>33900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>23400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>32600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>23200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>33400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>33700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>38200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>20400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>19400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>17500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>14900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>14000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>10100</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>9900</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>9600</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>3600</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>3500</v>
       </c>
     </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3885,8 +4046,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3944,8 +4106,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4003,8 +4168,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4018,7 +4186,7 @@
         <v>400</v>
       </c>
       <c r="G70" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H70" s="3">
         <v>0</v>
@@ -4062,8 +4230,11 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4121,67 +4292,73 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-44900</v>
+      </c>
+      <c r="E72" s="3">
         <v>-42500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-57100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-46800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-55800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-45500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-35600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-35300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-33600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-30500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-28900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-26500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-23600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-22400</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-14800</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-14700</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-15500</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-21000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-20400</v>
       </c>
     </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4239,8 +4416,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4298,8 +4478,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4357,67 +4540,73 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-15600</v>
+      </c>
+      <c r="E76" s="3">
         <v>-15800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-31000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-20800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-29800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-20000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-10000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-9700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-9900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-7700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-6800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-4800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-3000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-1800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>5900</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>5400</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>4400</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>-3200</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>-2900</v>
       </c>
     </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4475,131 +4664,140 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43373</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43281</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43190</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43100</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43008</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42916</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42825</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42735</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="E81" s="3">
         <v>14600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-10300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>9000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-10300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-9800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-1700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-3100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-8200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-2400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-2900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-1200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-1400</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-100</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-300</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>1900</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-300</v>
       </c>
-      <c r="U81" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V81" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4621,8 +4819,9 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4645,17 +4844,17 @@
         <v>0</v>
       </c>
       <c r="J83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K83" s="3">
         <v>100</v>
       </c>
       <c r="L83" s="3">
+        <v>100</v>
+      </c>
+      <c r="M83" s="3">
         <v>300</v>
       </c>
-      <c r="M83" s="3">
-        <v>100</v>
-      </c>
       <c r="N83" s="3">
         <v>100</v>
       </c>
@@ -4663,25 +4862,28 @@
         <v>100</v>
       </c>
       <c r="P83" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q83" s="3">
         <v>200</v>
       </c>
-      <c r="Q83" s="3">
-        <v>100</v>
-      </c>
       <c r="R83" s="3">
         <v>100</v>
       </c>
       <c r="S83" s="3">
         <v>100</v>
       </c>
-      <c r="T83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U83" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="T83" s="3">
+        <v>100</v>
+      </c>
+      <c r="U83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4739,8 +4941,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4798,8 +5003,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4857,8 +5065,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4916,8 +5127,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4975,67 +5189,73 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E89" s="3">
         <v>300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-600</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-1100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-1500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-800</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-4600</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-500</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-400</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-3100</v>
       </c>
-      <c r="T89" s="3">
-        <v>0</v>
-      </c>
       <c r="U89" s="3">
+        <v>0</v>
+      </c>
+      <c r="V89" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5057,8 +5277,9 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5074,12 +5295,12 @@
       <c r="G91" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H91" s="3">
+      <c r="H91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I91" s="3">
         <v>-100</v>
       </c>
-      <c r="I91" s="3">
-        <v>0</v>
-      </c>
       <c r="J91" s="3">
         <v>0</v>
       </c>
@@ -5087,37 +5308,40 @@
         <v>0</v>
       </c>
       <c r="L91" s="3">
+        <v>0</v>
+      </c>
+      <c r="M91" s="3">
         <v>-300</v>
       </c>
-      <c r="M91" s="3">
-        <v>0</v>
-      </c>
-      <c r="N91" s="3" t="s">
-        <v>5</v>
+      <c r="N91" s="3">
+        <v>0</v>
       </c>
       <c r="O91" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P91" s="3">
+      <c r="P91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q91" s="3">
         <v>-400</v>
       </c>
-      <c r="Q91" s="3">
-        <v>0</v>
-      </c>
       <c r="R91" s="3">
         <v>0</v>
       </c>
       <c r="S91" s="3">
         <v>0</v>
       </c>
-      <c r="T91" s="3" t="s">
-        <v>5</v>
+      <c r="T91" s="3">
+        <v>0</v>
       </c>
       <c r="U91" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V91" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5175,8 +5399,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5234,17 +5461,20 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E94" s="3">
         <v>-700</v>
       </c>
-      <c r="E94" s="3">
-        <v>0</v>
-      </c>
       <c r="F94" s="3">
         <v>0</v>
       </c>
@@ -5252,49 +5482,52 @@
         <v>0</v>
       </c>
       <c r="H94" s="3">
+        <v>0</v>
+      </c>
+      <c r="I94" s="3">
         <v>1200</v>
       </c>
-      <c r="I94" s="3">
-        <v>0</v>
-      </c>
       <c r="J94" s="3">
+        <v>0</v>
+      </c>
+      <c r="K94" s="3">
         <v>3300</v>
       </c>
-      <c r="K94" s="3">
-        <v>0</v>
-      </c>
       <c r="L94" s="3">
+        <v>0</v>
+      </c>
+      <c r="M94" s="3">
         <v>-1400</v>
       </c>
-      <c r="M94" s="3">
-        <v>0</v>
-      </c>
       <c r="N94" s="3">
+        <v>0</v>
+      </c>
+      <c r="O94" s="3">
         <v>-900</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-300</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>1400</v>
       </c>
-      <c r="Q94" s="3">
-        <v>100</v>
-      </c>
       <c r="R94" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S94" s="3">
+        <v>0</v>
+      </c>
+      <c r="T94" s="3">
         <v>3300</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-100</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5316,8 +5549,9 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5375,8 +5609,11 @@
       <c r="U96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5434,8 +5671,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5493,8 +5733,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5552,134 +5795,143 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>300</v>
+      </c>
+      <c r="E100" s="3">
         <v>400</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>300</v>
       </c>
-      <c r="F100" s="3">
-        <v>100</v>
-      </c>
       <c r="G100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
         <v>-1000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>500</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-2500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>1000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>3400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>500</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>1800</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>200</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>3300</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>200</v>
       </c>
-      <c r="R100" s="3">
-        <v>100</v>
-      </c>
       <c r="S100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T100" s="3">
+        <v>0</v>
+      </c>
+      <c r="U100" s="3">
         <v>200</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E101" s="3">
         <v>0</v>
       </c>
       <c r="F101" s="3">
+        <v>0</v>
+      </c>
+      <c r="G101" s="3">
         <v>500</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-500</v>
       </c>
-      <c r="H101" s="3">
-        <v>100</v>
-      </c>
       <c r="I101" s="3">
+        <v>100</v>
+      </c>
+      <c r="J101" s="3">
         <v>-100</v>
       </c>
-      <c r="J101" s="3">
-        <v>100</v>
-      </c>
       <c r="K101" s="3">
         <v>100</v>
       </c>
       <c r="L101" s="3">
+        <v>100</v>
+      </c>
+      <c r="M101" s="3">
         <v>-400</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>200</v>
-      </c>
-      <c r="N101" s="3">
-        <v>-100</v>
       </c>
       <c r="O101" s="3">
         <v>-100</v>
       </c>
       <c r="P101" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+      <c r="R101" s="3">
         <v>300</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>200</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-200</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-100</v>
       </c>
-      <c r="U101" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="E102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F102" s="3">
         <v>0</v>
@@ -5703,14 +5955,14 @@
         <v>0</v>
       </c>
       <c r="M102" s="3">
+        <v>0</v>
+      </c>
+      <c r="N102" s="3">
         <v>-300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>300</v>
       </c>
-      <c r="O102" s="3">
-        <v>0</v>
-      </c>
       <c r="P102" s="3">
         <v>0</v>
       </c>
@@ -5718,15 +5970,18 @@
         <v>0</v>
       </c>
       <c r="R102" s="3">
+        <v>0</v>
+      </c>
+      <c r="S102" s="3">
         <v>-100</v>
       </c>
-      <c r="S102" s="3">
-        <v>100</v>
-      </c>
       <c r="T102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U102" s="3">
+        <v>0</v>
+      </c>
+      <c r="V102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/GRST_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GRST_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="92">
   <si>
     <t>GRST</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,101 +665,109 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43373</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43190</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43100</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43008</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>42916</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>42825</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>42735</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>100</v>
+        <v>900</v>
       </c>
       <c r="E8" s="3">
         <v>100</v>
@@ -771,52 +779,58 @@
         <v>100</v>
       </c>
       <c r="H8" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="I8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J8" s="3">
         <v>100</v>
       </c>
       <c r="K8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L8" s="3">
         <v>100</v>
       </c>
       <c r="M8" s="3">
+        <v>100</v>
+      </c>
+      <c r="N8" s="3">
+        <v>100</v>
+      </c>
+      <c r="O8" s="3">
         <v>400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>300</v>
       </c>
-      <c r="O8" s="3">
-        <v>100</v>
-      </c>
-      <c r="P8" s="3">
-        <v>100</v>
-      </c>
       <c r="Q8" s="3">
+        <v>100</v>
+      </c>
+      <c r="R8" s="3">
+        <v>100</v>
+      </c>
+      <c r="S8" s="3">
         <v>900</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>600</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>400</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>300</v>
       </c>
-      <c r="U8" s="3">
-        <v>0</v>
-      </c>
-      <c r="V8" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W8" s="3">
+        <v>0</v>
+      </c>
+      <c r="X8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -877,8 +891,14 @@
       <c r="V9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -939,8 +959,14 @@
       <c r="V10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -963,8 +989,10 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1025,8 +1053,14 @@
       <c r="V12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1087,40 +1121,46 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>1100</v>
+        <v>0</v>
       </c>
       <c r="E14" s="3">
+        <v>100</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
         <v>400</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>-12700</v>
       </c>
-      <c r="H14" s="3">
-        <v>300</v>
-      </c>
       <c r="I14" s="3">
+        <v>-12700</v>
+      </c>
+      <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
         <v>900</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
-      <c r="K14" s="3">
-        <v>100</v>
-      </c>
-      <c r="L14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M14" s="3" t="s">
-        <v>5</v>
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
+        <v>100</v>
       </c>
       <c r="N14" s="3" t="s">
         <v>5</v>
@@ -1131,11 +1171,11 @@
       <c r="P14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
-      </c>
-      <c r="R14" s="3">
-        <v>0</v>
+      <c r="Q14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R14" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="S14" s="3">
         <v>0</v>
@@ -1149,13 +1189,19 @@
       <c r="V14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+      <c r="X14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E15" s="3">
         <v>0</v>
@@ -1167,7 +1213,7 @@
         <v>0</v>
       </c>
       <c r="H15" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I15" s="3">
         <v>0</v>
@@ -1176,43 +1222,49 @@
         <v>0</v>
       </c>
       <c r="K15" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L15" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M15" s="3">
+        <v>100</v>
+      </c>
+      <c r="N15" s="3">
+        <v>100</v>
+      </c>
+      <c r="O15" s="3">
         <v>300</v>
       </c>
-      <c r="N15" s="3">
-        <v>100</v>
-      </c>
-      <c r="O15" s="3">
-        <v>100</v>
-      </c>
       <c r="P15" s="3">
         <v>100</v>
       </c>
       <c r="Q15" s="3">
+        <v>100</v>
+      </c>
+      <c r="R15" s="3">
+        <v>100</v>
+      </c>
+      <c r="S15" s="3">
         <v>200</v>
       </c>
-      <c r="R15" s="3">
-        <v>100</v>
-      </c>
-      <c r="S15" s="3">
-        <v>100</v>
-      </c>
       <c r="T15" s="3">
-        <v>0</v>
-      </c>
-      <c r="U15" s="3" t="s">
-        <v>5</v>
+        <v>100</v>
+      </c>
+      <c r="U15" s="3">
+        <v>100</v>
       </c>
       <c r="V15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1232,132 +1284,146 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>700</v>
+      </c>
+      <c r="E17" s="3">
+        <v>200</v>
+      </c>
+      <c r="F17" s="3">
+        <v>100</v>
+      </c>
+      <c r="G17" s="3">
+        <v>500</v>
+      </c>
+      <c r="H17" s="3">
+        <v>-12300</v>
+      </c>
+      <c r="I17" s="3">
+        <v>-12600</v>
+      </c>
+      <c r="J17" s="3">
+        <v>200</v>
+      </c>
+      <c r="K17" s="3">
+        <v>1100</v>
+      </c>
+      <c r="L17" s="3">
         <v>1200</v>
       </c>
-      <c r="E17" s="3">
-        <v>500</v>
-      </c>
-      <c r="F17" s="3">
-        <v>100</v>
-      </c>
-      <c r="G17" s="3">
-        <v>-12600</v>
-      </c>
-      <c r="H17" s="3">
-        <v>500</v>
-      </c>
-      <c r="I17" s="3">
-        <v>1100</v>
-      </c>
-      <c r="J17" s="3">
+      <c r="M17" s="3">
+        <v>1600</v>
+      </c>
+      <c r="N17" s="3">
+        <v>1500</v>
+      </c>
+      <c r="O17" s="3">
+        <v>3300</v>
+      </c>
+      <c r="P17" s="3">
         <v>1200</v>
       </c>
-      <c r="K17" s="3">
-        <v>1600</v>
-      </c>
-      <c r="L17" s="3">
-        <v>1500</v>
-      </c>
-      <c r="M17" s="3">
-        <v>3300</v>
-      </c>
-      <c r="N17" s="3">
-        <v>1200</v>
-      </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>800</v>
-      </c>
-      <c r="P17" s="3">
-        <v>500</v>
-      </c>
-      <c r="Q17" s="3">
-        <v>2400</v>
       </c>
       <c r="R17" s="3">
         <v>500</v>
       </c>
       <c r="S17" s="3">
+        <v>2400</v>
+      </c>
+      <c r="T17" s="3">
+        <v>500</v>
+      </c>
+      <c r="U17" s="3">
         <v>400</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>900</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>800</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>200</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F18" s="3">
+        <v>0</v>
+      </c>
+      <c r="G18" s="3">
+        <v>-400</v>
+      </c>
+      <c r="H18" s="3">
+        <v>12600</v>
+      </c>
+      <c r="I18" s="3">
+        <v>12700</v>
+      </c>
+      <c r="J18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K18" s="3">
         <v>-1100</v>
       </c>
-      <c r="E18" s="3">
+      <c r="L18" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="M18" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="N18" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="O18" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="P18" s="3">
+        <v>-900</v>
+      </c>
+      <c r="Q18" s="3">
+        <v>-700</v>
+      </c>
+      <c r="R18" s="3">
         <v>-400</v>
       </c>
-      <c r="F18" s="3">
-        <v>0</v>
-      </c>
-      <c r="G18" s="3">
-        <v>12700</v>
-      </c>
-      <c r="H18" s="3">
-        <v>-400</v>
-      </c>
-      <c r="I18" s="3">
-        <v>-1100</v>
-      </c>
-      <c r="J18" s="3">
-        <v>-1100</v>
-      </c>
-      <c r="K18" s="3">
+      <c r="S18" s="3">
         <v>-1500</v>
       </c>
-      <c r="L18" s="3">
-        <v>-1400</v>
-      </c>
-      <c r="M18" s="3">
-        <v>-2900</v>
-      </c>
-      <c r="N18" s="3">
-        <v>-900</v>
-      </c>
-      <c r="O18" s="3">
-        <v>-700</v>
-      </c>
-      <c r="P18" s="3">
-        <v>-400</v>
-      </c>
-      <c r="Q18" s="3">
-        <v>-1500</v>
-      </c>
-      <c r="R18" s="3">
-        <v>100</v>
-      </c>
-      <c r="S18" s="3">
-        <v>0</v>
-      </c>
       <c r="T18" s="3">
+        <v>100</v>
+      </c>
+      <c r="U18" s="3">
+        <v>0</v>
+      </c>
+      <c r="V18" s="3">
         <v>-600</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>-800</v>
       </c>
-      <c r="V18" s="3">
+      <c r="X18" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1380,270 +1446,296 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E20" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="F20" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="G20" s="3">
+        <v>15400</v>
+      </c>
+      <c r="H20" s="3">
+        <v>-22900</v>
+      </c>
+      <c r="I20" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="J20" s="3">
+        <v>-9600</v>
+      </c>
+      <c r="K20" s="3">
+        <v>-7800</v>
+      </c>
+      <c r="L20" s="3">
+        <v>2000</v>
+      </c>
+      <c r="M20" s="3">
+        <v>900</v>
+      </c>
+      <c r="N20" s="3">
+        <v>-600</v>
+      </c>
+      <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q20" s="3">
         <v>-700</v>
       </c>
-      <c r="E20" s="3">
-        <v>15400</v>
-      </c>
-      <c r="F20" s="3">
-        <v>-10000</v>
-      </c>
-      <c r="G20" s="3">
-        <v>-3300</v>
-      </c>
-      <c r="H20" s="3">
-        <v>-9400</v>
-      </c>
-      <c r="I20" s="3">
-        <v>-7800</v>
-      </c>
-      <c r="J20" s="3">
-        <v>2000</v>
-      </c>
-      <c r="K20" s="3">
-        <v>900</v>
-      </c>
-      <c r="L20" s="3">
-        <v>-600</v>
-      </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
-      <c r="N20" s="3">
+      <c r="R20" s="3">
+        <v>100</v>
+      </c>
+      <c r="S20" s="3">
+        <v>-6300</v>
+      </c>
+      <c r="T20" s="3">
+        <v>100</v>
+      </c>
+      <c r="U20" s="3">
         <v>-100</v>
       </c>
-      <c r="O20" s="3">
-        <v>-700</v>
-      </c>
-      <c r="P20" s="3">
-        <v>100</v>
-      </c>
-      <c r="Q20" s="3">
-        <v>-6300</v>
-      </c>
-      <c r="R20" s="3">
-        <v>100</v>
-      </c>
-      <c r="S20" s="3">
-        <v>-100</v>
-      </c>
-      <c r="T20" s="3">
+      <c r="V20" s="3">
         <v>-4800</v>
       </c>
-      <c r="U20" s="3">
+      <c r="W20" s="3">
         <v>-200</v>
       </c>
-      <c r="V20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="X20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-1700</v>
+        <v>2000</v>
       </c>
       <c r="E21" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="F21" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="G21" s="3">
         <v>15000</v>
       </c>
-      <c r="F21" s="3">
-        <v>-10000</v>
-      </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
+        <v>-10200</v>
+      </c>
+      <c r="I21" s="3">
         <v>9400</v>
       </c>
-      <c r="H21" s="3">
-        <v>-9700</v>
-      </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
+        <v>-9600</v>
+      </c>
+      <c r="K21" s="3">
         <v>-8800</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>1000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>-1900</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>-2600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>-900</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>-1300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>-200</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>-7600</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>200</v>
       </c>
-      <c r="S21" s="3">
-        <v>0</v>
-      </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
+        <v>0</v>
+      </c>
+      <c r="V21" s="3">
         <v>-5400</v>
       </c>
-      <c r="U21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X21" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="E22" s="3">
+        <v>1300</v>
+      </c>
+      <c r="F22" s="3">
+        <v>800</v>
+      </c>
+      <c r="G22" s="3">
         <v>400</v>
       </c>
-      <c r="F22" s="3">
-        <v>200</v>
-      </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
+        <v>1200</v>
+      </c>
+      <c r="I22" s="3">
         <v>300</v>
       </c>
-      <c r="H22" s="3">
-        <v>600</v>
-      </c>
-      <c r="I22" s="3">
-        <v>1000</v>
-      </c>
       <c r="J22" s="3">
-        <v>1300</v>
+        <v>700</v>
       </c>
       <c r="K22" s="3">
         <v>1000</v>
       </c>
       <c r="L22" s="3">
+        <v>1300</v>
+      </c>
+      <c r="M22" s="3">
+        <v>1000</v>
+      </c>
+      <c r="N22" s="3">
         <v>1100</v>
       </c>
-      <c r="M22" s="3">
+      <c r="O22" s="3">
         <v>5200</v>
       </c>
-      <c r="N22" s="3">
+      <c r="P22" s="3">
         <v>1400</v>
       </c>
-      <c r="O22" s="3">
+      <c r="Q22" s="3">
         <v>1500</v>
       </c>
-      <c r="P22" s="3">
+      <c r="R22" s="3">
         <v>900</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="S22" s="3">
         <v>400</v>
       </c>
-      <c r="R22" s="3">
-        <v>100</v>
-      </c>
-      <c r="S22" s="3">
-        <v>100</v>
-      </c>
       <c r="T22" s="3">
+        <v>100</v>
+      </c>
+      <c r="U22" s="3">
+        <v>100</v>
+      </c>
+      <c r="V22" s="3">
         <v>300</v>
       </c>
-      <c r="U22" s="3">
-        <v>0</v>
-      </c>
-      <c r="V22" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W22" s="3">
+        <v>0</v>
+      </c>
+      <c r="X22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="F23" s="3">
         <v>-2400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>14600</v>
       </c>
-      <c r="F23" s="3">
-        <v>-10200</v>
-      </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
+        <v>-11500</v>
+      </c>
+      <c r="I23" s="3">
         <v>9000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-10300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-9800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-1700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-3100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-8100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-2400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-2900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-1200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>-8200</v>
       </c>
-      <c r="R23" s="3">
-        <v>100</v>
-      </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
+        <v>100</v>
+      </c>
+      <c r="U23" s="3">
         <v>-200</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>-5700</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>-1000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
         <v>0</v>
       </c>
-      <c r="E24" s="3" t="s">
-        <v>5</v>
+      <c r="E24" s="3">
+        <v>0</v>
       </c>
       <c r="F24" s="3">
         <v>0</v>
       </c>
-      <c r="G24" s="3">
-        <v>0</v>
+      <c r="G24" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="H24" s="3">
         <v>0</v>
@@ -1661,13 +1753,13 @@
         <v>0</v>
       </c>
       <c r="M24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N24" s="3">
         <v>0</v>
       </c>
       <c r="O24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P24" s="3">
         <v>0</v>
@@ -1690,8 +1782,14 @@
       <c r="V24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W24" s="3">
+        <v>0</v>
+      </c>
+      <c r="X24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1752,132 +1850,150 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="F26" s="3">
         <v>-2400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>14600</v>
       </c>
-      <c r="F26" s="3">
-        <v>-10200</v>
-      </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
+        <v>-11500</v>
+      </c>
+      <c r="I26" s="3">
         <v>9000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-10300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-9800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-1700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-3100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-8200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-2400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-2900</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-1200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>-8200</v>
       </c>
-      <c r="R26" s="3">
-        <v>100</v>
-      </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
+        <v>100</v>
+      </c>
+      <c r="U26" s="3">
         <v>-200</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>-5700</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>-1000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="F27" s="3">
         <v>-2400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>14600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
+        <v>-11600</v>
+      </c>
+      <c r="I27" s="3">
+        <v>9000</v>
+      </c>
+      <c r="J27" s="3">
         <v>-10300</v>
       </c>
-      <c r="G27" s="3">
-        <v>9000</v>
-      </c>
-      <c r="H27" s="3">
-        <v>-10300</v>
-      </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-9800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-1700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-3100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-8200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-2400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-2900</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-1200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>-8200</v>
       </c>
-      <c r="R27" s="3">
-        <v>100</v>
-      </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
+        <v>100</v>
+      </c>
+      <c r="U27" s="3">
         <v>-200</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>-5700</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>-1000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1938,8 +2054,14 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1964,17 +2086,17 @@
       <c r="J29" s="3">
         <v>0</v>
       </c>
-      <c r="K29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M29" s="3">
-        <v>0</v>
-      </c>
-      <c r="N29" s="3">
-        <v>0</v>
+      <c r="K29" s="3">
+        <v>0</v>
+      </c>
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N29" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="O29" s="3">
         <v>0</v>
@@ -1983,25 +2105,31 @@
         <v>0</v>
       </c>
       <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+      <c r="S29" s="3">
         <v>6800</v>
       </c>
-      <c r="R29" s="3">
+      <c r="T29" s="3">
         <v>-200</v>
       </c>
-      <c r="S29" s="3">
+      <c r="U29" s="3">
         <v>-100</v>
       </c>
-      <c r="T29" s="3">
+      <c r="V29" s="3">
         <v>7600</v>
       </c>
-      <c r="U29" s="3">
+      <c r="W29" s="3">
         <v>700</v>
       </c>
-      <c r="V29" s="3">
+      <c r="X29" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2062,8 +2190,14 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2124,132 +2258,150 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="E32" s="3">
+        <v>1300</v>
+      </c>
+      <c r="F32" s="3">
+        <v>1600</v>
+      </c>
+      <c r="G32" s="3">
+        <v>-15400</v>
+      </c>
+      <c r="H32" s="3">
+        <v>22900</v>
+      </c>
+      <c r="I32" s="3">
+        <v>3300</v>
+      </c>
+      <c r="J32" s="3">
+        <v>9600</v>
+      </c>
+      <c r="K32" s="3">
+        <v>7800</v>
+      </c>
+      <c r="L32" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="M32" s="3">
+        <v>-900</v>
+      </c>
+      <c r="N32" s="3">
+        <v>600</v>
+      </c>
+      <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q32" s="3">
         <v>700</v>
-      </c>
-      <c r="E32" s="3">
-        <v>-15400</v>
-      </c>
-      <c r="F32" s="3">
-        <v>10000</v>
-      </c>
-      <c r="G32" s="3">
-        <v>3300</v>
-      </c>
-      <c r="H32" s="3">
-        <v>9400</v>
-      </c>
-      <c r="I32" s="3">
-        <v>7800</v>
-      </c>
-      <c r="J32" s="3">
-        <v>-2000</v>
-      </c>
-      <c r="K32" s="3">
-        <v>-900</v>
-      </c>
-      <c r="L32" s="3">
-        <v>600</v>
-      </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
-      <c r="N32" s="3">
-        <v>100</v>
-      </c>
-      <c r="O32" s="3">
-        <v>700</v>
-      </c>
-      <c r="P32" s="3">
-        <v>-100</v>
-      </c>
-      <c r="Q32" s="3">
-        <v>6300</v>
       </c>
       <c r="R32" s="3">
         <v>-100</v>
       </c>
       <c r="S32" s="3">
-        <v>100</v>
+        <v>6300</v>
       </c>
       <c r="T32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="U32" s="3">
+        <v>100</v>
+      </c>
+      <c r="V32" s="3">
         <v>4800</v>
       </c>
-      <c r="U32" s="3">
+      <c r="W32" s="3">
         <v>200</v>
       </c>
-      <c r="V32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="X32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="F33" s="3">
         <v>-2400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>14600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
+        <v>-11600</v>
+      </c>
+      <c r="I33" s="3">
+        <v>9000</v>
+      </c>
+      <c r="J33" s="3">
         <v>-10300</v>
       </c>
-      <c r="G33" s="3">
-        <v>9000</v>
-      </c>
-      <c r="H33" s="3">
-        <v>-10300</v>
-      </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-9800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-1700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-3100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-8200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-2400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-2900</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-1200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>-1400</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>-100</v>
-      </c>
-      <c r="S33" s="3">
-        <v>-300</v>
-      </c>
-      <c r="T33" s="3">
-        <v>1900</v>
       </c>
       <c r="U33" s="3">
         <v>-300</v>
       </c>
       <c r="V33" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+        <v>1900</v>
+      </c>
+      <c r="W33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="X33" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2310,137 +2462,155 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="F35" s="3">
         <v>-2400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>14600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
+        <v>-11600</v>
+      </c>
+      <c r="I35" s="3">
+        <v>9000</v>
+      </c>
+      <c r="J35" s="3">
         <v>-10300</v>
       </c>
-      <c r="G35" s="3">
-        <v>9000</v>
-      </c>
-      <c r="H35" s="3">
-        <v>-10300</v>
-      </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-9800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-1700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-3100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-8200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-2400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-2900</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-1200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>-1400</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>-100</v>
-      </c>
-      <c r="S35" s="3">
-        <v>-300</v>
-      </c>
-      <c r="T35" s="3">
-        <v>1900</v>
       </c>
       <c r="U35" s="3">
         <v>-300</v>
       </c>
       <c r="V35" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+        <v>1900</v>
+      </c>
+      <c r="W35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="X35" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43373</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43190</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43100</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43008</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>42916</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>42825</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>42735</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2463,8 +2633,10 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2487,22 +2659,24 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F41" s="3">
         <v>0</v>
       </c>
       <c r="G41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H41" s="3">
         <v>0</v>
@@ -2523,17 +2697,17 @@
         <v>0</v>
       </c>
       <c r="N41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O41" s="3">
+        <v>0</v>
+      </c>
+      <c r="P41" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q41" s="3">
         <v>300</v>
       </c>
-      <c r="P41" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q41" s="3">
-        <v>0</v>
-      </c>
       <c r="R41" s="3">
         <v>0</v>
       </c>
@@ -2541,31 +2715,37 @@
         <v>0</v>
       </c>
       <c r="T41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U41" s="3">
         <v>0</v>
       </c>
       <c r="V41" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="W41" s="3">
+        <v>0</v>
+      </c>
+      <c r="X41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>0</v>
+      </c>
+      <c r="E42" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F42" s="3">
         <v>1000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="G42" s="3">
         <v>700</v>
       </c>
-      <c r="F42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G42" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="H42" s="3" t="s">
         <v>5</v>
       </c>
@@ -2578,11 +2758,11 @@
       <c r="K42" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L42" s="3">
-        <v>0</v>
-      </c>
-      <c r="M42" s="3">
-        <v>0</v>
+      <c r="L42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M42" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="N42" s="3">
         <v>0</v>
@@ -2611,13 +2791,19 @@
       <c r="V42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+      <c r="X42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E43" s="3">
         <v>0</v>
@@ -2629,52 +2815,58 @@
         <v>0</v>
       </c>
       <c r="H43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J43" s="3">
+        <v>100</v>
+      </c>
+      <c r="K43" s="3">
+        <v>100</v>
+      </c>
+      <c r="L43" s="3">
         <v>200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>300</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>200</v>
       </c>
-      <c r="N43" s="3">
-        <v>100</v>
-      </c>
-      <c r="O43" s="3">
-        <v>100</v>
-      </c>
       <c r="P43" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q43" s="3">
+        <v>100</v>
+      </c>
+      <c r="R43" s="3">
         <v>200</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>200</v>
       </c>
-      <c r="R43" s="3">
+      <c r="T43" s="3">
         <v>1000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="U43" s="3">
         <v>600</v>
       </c>
-      <c r="T43" s="3">
+      <c r="V43" s="3">
         <v>300</v>
       </c>
-      <c r="U43" s="3">
-        <v>100</v>
-      </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
+        <v>100</v>
+      </c>
+      <c r="X43" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2735,132 +2927,150 @@
       <c r="V44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W44" s="3">
+        <v>0</v>
+      </c>
+      <c r="X44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E45" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F45" s="3">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="G45" s="3">
         <v>200</v>
       </c>
       <c r="H45" s="3">
+        <v>500</v>
+      </c>
+      <c r="I45" s="3">
         <v>200</v>
-      </c>
-      <c r="I45" s="3">
-        <v>100</v>
       </c>
       <c r="J45" s="3">
         <v>200</v>
       </c>
       <c r="K45" s="3">
+        <v>100</v>
+      </c>
+      <c r="L45" s="3">
         <v>200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
+        <v>200</v>
+      </c>
+      <c r="N45" s="3">
         <v>2000</v>
       </c>
-      <c r="M45" s="3">
-        <v>100</v>
-      </c>
-      <c r="N45" s="3">
-        <v>100</v>
-      </c>
       <c r="O45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P45" s="3">
         <v>100</v>
       </c>
       <c r="Q45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T45" s="3">
         <v>0</v>
       </c>
       <c r="U45" s="3">
+        <v>0</v>
+      </c>
+      <c r="V45" s="3">
+        <v>0</v>
+      </c>
+      <c r="W45" s="3">
         <v>200</v>
       </c>
-      <c r="V45" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="X45" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>300</v>
+      </c>
+      <c r="E46" s="3">
+        <v>1300</v>
+      </c>
+      <c r="F46" s="3">
         <v>1200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>900</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>500</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>300</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>2400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>400</v>
-      </c>
-      <c r="N46" s="3">
-        <v>300</v>
-      </c>
-      <c r="O46" s="3">
-        <v>500</v>
       </c>
       <c r="P46" s="3">
         <v>300</v>
       </c>
       <c r="Q46" s="3">
+        <v>500</v>
+      </c>
+      <c r="R46" s="3">
         <v>300</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
+        <v>300</v>
+      </c>
+      <c r="T46" s="3">
         <v>1000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>600</v>
-      </c>
-      <c r="T46" s="3">
-        <v>400</v>
-      </c>
-      <c r="U46" s="3">
-        <v>300</v>
       </c>
       <c r="V46" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W46" s="3">
+        <v>300</v>
+      </c>
+      <c r="X46" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2912,102 +3122,114 @@
       <c r="S47" s="3">
         <v>0</v>
       </c>
-      <c r="T47" s="3" t="s">
-        <v>5</v>
+      <c r="T47" s="3">
+        <v>0</v>
       </c>
       <c r="U47" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V47" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W47" s="3">
+        <v>100</v>
+      </c>
+      <c r="X47" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2900</v>
+        <v>4700</v>
       </c>
       <c r="E48" s="3">
         <v>2900</v>
       </c>
       <c r="F48" s="3">
+        <v>2900</v>
+      </c>
+      <c r="G48" s="3">
+        <v>2900</v>
+      </c>
+      <c r="H48" s="3">
         <v>2800</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>2800</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>2700</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>3000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>20100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>20400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>22900</v>
-      </c>
-      <c r="M48" s="3">
-        <v>8900</v>
-      </c>
-      <c r="N48" s="3">
-        <v>8900</v>
       </c>
       <c r="O48" s="3">
         <v>8900</v>
       </c>
       <c r="P48" s="3">
+        <v>8900</v>
+      </c>
+      <c r="Q48" s="3">
+        <v>8900</v>
+      </c>
+      <c r="R48" s="3">
         <v>9000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>9200</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>12200</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <v>12000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="V48" s="3">
         <v>10800</v>
       </c>
-      <c r="U48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X48" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>0</v>
-      </c>
-      <c r="E49" s="3">
-        <v>0</v>
-      </c>
-      <c r="F49" s="3">
-        <v>0</v>
-      </c>
-      <c r="G49" s="3">
-        <v>0</v>
-      </c>
-      <c r="H49" s="3">
-        <v>0</v>
-      </c>
-      <c r="I49" s="3">
-        <v>0</v>
-      </c>
-      <c r="J49" s="3">
-        <v>0</v>
+        <v>1700</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J49" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="K49" s="3">
         <v>0</v>
@@ -3027,26 +3249,32 @@
       <c r="P49" s="3">
         <v>0</v>
       </c>
-      <c r="Q49" s="3" t="s">
-        <v>5</v>
+      <c r="Q49" s="3">
+        <v>0</v>
       </c>
       <c r="R49" s="3">
-        <v>1400</v>
-      </c>
-      <c r="S49" s="3">
-        <v>1400</v>
+        <v>0</v>
+      </c>
+      <c r="S49" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="T49" s="3">
         <v>1400</v>
       </c>
-      <c r="U49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V49" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="U49" s="3">
+        <v>1400</v>
+      </c>
+      <c r="V49" s="3">
+        <v>1400</v>
+      </c>
+      <c r="W49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X49" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3107,8 +3335,14 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3169,8 +3403,14 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3193,46 +3433,52 @@
         <v>0</v>
       </c>
       <c r="J52" s="3">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="K52" s="3">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="L52" s="3">
         <v>3000</v>
       </c>
       <c r="M52" s="3">
+        <v>3000</v>
+      </c>
+      <c r="N52" s="3">
+        <v>3000</v>
+      </c>
+      <c r="O52" s="3">
         <v>3300</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>3400</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>3400</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>2600</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="S52" s="3">
         <v>2800</v>
       </c>
-      <c r="R52" s="3">
+      <c r="T52" s="3">
         <v>1400</v>
       </c>
-      <c r="S52" s="3">
+      <c r="U52" s="3">
         <v>1300</v>
       </c>
-      <c r="T52" s="3">
+      <c r="V52" s="3">
         <v>1300</v>
       </c>
-      <c r="U52" s="3">
-        <v>100</v>
-      </c>
-      <c r="V52" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W52" s="3">
+        <v>100</v>
+      </c>
+      <c r="X52" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3293,70 +3539,82 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>6700</v>
+      </c>
+      <c r="E54" s="3">
+        <v>4200</v>
+      </c>
+      <c r="F54" s="3">
         <v>4100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>3800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>3300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>3000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>2900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>3200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>23500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>24000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>28300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>12700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>12600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>12800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>11900</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>12300</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>16000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>15300</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>13900</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>500</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3379,8 +3637,10 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3403,13 +3663,15 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="E57" s="3">
         <v>800</v>
@@ -3421,34 +3683,34 @@
         <v>800</v>
       </c>
       <c r="H57" s="3">
+        <v>800</v>
+      </c>
+      <c r="I57" s="3">
+        <v>800</v>
+      </c>
+      <c r="J57" s="3">
         <v>900</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>1000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>2200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>1800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>1600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>1100</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>700</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>300</v>
-      </c>
-      <c r="P57" s="3">
-        <v>400</v>
-      </c>
-      <c r="Q57" s="3">
-        <v>400</v>
       </c>
       <c r="R57" s="3">
         <v>400</v>
@@ -3457,269 +3719,299 @@
         <v>400</v>
       </c>
       <c r="T57" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="U57" s="3">
         <v>400</v>
       </c>
       <c r="V57" s="3">
+        <v>500</v>
+      </c>
+      <c r="W57" s="3">
+        <v>400</v>
+      </c>
+      <c r="X57" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>11900</v>
+      </c>
+      <c r="E58" s="3">
+        <v>8200</v>
+      </c>
+      <c r="F58" s="3">
         <v>7800</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>7400</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>7500</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>7300</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>8300</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>8100</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>7700</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>7700</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>10400</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>7200</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>6100</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>4800</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>3500</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="S58" s="3">
         <v>2900</v>
       </c>
-      <c r="R58" s="3">
+      <c r="T58" s="3">
         <v>2000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="U58" s="3">
         <v>6000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="V58" s="3">
         <v>5500</v>
       </c>
-      <c r="U58" s="3">
+      <c r="W58" s="3">
         <v>500</v>
       </c>
-      <c r="V58" s="3">
+      <c r="X58" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E59" s="3">
+        <v>5500</v>
+      </c>
+      <c r="F59" s="3">
         <v>5300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>5600</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>20500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>10200</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>19200</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>9500</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>4300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>5500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>7200</v>
-      </c>
-      <c r="M59" s="3">
-        <v>5400</v>
-      </c>
-      <c r="N59" s="3">
-        <v>5600</v>
       </c>
       <c r="O59" s="3">
         <v>5400</v>
       </c>
       <c r="P59" s="3">
+        <v>5600</v>
+      </c>
+      <c r="Q59" s="3">
+        <v>5400</v>
+      </c>
+      <c r="R59" s="3">
         <v>4000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>3500</v>
-      </c>
-      <c r="R59" s="3">
-        <v>600</v>
-      </c>
-      <c r="S59" s="3">
-        <v>500</v>
       </c>
       <c r="T59" s="3">
         <v>600</v>
       </c>
       <c r="U59" s="3">
+        <v>500</v>
+      </c>
+      <c r="V59" s="3">
+        <v>600</v>
+      </c>
+      <c r="W59" s="3">
         <v>2800</v>
       </c>
-      <c r="V59" s="3">
+      <c r="X59" s="3">
         <v>2800</v>
       </c>
     </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>15700</v>
+      </c>
+      <c r="E60" s="3">
+        <v>14500</v>
+      </c>
+      <c r="F60" s="3">
         <v>13900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>13900</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>28800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>18300</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>28400</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>18600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>14200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>15000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>19200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>13700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>12400</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>10600</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>7900</v>
-      </c>
-      <c r="Q60" s="3">
-        <v>6900</v>
-      </c>
-      <c r="R60" s="3">
-        <v>2900</v>
       </c>
       <c r="S60" s="3">
         <v>6900</v>
       </c>
       <c r="T60" s="3">
+        <v>2900</v>
+      </c>
+      <c r="U60" s="3">
+        <v>6900</v>
+      </c>
+      <c r="V60" s="3">
         <v>6600</v>
       </c>
-      <c r="U60" s="3">
+      <c r="W60" s="3">
         <v>3600</v>
       </c>
-      <c r="V60" s="3">
+      <c r="X60" s="3">
         <v>3400</v>
       </c>
     </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>4600</v>
+        <v>700</v>
       </c>
       <c r="E61" s="3">
         <v>4600</v>
       </c>
       <c r="F61" s="3">
+        <v>4600</v>
+      </c>
+      <c r="G61" s="3">
+        <v>4600</v>
+      </c>
+      <c r="H61" s="3">
         <v>4400</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>4400</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>4300</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>4700</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>4600</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>3900</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>3900</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>6700</v>
-      </c>
-      <c r="N61" s="3">
-        <v>7000</v>
-      </c>
-      <c r="O61" s="3">
-        <v>6900</v>
       </c>
       <c r="P61" s="3">
         <v>7000</v>
       </c>
       <c r="Q61" s="3">
+        <v>6900</v>
+      </c>
+      <c r="R61" s="3">
+        <v>7000</v>
+      </c>
+      <c r="S61" s="3">
         <v>7200</v>
       </c>
-      <c r="R61" s="3">
+      <c r="T61" s="3">
         <v>7200</v>
       </c>
-      <c r="S61" s="3">
+      <c r="U61" s="3">
         <v>3000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="V61" s="3">
         <v>3000</v>
       </c>
-      <c r="U61" s="3">
-        <v>0</v>
-      </c>
-      <c r="V61" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W61" s="3">
+        <v>0</v>
+      </c>
+      <c r="X61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D62" s="3" t="s">
-        <v>5</v>
+      <c r="D62" s="3">
+        <v>1800</v>
       </c>
       <c r="E62" s="3" t="s">
         <v>5</v>
@@ -3736,32 +4028,32 @@
       <c r="I62" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J62" s="3">
+      <c r="J62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L62" s="3">
         <v>14600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>14800</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>15000</v>
       </c>
-      <c r="M62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N62" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="O62" s="3" t="s">
         <v>5</v>
       </c>
       <c r="P62" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q62" s="3">
-        <v>0</v>
-      </c>
-      <c r="R62" s="3">
-        <v>0</v>
+      <c r="Q62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R62" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="S62" s="3">
         <v>0</v>
@@ -3775,8 +4067,14 @@
       <c r="V62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W62" s="3">
+        <v>0</v>
+      </c>
+      <c r="X62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3837,8 +4135,14 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3899,8 +4203,14 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3961,70 +4271,82 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>19100</v>
+      </c>
+      <c r="E66" s="3">
+        <v>19800</v>
+      </c>
+      <c r="F66" s="3">
         <v>19200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>19100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>33900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>23400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>32600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>23200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>33400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>33700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>38200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>20400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>19400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>17500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>14900</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>14000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>10100</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>9900</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>9600</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>3600</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>3500</v>
       </c>
     </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4047,8 +4369,10 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4109,8 +4433,14 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4171,8 +4501,14 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4189,10 +4525,10 @@
         <v>400</v>
       </c>
       <c r="H70" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="I70" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="J70" s="3">
         <v>0</v>
@@ -4233,8 +4569,14 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4295,70 +4637,82 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-46000</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-47500</v>
+      </c>
+      <c r="F72" s="3">
         <v>-44900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-42500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-57100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-46800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-55800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-45500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-35600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-35300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-33600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-30500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-28900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-26500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-23600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-22400</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-14800</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>-14700</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>-15500</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>-21000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>-20400</v>
       </c>
     </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4419,8 +4773,14 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4481,8 +4841,14 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4543,70 +4909,82 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-12900</v>
+      </c>
+      <c r="E76" s="3">
+        <v>-16100</v>
+      </c>
+      <c r="F76" s="3">
         <v>-15600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>-15800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>-31000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>-20800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>-29800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>-20000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>-10000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>-9700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>-9900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>-7700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>-6800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>-4800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>-3000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>-1800</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>5900</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>5400</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>4400</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>-3200</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>-2900</v>
       </c>
     </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4667,137 +5045,155 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43373</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43190</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43100</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43008</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>42916</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>42825</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>42735</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="F81" s="3">
         <v>-2400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>14600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
+        <v>-11600</v>
+      </c>
+      <c r="I81" s="3">
+        <v>9000</v>
+      </c>
+      <c r="J81" s="3">
         <v>-10300</v>
       </c>
-      <c r="G81" s="3">
-        <v>9000</v>
-      </c>
-      <c r="H81" s="3">
-        <v>-10300</v>
-      </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-9800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-1700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-3100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-8200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-2400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-2900</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-1200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>-1400</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>-100</v>
-      </c>
-      <c r="S81" s="3">
-        <v>-300</v>
-      </c>
-      <c r="T81" s="3">
-        <v>1900</v>
       </c>
       <c r="U81" s="3">
         <v>-300</v>
       </c>
       <c r="V81" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+        <v>1900</v>
+      </c>
+      <c r="W81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="X81" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4820,13 +5216,15 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E83" s="3">
         <v>0</v>
@@ -4838,7 +5236,7 @@
         <v>0</v>
       </c>
       <c r="H83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I83" s="3">
         <v>0</v>
@@ -4847,43 +5245,49 @@
         <v>0</v>
       </c>
       <c r="K83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M83" s="3">
+        <v>100</v>
+      </c>
+      <c r="N83" s="3">
+        <v>100</v>
+      </c>
+      <c r="O83" s="3">
         <v>300</v>
       </c>
-      <c r="N83" s="3">
-        <v>100</v>
-      </c>
-      <c r="O83" s="3">
-        <v>100</v>
-      </c>
       <c r="P83" s="3">
         <v>100</v>
       </c>
       <c r="Q83" s="3">
+        <v>100</v>
+      </c>
+      <c r="R83" s="3">
+        <v>100</v>
+      </c>
+      <c r="S83" s="3">
         <v>200</v>
       </c>
-      <c r="R83" s="3">
-        <v>100</v>
-      </c>
-      <c r="S83" s="3">
-        <v>100</v>
-      </c>
       <c r="T83" s="3">
         <v>100</v>
       </c>
-      <c r="U83" s="3" t="s">
-        <v>5</v>
+      <c r="U83" s="3">
+        <v>100</v>
       </c>
       <c r="V83" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="W83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4944,8 +5348,14 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5006,8 +5416,14 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5068,8 +5484,14 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5130,8 +5552,14 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5192,70 +5620,82 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>500</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F89" s="3">
         <v>-100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>300</v>
       </c>
-      <c r="F89" s="3">
-        <v>-300</v>
-      </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
+        <v>-400</v>
+      </c>
+      <c r="I89" s="3">
         <v>-600</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-1100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>-1500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>-800</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>-400</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>200</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>-4600</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>-500</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>-400</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>-3100</v>
       </c>
-      <c r="U89" s="3">
-        <v>0</v>
-      </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
+        <v>0</v>
+      </c>
+      <c r="X89" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5278,8 +5718,10 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5298,50 +5740,56 @@
       <c r="H91" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I91" s="3">
+      <c r="I91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K91" s="3">
         <v>-100</v>
       </c>
-      <c r="J91" s="3">
-        <v>0</v>
-      </c>
-      <c r="K91" s="3">
-        <v>0</v>
-      </c>
       <c r="L91" s="3">
         <v>0</v>
       </c>
       <c r="M91" s="3">
+        <v>0</v>
+      </c>
+      <c r="N91" s="3">
+        <v>0</v>
+      </c>
+      <c r="O91" s="3">
         <v>-300</v>
       </c>
-      <c r="N91" s="3">
-        <v>0</v>
-      </c>
-      <c r="O91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q91" s="3">
+      <c r="P91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S91" s="3">
         <v>-400</v>
       </c>
-      <c r="R91" s="3">
-        <v>0</v>
-      </c>
-      <c r="S91" s="3">
-        <v>0</v>
-      </c>
       <c r="T91" s="3">
         <v>0</v>
       </c>
-      <c r="U91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V91" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="U91" s="3">
+        <v>0</v>
+      </c>
+      <c r="V91" s="3">
+        <v>0</v>
+      </c>
+      <c r="W91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X91" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5402,8 +5850,14 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5464,70 +5918,82 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>0</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F94" s="3">
         <v>-300</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-700</v>
       </c>
-      <c r="F94" s="3">
-        <v>0</v>
-      </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
       <c r="H94" s="3">
         <v>0</v>
       </c>
       <c r="I94" s="3">
+        <v>0</v>
+      </c>
+      <c r="J94" s="3">
+        <v>0</v>
+      </c>
+      <c r="K94" s="3">
         <v>1200</v>
       </c>
-      <c r="J94" s="3">
-        <v>0</v>
-      </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
+        <v>0</v>
+      </c>
+      <c r="M94" s="3">
         <v>3300</v>
       </c>
-      <c r="L94" s="3">
-        <v>0</v>
-      </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
+        <v>0</v>
+      </c>
+      <c r="O94" s="3">
         <v>-1400</v>
       </c>
-      <c r="N94" s="3">
-        <v>0</v>
-      </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q94" s="3">
         <v>-900</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-300</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>1400</v>
       </c>
-      <c r="R94" s="3">
-        <v>100</v>
-      </c>
-      <c r="S94" s="3">
-        <v>0</v>
-      </c>
       <c r="T94" s="3">
+        <v>100</v>
+      </c>
+      <c r="U94" s="3">
+        <v>0</v>
+      </c>
+      <c r="V94" s="3">
         <v>3300</v>
       </c>
-      <c r="U94" s="3">
+      <c r="W94" s="3">
         <v>-100</v>
       </c>
-      <c r="V94" s="3">
+      <c r="X94" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5550,8 +6016,10 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5612,8 +6080,14 @@
       <c r="V96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5674,8 +6148,14 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5736,8 +6216,14 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5798,13 +6284,19 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>300</v>
+        <v>-300</v>
       </c>
       <c r="E100" s="3">
         <v>400</v>
@@ -5813,131 +6305,143 @@
         <v>300</v>
       </c>
       <c r="G100" s="3">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="H100" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="I100" s="3">
+        <v>100</v>
+      </c>
+      <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
         <v>-1000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-2500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>1000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>3400</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>500</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>1800</v>
-      </c>
-      <c r="P100" s="3">
-        <v>200</v>
-      </c>
-      <c r="Q100" s="3">
-        <v>3300</v>
       </c>
       <c r="R100" s="3">
         <v>200</v>
       </c>
       <c r="S100" s="3">
-        <v>100</v>
+        <v>3300</v>
       </c>
       <c r="T100" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="U100" s="3">
+        <v>100</v>
+      </c>
+      <c r="V100" s="3">
+        <v>0</v>
+      </c>
+      <c r="W100" s="3">
         <v>200</v>
       </c>
-      <c r="V100" s="3">
+      <c r="X100" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="E101" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F101" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G101" s="3">
+        <v>0</v>
+      </c>
+      <c r="H101" s="3">
+        <v>0</v>
+      </c>
+      <c r="I101" s="3">
         <v>500</v>
       </c>
-      <c r="H101" s="3">
+      <c r="J101" s="3">
         <v>-500</v>
       </c>
-      <c r="I101" s="3">
-        <v>100</v>
-      </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
+        <v>100</v>
+      </c>
+      <c r="L101" s="3">
         <v>-100</v>
       </c>
-      <c r="K101" s="3">
-        <v>100</v>
-      </c>
-      <c r="L101" s="3">
-        <v>100</v>
-      </c>
       <c r="M101" s="3">
+        <v>100</v>
+      </c>
+      <c r="N101" s="3">
+        <v>100</v>
+      </c>
+      <c r="O101" s="3">
         <v>-400</v>
       </c>
-      <c r="N101" s="3">
+      <c r="P101" s="3">
         <v>200</v>
       </c>
-      <c r="O101" s="3">
+      <c r="Q101" s="3">
         <v>-100</v>
       </c>
-      <c r="P101" s="3">
+      <c r="R101" s="3">
         <v>-100</v>
       </c>
-      <c r="Q101" s="3">
-        <v>0</v>
-      </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+      <c r="T101" s="3">
         <v>300</v>
       </c>
-      <c r="S101" s="3">
+      <c r="U101" s="3">
         <v>200</v>
       </c>
-      <c r="T101" s="3">
+      <c r="V101" s="3">
         <v>-200</v>
       </c>
-      <c r="U101" s="3">
+      <c r="W101" s="3">
         <v>-100</v>
       </c>
-      <c r="V101" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="X101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>0</v>
+      </c>
+      <c r="E102" s="3">
+        <v>0</v>
+      </c>
+      <c r="F102" s="3">
         <v>-100</v>
       </c>
-      <c r="E102" s="3">
-        <v>100</v>
-      </c>
-      <c r="F102" s="3">
-        <v>0</v>
-      </c>
       <c r="G102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H102" s="3">
         <v>0</v>
@@ -5958,30 +6462,36 @@
         <v>0</v>
       </c>
       <c r="N102" s="3">
+        <v>0</v>
+      </c>
+      <c r="O102" s="3">
+        <v>0</v>
+      </c>
+      <c r="P102" s="3">
         <v>-300</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>300</v>
       </c>
-      <c r="P102" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q102" s="3">
-        <v>0</v>
-      </c>
       <c r="R102" s="3">
         <v>0</v>
       </c>
       <c r="S102" s="3">
+        <v>0</v>
+      </c>
+      <c r="T102" s="3">
+        <v>0</v>
+      </c>
+      <c r="U102" s="3">
         <v>-100</v>
       </c>
-      <c r="T102" s="3">
-        <v>100</v>
-      </c>
-      <c r="U102" s="3">
-        <v>0</v>
-      </c>
       <c r="V102" s="3">
+        <v>100</v>
+      </c>
+      <c r="W102" s="3">
+        <v>0</v>
+      </c>
+      <c r="X102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/GRST_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GRST_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="92">
   <si>
     <t>GRST</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,104 +665,107 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43465</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43373</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43281</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43190</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43100</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43008</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42916</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42825</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42735</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -770,7 +773,7 @@
         <v>900</v>
       </c>
       <c r="E8" s="3">
-        <v>100</v>
+        <v>900</v>
       </c>
       <c r="F8" s="3">
         <v>100</v>
@@ -779,19 +782,19 @@
         <v>100</v>
       </c>
       <c r="H8" s="3">
+        <v>100</v>
+      </c>
+      <c r="I8" s="3">
         <v>300</v>
       </c>
-      <c r="I8" s="3">
-        <v>100</v>
-      </c>
       <c r="J8" s="3">
         <v>100</v>
       </c>
       <c r="K8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M8" s="3">
         <v>100</v>
@@ -800,37 +803,40 @@
         <v>100</v>
       </c>
       <c r="O8" s="3">
+        <v>100</v>
+      </c>
+      <c r="P8" s="3">
         <v>400</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>300</v>
       </c>
-      <c r="Q8" s="3">
-        <v>100</v>
-      </c>
       <c r="R8" s="3">
         <v>100</v>
       </c>
       <c r="S8" s="3">
+        <v>100</v>
+      </c>
+      <c r="T8" s="3">
         <v>900</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>600</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>400</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>300</v>
       </c>
-      <c r="W8" s="3">
-        <v>0</v>
-      </c>
       <c r="X8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -897,8 +903,11 @@
       <c r="X9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -965,8 +974,11 @@
       <c r="X10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -991,8 +1003,9 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1059,8 +1072,11 @@
       <c r="X12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1127,43 +1143,46 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="E14" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F14" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
         <v>400</v>
-      </c>
-      <c r="H14" s="3">
-        <v>-12700</v>
       </c>
       <c r="I14" s="3">
         <v>-12700</v>
       </c>
       <c r="J14" s="3">
-        <v>0</v>
+        <v>-12700</v>
       </c>
       <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
         <v>900</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
       <c r="M14" s="3">
-        <v>100</v>
-      </c>
-      <c r="N14" s="3" t="s">
-        <v>5</v>
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
+        <v>100</v>
       </c>
       <c r="O14" s="3" t="s">
         <v>5</v>
@@ -1177,8 +1196,8 @@
       <c r="R14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="S14" s="3">
-        <v>0</v>
+      <c r="S14" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="T14" s="3">
         <v>0</v>
@@ -1195,8 +1214,11 @@
       <c r="X14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1204,7 +1226,7 @@
         <v>100</v>
       </c>
       <c r="E15" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F15" s="3">
         <v>0</v>
@@ -1213,10 +1235,10 @@
         <v>0</v>
       </c>
       <c r="H15" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I15" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J15" s="3">
         <v>0</v>
@@ -1228,17 +1250,17 @@
         <v>0</v>
       </c>
       <c r="M15" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N15" s="3">
         <v>100</v>
       </c>
       <c r="O15" s="3">
+        <v>100</v>
+      </c>
+      <c r="P15" s="3">
         <v>300</v>
       </c>
-      <c r="P15" s="3">
-        <v>100</v>
-      </c>
       <c r="Q15" s="3">
         <v>100</v>
       </c>
@@ -1246,25 +1268,28 @@
         <v>100</v>
       </c>
       <c r="S15" s="3">
+        <v>100</v>
+      </c>
+      <c r="T15" s="3">
         <v>200</v>
       </c>
-      <c r="T15" s="3">
-        <v>100</v>
-      </c>
       <c r="U15" s="3">
         <v>100</v>
       </c>
       <c r="V15" s="3">
-        <v>0</v>
-      </c>
-      <c r="W15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X15" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+      <c r="X15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1286,144 +1311,151 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E17" s="3">
         <v>700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>200</v>
       </c>
-      <c r="F17" s="3">
-        <v>100</v>
-      </c>
       <c r="G17" s="3">
+        <v>100</v>
+      </c>
+      <c r="H17" s="3">
         <v>500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>-12300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>-12600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>3300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1200</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>800</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>500</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>2400</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>500</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>400</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>900</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>800</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E18" s="3">
         <v>200</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-100</v>
       </c>
-      <c r="F18" s="3">
-        <v>0</v>
-      </c>
       <c r="G18" s="3">
+        <v>0</v>
+      </c>
+      <c r="H18" s="3">
         <v>-400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>12600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>12700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-100</v>
-      </c>
-      <c r="K18" s="3">
-        <v>-1100</v>
       </c>
       <c r="L18" s="3">
         <v>-1100</v>
       </c>
       <c r="M18" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="N18" s="3">
         <v>-1500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-1400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-2900</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-900</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-700</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-400</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-1500</v>
       </c>
-      <c r="T18" s="3">
-        <v>100</v>
-      </c>
       <c r="U18" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V18" s="3">
+        <v>0</v>
+      </c>
+      <c r="W18" s="3">
         <v>-600</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-800</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1448,285 +1480,298 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E20" s="3">
         <v>1700</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-1300</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-1600</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>15400</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-22900</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-3300</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-9600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-7800</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>2000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>900</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-600</v>
       </c>
-      <c r="O20" s="3">
-        <v>0</v>
-      </c>
       <c r="P20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="3">
         <v>-100</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-700</v>
       </c>
-      <c r="R20" s="3">
-        <v>100</v>
-      </c>
       <c r="S20" s="3">
+        <v>100</v>
+      </c>
+      <c r="T20" s="3">
         <v>-6300</v>
       </c>
-      <c r="T20" s="3">
-        <v>100</v>
-      </c>
       <c r="U20" s="3">
+        <v>100</v>
+      </c>
+      <c r="V20" s="3">
         <v>-100</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-4800</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-200</v>
       </c>
-      <c r="X20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E21" s="3">
         <v>2000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-1300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-1600</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>15000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-10200</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>9400</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-9600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-8800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>1000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-1900</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-2600</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-900</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-1300</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-200</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-7600</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>200</v>
       </c>
-      <c r="U21" s="3">
-        <v>0</v>
-      </c>
       <c r="V21" s="3">
+        <v>0</v>
+      </c>
+      <c r="W21" s="3">
         <v>-5400</v>
       </c>
-      <c r="W21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X21" s="3">
+      <c r="X21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y21" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>400</v>
+      </c>
+      <c r="E22" s="3">
         <v>300</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>1300</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>800</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>400</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>1200</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>300</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>700</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>1000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>1300</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>1000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>1100</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>5200</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>1400</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>1500</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>900</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>400</v>
       </c>
-      <c r="T22" s="3">
-        <v>100</v>
-      </c>
       <c r="U22" s="3">
         <v>100</v>
       </c>
       <c r="V22" s="3">
+        <v>100</v>
+      </c>
+      <c r="W22" s="3">
         <v>300</v>
       </c>
-      <c r="W22" s="3">
-        <v>0</v>
-      </c>
       <c r="X22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E23" s="3">
         <v>1500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-2600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-2400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>14600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-11500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>9000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-10300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-9800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-1700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-3100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-8100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-2400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-2900</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-1200</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-8200</v>
       </c>
-      <c r="T23" s="3">
-        <v>100</v>
-      </c>
       <c r="U23" s="3">
+        <v>100</v>
+      </c>
+      <c r="V23" s="3">
         <v>-200</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-5700</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-1000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="E24" s="3">
         <v>0</v>
@@ -1734,11 +1779,11 @@
       <c r="F24" s="3">
         <v>0</v>
       </c>
-      <c r="G24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H24" s="3">
-        <v>0</v>
+      <c r="G24" s="3">
+        <v>0</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="I24" s="3">
         <v>0</v>
@@ -1759,10 +1804,10 @@
         <v>0</v>
       </c>
       <c r="O24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q24" s="3">
         <v>0</v>
@@ -1788,8 +1833,11 @@
       <c r="X24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1856,144 +1904,153 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E26" s="3">
         <v>1500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-2600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-2400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>14600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-11500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>9000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-10300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-9800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-1700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-3100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-8200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-2400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-2900</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-1200</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-8200</v>
       </c>
-      <c r="T26" s="3">
-        <v>100</v>
-      </c>
       <c r="U26" s="3">
+        <v>100</v>
+      </c>
+      <c r="V26" s="3">
         <v>-200</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-5700</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-1000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E27" s="3">
         <v>1500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-2600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-2400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>14600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-11600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>9000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-10300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-9800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-1700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-3100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-8200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-2400</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-2900</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-1200</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-8200</v>
       </c>
-      <c r="T27" s="3">
-        <v>100</v>
-      </c>
       <c r="U27" s="3">
+        <v>100</v>
+      </c>
+      <c r="V27" s="3">
         <v>-200</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-5700</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-1000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2060,8 +2117,11 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2092,14 +2152,14 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-      <c r="M29" s="3" t="s">
-        <v>5</v>
+      <c r="M29" s="3">
+        <v>0</v>
       </c>
       <c r="N29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O29" s="3">
-        <v>0</v>
+      <c r="O29" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="P29" s="3">
         <v>0</v>
@@ -2111,25 +2171,28 @@
         <v>0</v>
       </c>
       <c r="S29" s="3">
+        <v>0</v>
+      </c>
+      <c r="T29" s="3">
         <v>6800</v>
       </c>
-      <c r="T29" s="3">
+      <c r="U29" s="3">
         <v>-200</v>
       </c>
-      <c r="U29" s="3">
+      <c r="V29" s="3">
         <v>-100</v>
       </c>
-      <c r="V29" s="3">
+      <c r="W29" s="3">
         <v>7600</v>
       </c>
-      <c r="W29" s="3">
+      <c r="X29" s="3">
         <v>700</v>
       </c>
-      <c r="X29" s="3">
+      <c r="Y29" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2196,8 +2259,11 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2264,144 +2330,153 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="E32" s="3">
         <v>-1700</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>1300</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>1600</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-15400</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>22900</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>3300</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>9600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>7800</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-2000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-900</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>600</v>
       </c>
-      <c r="O32" s="3">
-        <v>0</v>
-      </c>
       <c r="P32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q32" s="3">
+        <v>100</v>
+      </c>
+      <c r="R32" s="3">
         <v>700</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-100</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>6300</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-100</v>
       </c>
-      <c r="U32" s="3">
-        <v>100</v>
-      </c>
       <c r="V32" s="3">
+        <v>100</v>
+      </c>
+      <c r="W32" s="3">
         <v>4800</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>200</v>
       </c>
-      <c r="X32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E33" s="3">
         <v>1500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-2600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-2400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>14600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-11600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>9000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-10300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-9800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-1700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-3100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-8200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-2400</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-2900</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-1200</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-1400</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-100</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-300</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>1900</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-300</v>
       </c>
-      <c r="X33" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y33" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2468,149 +2543,158 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E35" s="3">
         <v>1500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-2600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-2400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>14600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-11600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>9000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-10300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-9800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-1700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-3100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-8200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-2400</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-2900</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-1200</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-1400</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-100</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-300</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>1900</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-300</v>
       </c>
-      <c r="X35" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y35" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43465</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43373</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43281</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43190</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43100</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43008</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42916</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42825</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42735</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2635,8 +2719,9 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2661,25 +2746,26 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F41" s="3">
         <v>0</v>
       </c>
       <c r="G41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I41" s="3">
         <v>0</v>
@@ -2703,14 +2789,14 @@
         <v>0</v>
       </c>
       <c r="P41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q41" s="3">
+        <v>100</v>
+      </c>
+      <c r="R41" s="3">
         <v>300</v>
       </c>
-      <c r="R41" s="3">
-        <v>0</v>
-      </c>
       <c r="S41" s="3">
         <v>0</v>
       </c>
@@ -2721,16 +2807,19 @@
         <v>0</v>
       </c>
       <c r="V41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2738,17 +2827,17 @@
         <v>0</v>
       </c>
       <c r="E42" s="3">
+        <v>0</v>
+      </c>
+      <c r="F42" s="3">
         <v>1200</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>1000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>700</v>
       </c>
-      <c r="H42" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="I42" s="3" t="s">
         <v>5</v>
       </c>
@@ -2764,8 +2853,8 @@
       <c r="M42" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N42" s="3">
-        <v>0</v>
+      <c r="N42" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="O42" s="3">
         <v>0</v>
@@ -2797,8 +2886,11 @@
       <c r="X42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2806,7 +2898,7 @@
         <v>200</v>
       </c>
       <c r="E43" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="F43" s="3">
         <v>0</v>
@@ -2821,52 +2913,55 @@
         <v>0</v>
       </c>
       <c r="J43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K43" s="3">
         <v>100</v>
       </c>
       <c r="L43" s="3">
+        <v>100</v>
+      </c>
+      <c r="M43" s="3">
         <v>200</v>
-      </c>
-      <c r="M43" s="3">
-        <v>300</v>
       </c>
       <c r="N43" s="3">
         <v>300</v>
       </c>
       <c r="O43" s="3">
+        <v>300</v>
+      </c>
+      <c r="P43" s="3">
         <v>200</v>
       </c>
-      <c r="P43" s="3">
-        <v>100</v>
-      </c>
       <c r="Q43" s="3">
         <v>100</v>
       </c>
       <c r="R43" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="S43" s="3">
         <v>200</v>
       </c>
       <c r="T43" s="3">
+        <v>200</v>
+      </c>
+      <c r="U43" s="3">
         <v>1000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>600</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>300</v>
       </c>
-      <c r="W43" s="3">
-        <v>100</v>
-      </c>
       <c r="X43" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y43" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2933,8 +3028,11 @@
       <c r="X44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2942,52 +3040,52 @@
         <v>0</v>
       </c>
       <c r="E45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F45" s="3">
         <v>100</v>
       </c>
       <c r="G45" s="3">
+        <v>100</v>
+      </c>
+      <c r="H45" s="3">
         <v>200</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>500</v>
-      </c>
-      <c r="I45" s="3">
-        <v>200</v>
       </c>
       <c r="J45" s="3">
         <v>200</v>
       </c>
       <c r="K45" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="L45" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="M45" s="3">
         <v>200</v>
       </c>
       <c r="N45" s="3">
+        <v>200</v>
+      </c>
+      <c r="O45" s="3">
         <v>2000</v>
       </c>
-      <c r="O45" s="3">
-        <v>100</v>
-      </c>
       <c r="P45" s="3">
         <v>100</v>
       </c>
       <c r="Q45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S45" s="3">
         <v>100</v>
       </c>
       <c r="T45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U45" s="3">
         <v>0</v>
@@ -2996,13 +3094,16 @@
         <v>0</v>
       </c>
       <c r="W45" s="3">
+        <v>0</v>
+      </c>
+      <c r="X45" s="3">
         <v>200</v>
       </c>
-      <c r="X45" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y45" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3010,67 +3111,70 @@
         <v>300</v>
       </c>
       <c r="E46" s="3">
+        <v>300</v>
+      </c>
+      <c r="F46" s="3">
         <v>1300</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1200</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>900</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>500</v>
-      </c>
-      <c r="I46" s="3">
-        <v>200</v>
       </c>
       <c r="J46" s="3">
         <v>200</v>
       </c>
       <c r="K46" s="3">
+        <v>200</v>
+      </c>
+      <c r="L46" s="3">
         <v>300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>600</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>2400</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>400</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>300</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>500</v>
-      </c>
-      <c r="R46" s="3">
-        <v>300</v>
       </c>
       <c r="S46" s="3">
         <v>300</v>
       </c>
       <c r="T46" s="3">
+        <v>300</v>
+      </c>
+      <c r="U46" s="3">
         <v>1000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>600</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>400</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>300</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3128,17 +3232,20 @@
       <c r="U47" s="3">
         <v>0</v>
       </c>
-      <c r="V47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W47" s="3">
-        <v>100</v>
-      </c>
-      <c r="X47" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="V47" s="3">
+        <v>0</v>
+      </c>
+      <c r="W47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X47" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y47" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3146,7 +3253,7 @@
         <v>4700</v>
       </c>
       <c r="E48" s="3">
-        <v>2900</v>
+        <v>4700</v>
       </c>
       <c r="F48" s="3">
         <v>2900</v>
@@ -3155,28 +3262,28 @@
         <v>2900</v>
       </c>
       <c r="H48" s="3">
-        <v>2800</v>
+        <v>2900</v>
       </c>
       <c r="I48" s="3">
         <v>2800</v>
       </c>
       <c r="J48" s="3">
+        <v>2800</v>
+      </c>
+      <c r="K48" s="3">
         <v>2700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>3000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>20100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>20400</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>22900</v>
-      </c>
-      <c r="O48" s="3">
-        <v>8900</v>
       </c>
       <c r="P48" s="3">
         <v>8900</v>
@@ -3185,37 +3292,40 @@
         <v>8900</v>
       </c>
       <c r="R48" s="3">
+        <v>8900</v>
+      </c>
+      <c r="S48" s="3">
         <v>9000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>9200</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>12200</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>12000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>10800</v>
       </c>
-      <c r="W48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X48" s="3">
+      <c r="X48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y48" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E49" s="3">
         <v>1700</v>
       </c>
-      <c r="E49" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="F49" s="3" t="s">
         <v>5</v>
       </c>
@@ -3231,8 +3341,8 @@
       <c r="J49" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K49" s="3">
-        <v>0</v>
+      <c r="K49" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="L49" s="3">
         <v>0</v>
@@ -3255,11 +3365,11 @@
       <c r="R49" s="3">
         <v>0</v>
       </c>
-      <c r="S49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T49" s="3">
-        <v>1400</v>
+      <c r="S49" s="3">
+        <v>0</v>
+      </c>
+      <c r="T49" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="U49" s="3">
         <v>1400</v>
@@ -3267,14 +3377,17 @@
       <c r="V49" s="3">
         <v>1400</v>
       </c>
-      <c r="W49" s="3" t="s">
-        <v>5</v>
+      <c r="W49" s="3">
+        <v>1400</v>
       </c>
       <c r="X49" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y49" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3341,8 +3454,11 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3409,8 +3525,11 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3439,7 +3558,7 @@
         <v>0</v>
       </c>
       <c r="L52" s="3">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="M52" s="3">
         <v>3000</v>
@@ -3448,37 +3567,40 @@
         <v>3000</v>
       </c>
       <c r="O52" s="3">
+        <v>3000</v>
+      </c>
+      <c r="P52" s="3">
         <v>3300</v>
-      </c>
-      <c r="P52" s="3">
-        <v>3400</v>
       </c>
       <c r="Q52" s="3">
         <v>3400</v>
       </c>
       <c r="R52" s="3">
+        <v>3400</v>
+      </c>
+      <c r="S52" s="3">
         <v>2600</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>2800</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>1400</v>
-      </c>
-      <c r="U52" s="3">
-        <v>1300</v>
       </c>
       <c r="V52" s="3">
         <v>1300</v>
       </c>
       <c r="W52" s="3">
-        <v>100</v>
+        <v>1300</v>
       </c>
       <c r="X52" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y52" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3545,76 +3667,82 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>6600</v>
+      </c>
+      <c r="E54" s="3">
         <v>6700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>4200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>4100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>3800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>3300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>3000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>2900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>3200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>23500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>24000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>28300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>12700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>12600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>12800</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>11900</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>12300</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>16000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>15300</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>13900</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>500</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3639,8 +3767,9 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3665,16 +3794,17 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>400</v>
+      </c>
+      <c r="E57" s="3">
         <v>900</v>
-      </c>
-      <c r="E57" s="3">
-        <v>800</v>
       </c>
       <c r="F57" s="3">
         <v>800</v>
@@ -3689,31 +3819,31 @@
         <v>800</v>
       </c>
       <c r="J57" s="3">
+        <v>800</v>
+      </c>
+      <c r="K57" s="3">
         <v>900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>2200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1800</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1600</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1100</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>700</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>300</v>
-      </c>
-      <c r="R57" s="3">
-        <v>400</v>
       </c>
       <c r="S57" s="3">
         <v>400</v>
@@ -3725,220 +3855,232 @@
         <v>400</v>
       </c>
       <c r="V57" s="3">
+        <v>400</v>
+      </c>
+      <c r="W57" s="3">
         <v>500</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>400</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>11600</v>
+      </c>
+      <c r="E58" s="3">
         <v>11900</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>8200</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>7800</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>7400</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>7500</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>7300</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>8300</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>8100</v>
-      </c>
-      <c r="L58" s="3">
-        <v>7700</v>
       </c>
       <c r="M58" s="3">
         <v>7700</v>
       </c>
       <c r="N58" s="3">
+        <v>7700</v>
+      </c>
+      <c r="O58" s="3">
         <v>10400</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>7200</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>6100</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>4800</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>3500</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>2900</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>2000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>6000</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>5500</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>500</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E59" s="3">
         <v>3000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>5500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>5300</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>5600</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>20500</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>10200</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>19200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>9500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>4300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>5500</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>7200</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>5400</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>5600</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>5400</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>4000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>3500</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>600</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>500</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>600</v>
-      </c>
-      <c r="W59" s="3">
-        <v>2800</v>
       </c>
       <c r="X59" s="3">
         <v>2800</v>
       </c>
-    </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y59" s="3">
+        <v>2800</v>
+      </c>
+    </row>
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>13500</v>
+      </c>
+      <c r="E60" s="3">
         <v>15700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>14500</v>
-      </c>
-      <c r="F60" s="3">
-        <v>13900</v>
       </c>
       <c r="G60" s="3">
         <v>13900</v>
       </c>
       <c r="H60" s="3">
+        <v>13900</v>
+      </c>
+      <c r="I60" s="3">
         <v>28800</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>18300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>28400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>18600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>14200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>15000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>19200</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>13700</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>12400</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>10600</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>7900</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>6900</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>2900</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>6900</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>6600</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>3600</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>3400</v>
       </c>
     </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3946,7 +4088,7 @@
         <v>700</v>
       </c>
       <c r="E61" s="3">
-        <v>4600</v>
+        <v>700</v>
       </c>
       <c r="F61" s="3">
         <v>4600</v>
@@ -3955,66 +4097,69 @@
         <v>4600</v>
       </c>
       <c r="H61" s="3">
-        <v>4400</v>
+        <v>4600</v>
       </c>
       <c r="I61" s="3">
         <v>4400</v>
       </c>
       <c r="J61" s="3">
+        <v>4400</v>
+      </c>
+      <c r="K61" s="3">
         <v>4300</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>4700</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>4600</v>
-      </c>
-      <c r="M61" s="3">
-        <v>3900</v>
       </c>
       <c r="N61" s="3">
         <v>3900</v>
       </c>
       <c r="O61" s="3">
+        <v>3900</v>
+      </c>
+      <c r="P61" s="3">
         <v>6700</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>7000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>6900</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>7000</v>
-      </c>
-      <c r="S61" s="3">
-        <v>7200</v>
       </c>
       <c r="T61" s="3">
         <v>7200</v>
       </c>
       <c r="U61" s="3">
-        <v>3000</v>
+        <v>7200</v>
       </c>
       <c r="V61" s="3">
         <v>3000</v>
       </c>
       <c r="W61" s="3">
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="X61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
         <v>1800</v>
       </c>
-      <c r="E62" s="3" t="s">
-        <v>5</v>
+      <c r="E62" s="3">
+        <v>1800</v>
       </c>
       <c r="F62" s="3" t="s">
         <v>5</v>
@@ -4034,18 +4179,18 @@
       <c r="K62" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L62" s="3">
+      <c r="L62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M62" s="3">
         <v>14600</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>14800</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>15000</v>
       </c>
-      <c r="O62" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="P62" s="3" t="s">
         <v>5</v>
       </c>
@@ -4055,8 +4200,8 @@
       <c r="R62" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="S62" s="3">
-        <v>0</v>
+      <c r="S62" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="T62" s="3">
         <v>0</v>
@@ -4073,8 +4218,11 @@
       <c r="X62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4141,8 +4289,11 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4209,8 +4360,11 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4277,76 +4431,82 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>16800</v>
+      </c>
+      <c r="E66" s="3">
         <v>19100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>19800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>19200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>19100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>33900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>23400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>32600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>23200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>33400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>33700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>38200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>20400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>19400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>17500</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>14900</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>14000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>10100</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>9900</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>9600</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>3600</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>3500</v>
       </c>
     </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4371,8 +4531,9 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4439,8 +4600,11 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4507,8 +4671,11 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4531,7 +4698,7 @@
         <v>400</v>
       </c>
       <c r="J70" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="K70" s="3">
         <v>0</v>
@@ -4575,8 +4742,11 @@
       <c r="X70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4643,76 +4813,82 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-44100</v>
+      </c>
+      <c r="E72" s="3">
         <v>-46000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-47500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-44900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-42500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-57100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-46800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-55800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-45500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-35600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-35300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-33600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-30500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-28900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-26500</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-23600</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-22400</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-14800</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-14700</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-15500</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-21000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-20400</v>
       </c>
     </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4779,8 +4955,11 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4847,8 +5026,11 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4915,76 +5097,82 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-10700</v>
+      </c>
+      <c r="E76" s="3">
         <v>-12900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-16100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-15600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-15800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-31000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-20800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-29800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-20000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-10000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-9700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-9900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-7700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-6800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-4800</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-3000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-1800</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>5900</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>5400</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>4400</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>-3200</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>-2900</v>
       </c>
     </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5051,149 +5239,158 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43465</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43373</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43281</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43190</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43100</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43008</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42916</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42825</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42735</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E81" s="3">
         <v>1500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-2600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-2400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>14600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-11600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>9000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-10300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-9800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-1700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-3100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-8200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-2400</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-2900</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-1200</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-1400</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-100</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-300</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>1900</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-300</v>
       </c>
-      <c r="X81" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y81" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5218,8 +5415,9 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5227,7 +5425,7 @@
         <v>100</v>
       </c>
       <c r="E83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F83" s="3">
         <v>0</v>
@@ -5236,10 +5434,10 @@
         <v>0</v>
       </c>
       <c r="H83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J83" s="3">
         <v>0</v>
@@ -5251,17 +5449,17 @@
         <v>0</v>
       </c>
       <c r="M83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N83" s="3">
         <v>100</v>
       </c>
       <c r="O83" s="3">
+        <v>100</v>
+      </c>
+      <c r="P83" s="3">
         <v>300</v>
       </c>
-      <c r="P83" s="3">
-        <v>100</v>
-      </c>
       <c r="Q83" s="3">
         <v>100</v>
       </c>
@@ -5269,25 +5467,28 @@
         <v>100</v>
       </c>
       <c r="S83" s="3">
+        <v>100</v>
+      </c>
+      <c r="T83" s="3">
         <v>200</v>
       </c>
-      <c r="T83" s="3">
-        <v>100</v>
-      </c>
       <c r="U83" s="3">
         <v>100</v>
       </c>
       <c r="V83" s="3">
         <v>100</v>
       </c>
-      <c r="W83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X83" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="W83" s="3">
+        <v>100</v>
+      </c>
+      <c r="X83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5354,8 +5555,11 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5422,8 +5626,11 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5490,8 +5697,11 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5558,8 +5768,11 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5626,76 +5839,82 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E89" s="3">
         <v>500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-600</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-900</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-1100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-1500</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-800</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-400</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>200</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-4600</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-500</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-400</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-3100</v>
       </c>
-      <c r="W89" s="3">
-        <v>0</v>
-      </c>
       <c r="X89" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y89" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5720,13 +5939,14 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>5</v>
+      <c r="D91" s="3">
+        <v>-100</v>
       </c>
       <c r="E91" s="3" t="s">
         <v>5</v>
@@ -5746,12 +5966,12 @@
       <c r="J91" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K91" s="3">
+      <c r="K91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L91" s="3">
         <v>-100</v>
       </c>
-      <c r="L91" s="3">
-        <v>0</v>
-      </c>
       <c r="M91" s="3">
         <v>0</v>
       </c>
@@ -5759,37 +5979,40 @@
         <v>0</v>
       </c>
       <c r="O91" s="3">
+        <v>0</v>
+      </c>
+      <c r="P91" s="3">
         <v>-300</v>
       </c>
-      <c r="P91" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q91" s="3" t="s">
-        <v>5</v>
+      <c r="Q91" s="3">
+        <v>0</v>
       </c>
       <c r="R91" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="S91" s="3">
+      <c r="S91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T91" s="3">
         <v>-400</v>
       </c>
-      <c r="T91" s="3">
-        <v>0</v>
-      </c>
       <c r="U91" s="3">
         <v>0</v>
       </c>
       <c r="V91" s="3">
         <v>0</v>
       </c>
-      <c r="W91" s="3" t="s">
-        <v>5</v>
+      <c r="W91" s="3">
+        <v>0</v>
       </c>
       <c r="X91" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y91" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5856,8 +6079,11 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5924,26 +6150,29 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E94" s="3">
+        <v>0</v>
+      </c>
+      <c r="F94" s="3">
         <v>-200</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-300</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-700</v>
       </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
       <c r="I94" s="3">
         <v>0</v>
       </c>
@@ -5951,49 +6180,52 @@
         <v>0</v>
       </c>
       <c r="K94" s="3">
+        <v>0</v>
+      </c>
+      <c r="L94" s="3">
         <v>1200</v>
       </c>
-      <c r="L94" s="3">
-        <v>0</v>
-      </c>
       <c r="M94" s="3">
+        <v>0</v>
+      </c>
+      <c r="N94" s="3">
         <v>3300</v>
       </c>
-      <c r="N94" s="3">
-        <v>0</v>
-      </c>
       <c r="O94" s="3">
+        <v>0</v>
+      </c>
+      <c r="P94" s="3">
         <v>-1400</v>
       </c>
-      <c r="P94" s="3">
-        <v>0</v>
-      </c>
       <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+      <c r="R94" s="3">
         <v>-900</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-300</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>1400</v>
       </c>
-      <c r="T94" s="3">
-        <v>100</v>
-      </c>
       <c r="U94" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V94" s="3">
+        <v>0</v>
+      </c>
+      <c r="W94" s="3">
         <v>3300</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-100</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6018,8 +6250,9 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6086,8 +6319,11 @@
       <c r="X96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6154,8 +6390,11 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6222,8 +6461,11 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6290,144 +6532,153 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>200</v>
+      </c>
+      <c r="E100" s="3">
         <v>-300</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>400</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>300</v>
-      </c>
-      <c r="G100" s="3">
-        <v>400</v>
       </c>
       <c r="H100" s="3">
         <v>400</v>
       </c>
       <c r="I100" s="3">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="J100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
         <v>-1000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>500</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-2500</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>1000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>3400</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>500</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>1800</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>200</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>3300</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>200</v>
       </c>
-      <c r="U100" s="3">
-        <v>100</v>
-      </c>
       <c r="V100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W100" s="3">
+        <v>0</v>
+      </c>
+      <c r="X100" s="3">
         <v>200</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>0</v>
+      </c>
+      <c r="E101" s="3">
         <v>-100</v>
       </c>
-      <c r="E101" s="3">
-        <v>100</v>
-      </c>
       <c r="F101" s="3">
         <v>100</v>
       </c>
       <c r="G101" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H101" s="3">
         <v>0</v>
       </c>
       <c r="I101" s="3">
+        <v>0</v>
+      </c>
+      <c r="J101" s="3">
         <v>500</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-500</v>
       </c>
-      <c r="K101" s="3">
-        <v>100</v>
-      </c>
       <c r="L101" s="3">
+        <v>100</v>
+      </c>
+      <c r="M101" s="3">
         <v>-100</v>
       </c>
-      <c r="M101" s="3">
-        <v>100</v>
-      </c>
       <c r="N101" s="3">
         <v>100</v>
       </c>
       <c r="O101" s="3">
+        <v>100</v>
+      </c>
+      <c r="P101" s="3">
         <v>-400</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>200</v>
-      </c>
-      <c r="Q101" s="3">
-        <v>-100</v>
       </c>
       <c r="R101" s="3">
         <v>-100</v>
       </c>
       <c r="S101" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="T101" s="3">
+        <v>0</v>
+      </c>
+      <c r="U101" s="3">
         <v>300</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>200</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-200</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>-100</v>
       </c>
-      <c r="X101" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -6438,13 +6689,13 @@
         <v>0</v>
       </c>
       <c r="F102" s="3">
+        <v>0</v>
+      </c>
+      <c r="G102" s="3">
         <v>-100</v>
       </c>
-      <c r="G102" s="3">
-        <v>100</v>
-      </c>
       <c r="H102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I102" s="3">
         <v>0</v>
@@ -6468,14 +6719,14 @@
         <v>0</v>
       </c>
       <c r="P102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="3">
         <v>-300</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>300</v>
       </c>
-      <c r="R102" s="3">
-        <v>0</v>
-      </c>
       <c r="S102" s="3">
         <v>0</v>
       </c>
@@ -6483,15 +6734,18 @@
         <v>0</v>
       </c>
       <c r="U102" s="3">
+        <v>0</v>
+      </c>
+      <c r="V102" s="3">
         <v>-100</v>
       </c>
-      <c r="V102" s="3">
-        <v>100</v>
-      </c>
       <c r="W102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/GRST_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GRST_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="92">
   <si>
     <t>GRST</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Y102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,178 +665,192 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43555</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43465</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43373</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43281</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43190</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43100</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43008</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>42916</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>42825</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>42735</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="AA7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E8" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F8" s="3">
         <v>900</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>900</v>
       </c>
-      <c r="F8" s="3">
-        <v>100</v>
-      </c>
-      <c r="G8" s="3">
-        <v>100</v>
-      </c>
       <c r="H8" s="3">
         <v>100</v>
       </c>
       <c r="I8" s="3">
+        <v>100</v>
+      </c>
+      <c r="J8" s="3">
+        <v>100</v>
+      </c>
+      <c r="K8" s="3">
         <v>300</v>
       </c>
-      <c r="J8" s="3">
-        <v>100</v>
-      </c>
-      <c r="K8" s="3">
-        <v>100</v>
-      </c>
       <c r="L8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M8" s="3">
         <v>100</v>
       </c>
       <c r="N8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O8" s="3">
         <v>100</v>
       </c>
       <c r="P8" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q8" s="3">
+        <v>100</v>
+      </c>
+      <c r="R8" s="3">
         <v>400</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>300</v>
       </c>
-      <c r="R8" s="3">
-        <v>100</v>
-      </c>
-      <c r="S8" s="3">
-        <v>100</v>
-      </c>
       <c r="T8" s="3">
+        <v>100</v>
+      </c>
+      <c r="U8" s="3">
+        <v>100</v>
+      </c>
+      <c r="V8" s="3">
         <v>900</v>
       </c>
-      <c r="U8" s="3">
+      <c r="W8" s="3">
         <v>600</v>
       </c>
-      <c r="V8" s="3">
+      <c r="X8" s="3">
         <v>400</v>
       </c>
-      <c r="W8" s="3">
+      <c r="Y8" s="3">
         <v>300</v>
       </c>
-      <c r="X8" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y8" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z8" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -906,8 +920,14 @@
       <c r="Y9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -977,8 +997,14 @@
       <c r="Y10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1004,8 +1030,10 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="3"/>
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1075,8 +1103,14 @@
       <c r="Y12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1146,49 +1180,55 @@
       <c r="Y13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
         <v>-200</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3">
-        <v>100</v>
-      </c>
       <c r="G14" s="3">
         <v>0</v>
       </c>
       <c r="H14" s="3">
+        <v>100</v>
+      </c>
+      <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
         <v>400</v>
       </c>
-      <c r="I14" s="3">
+      <c r="K14" s="3">
         <v>-12700</v>
       </c>
-      <c r="J14" s="3">
+      <c r="L14" s="3">
         <v>-12700</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
         <v>900</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
-      <c r="N14" s="3">
-        <v>100</v>
-      </c>
-      <c r="O14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P14" s="3" t="s">
-        <v>5</v>
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
+        <v>100</v>
       </c>
       <c r="Q14" s="3" t="s">
         <v>5</v>
@@ -1199,11 +1239,11 @@
       <c r="S14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="T14" s="3">
-        <v>0</v>
-      </c>
-      <c r="U14" s="3">
-        <v>0</v>
+      <c r="T14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U14" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="V14" s="3">
         <v>0</v>
@@ -1217,8 +1257,14 @@
       <c r="Y14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1229,22 +1275,22 @@
         <v>100</v>
       </c>
       <c r="F15" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G15" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H15" s="3">
         <v>0</v>
       </c>
       <c r="I15" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J15" s="3">
         <v>0</v>
       </c>
       <c r="K15" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L15" s="3">
         <v>0</v>
@@ -1253,43 +1299,49 @@
         <v>0</v>
       </c>
       <c r="N15" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O15" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P15" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q15" s="3">
+        <v>100</v>
+      </c>
+      <c r="R15" s="3">
         <v>300</v>
       </c>
-      <c r="Q15" s="3">
-        <v>100</v>
-      </c>
-      <c r="R15" s="3">
-        <v>100</v>
-      </c>
       <c r="S15" s="3">
         <v>100</v>
       </c>
       <c r="T15" s="3">
+        <v>100</v>
+      </c>
+      <c r="U15" s="3">
+        <v>100</v>
+      </c>
+      <c r="V15" s="3">
         <v>200</v>
       </c>
-      <c r="U15" s="3">
-        <v>100</v>
-      </c>
-      <c r="V15" s="3">
-        <v>100</v>
-      </c>
       <c r="W15" s="3">
-        <v>0</v>
-      </c>
-      <c r="X15" s="3" t="s">
-        <v>5</v>
+        <v>100</v>
+      </c>
+      <c r="X15" s="3">
+        <v>100</v>
       </c>
       <c r="Y15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1312,150 +1364,164 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="3"/>
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E17" s="3">
+        <v>900</v>
+      </c>
+      <c r="F17" s="3">
         <v>1000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>200</v>
       </c>
-      <c r="G17" s="3">
-        <v>100</v>
-      </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
+        <v>100</v>
+      </c>
+      <c r="J17" s="3">
         <v>500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>-12300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>-12600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>1100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>1200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>1600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>1500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>3300</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>1200</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>800</v>
-      </c>
-      <c r="S17" s="3">
-        <v>500</v>
-      </c>
-      <c r="T17" s="3">
-        <v>2400</v>
       </c>
       <c r="U17" s="3">
         <v>500</v>
       </c>
       <c r="V17" s="3">
+        <v>2400</v>
+      </c>
+      <c r="W17" s="3">
+        <v>500</v>
+      </c>
+      <c r="X17" s="3">
         <v>400</v>
       </c>
-      <c r="W17" s="3">
+      <c r="Y17" s="3">
         <v>900</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Z17" s="3">
         <v>800</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="AA17" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="E18" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F18" s="3">
         <v>-100</v>
       </c>
       <c r="G18" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="H18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I18" s="3">
+        <v>0</v>
+      </c>
+      <c r="J18" s="3">
         <v>-400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>12600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>12700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-1100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-1100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-1500</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-1400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>-2900</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>-900</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>-700</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>-400</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>-1500</v>
       </c>
-      <c r="U18" s="3">
-        <v>100</v>
-      </c>
-      <c r="V18" s="3">
-        <v>0</v>
-      </c>
       <c r="W18" s="3">
+        <v>100</v>
+      </c>
+      <c r="X18" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y18" s="3">
         <v>-600</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Z18" s="3">
         <v>-800</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="AA18" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1481,315 +1547,341 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="3"/>
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>200</v>
+      </c>
+      <c r="E20" s="3">
+        <v>100</v>
+      </c>
+      <c r="F20" s="3">
         <v>2100</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>1700</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>-1300</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>-1600</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>15400</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>-22900</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>-3300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>-9600</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>-7800</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>2000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>900</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>-600</v>
       </c>
-      <c r="P20" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
+        <v>0</v>
+      </c>
+      <c r="S20" s="3">
         <v>-100</v>
       </c>
-      <c r="R20" s="3">
+      <c r="T20" s="3">
         <v>-700</v>
       </c>
-      <c r="S20" s="3">
-        <v>100</v>
-      </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
+        <v>100</v>
+      </c>
+      <c r="V20" s="3">
         <v>-6300</v>
       </c>
-      <c r="U20" s="3">
-        <v>100</v>
-      </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
+        <v>100</v>
+      </c>
+      <c r="X20" s="3">
         <v>-100</v>
       </c>
-      <c r="W20" s="3">
+      <c r="Y20" s="3">
         <v>-4800</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Z20" s="3">
         <v>-200</v>
       </c>
-      <c r="Y20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="AA20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>300</v>
+      </c>
+      <c r="E21" s="3">
+        <v>300</v>
+      </c>
+      <c r="F21" s="3">
         <v>2200</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>2000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>-1300</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>-1600</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>15000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>-10200</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>9400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-9600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>-8800</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>1000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>-600</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>-1900</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>-2600</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>-900</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>-1300</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>-200</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>-7600</v>
       </c>
-      <c r="U21" s="3">
+      <c r="W21" s="3">
         <v>200</v>
       </c>
-      <c r="V21" s="3">
-        <v>0</v>
-      </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y21" s="3">
         <v>-5400</v>
       </c>
-      <c r="X21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA21" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="E22" s="3">
         <v>300</v>
       </c>
       <c r="F22" s="3">
+        <v>400</v>
+      </c>
+      <c r="G22" s="3">
+        <v>300</v>
+      </c>
+      <c r="H22" s="3">
         <v>1300</v>
       </c>
-      <c r="G22" s="3">
+      <c r="I22" s="3">
         <v>800</v>
       </c>
-      <c r="H22" s="3">
+      <c r="J22" s="3">
         <v>400</v>
       </c>
-      <c r="I22" s="3">
+      <c r="K22" s="3">
         <v>1200</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>300</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>700</v>
-      </c>
-      <c r="L22" s="3">
-        <v>1000</v>
-      </c>
-      <c r="M22" s="3">
-        <v>1300</v>
       </c>
       <c r="N22" s="3">
         <v>1000</v>
       </c>
       <c r="O22" s="3">
+        <v>1300</v>
+      </c>
+      <c r="P22" s="3">
+        <v>1000</v>
+      </c>
+      <c r="Q22" s="3">
         <v>1100</v>
       </c>
-      <c r="P22" s="3">
+      <c r="R22" s="3">
         <v>5200</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="S22" s="3">
         <v>1400</v>
       </c>
-      <c r="R22" s="3">
+      <c r="T22" s="3">
         <v>1500</v>
       </c>
-      <c r="S22" s="3">
+      <c r="U22" s="3">
         <v>900</v>
       </c>
-      <c r="T22" s="3">
+      <c r="V22" s="3">
         <v>400</v>
       </c>
-      <c r="U22" s="3">
-        <v>100</v>
-      </c>
-      <c r="V22" s="3">
-        <v>100</v>
-      </c>
       <c r="W22" s="3">
+        <v>100</v>
+      </c>
+      <c r="X22" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y22" s="3">
         <v>300</v>
       </c>
-      <c r="X22" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y22" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F23" s="3">
         <v>1600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>1500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-2600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-2400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>14600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-11500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>9000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-10300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-9800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-1700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-3100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-8100</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>-2400</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>-2900</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>-1200</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>-8200</v>
       </c>
-      <c r="U23" s="3">
-        <v>100</v>
-      </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
+        <v>100</v>
+      </c>
+      <c r="X23" s="3">
         <v>-200</v>
       </c>
-      <c r="W23" s="3">
+      <c r="Y23" s="3">
         <v>-5700</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Z23" s="3">
         <v>-1000</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="AA23" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>0</v>
+      </c>
+      <c r="E24" s="3">
+        <v>0</v>
+      </c>
+      <c r="F24" s="3">
         <v>-300</v>
       </c>
-      <c r="E24" s="3">
-        <v>0</v>
-      </c>
-      <c r="F24" s="3">
-        <v>0</v>
-      </c>
       <c r="G24" s="3">
         <v>0</v>
       </c>
-      <c r="H24" s="3" t="s">
-        <v>5</v>
+      <c r="H24" s="3">
+        <v>0</v>
       </c>
       <c r="I24" s="3">
         <v>0</v>
       </c>
-      <c r="J24" s="3">
-        <v>0</v>
+      <c r="J24" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="K24" s="3">
         <v>0</v>
@@ -1807,13 +1899,13 @@
         <v>0</v>
       </c>
       <c r="P24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q24" s="3">
         <v>0</v>
       </c>
       <c r="R24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S24" s="3">
         <v>0</v>
@@ -1836,8 +1928,14 @@
       <c r="Y24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1907,150 +2005,168 @@
       <c r="Y25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F26" s="3">
         <v>1900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>1500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-2600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-2400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>14600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-11500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>9000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-10300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-9800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-1700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-3100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-8200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>-2400</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>-2900</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>-1200</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>-8200</v>
       </c>
-      <c r="U26" s="3">
-        <v>100</v>
-      </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
+        <v>100</v>
+      </c>
+      <c r="X26" s="3">
         <v>-200</v>
       </c>
-      <c r="W26" s="3">
+      <c r="Y26" s="3">
         <v>-5700</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Z26" s="3">
         <v>-1000</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="AA26" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F27" s="3">
         <v>1900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>1500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-2600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-2400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>14600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-11600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>9000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-10300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-9800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-1700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-3100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-8200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>-2400</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>-2900</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>-1200</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>-8200</v>
       </c>
-      <c r="U27" s="3">
-        <v>100</v>
-      </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
+        <v>100</v>
+      </c>
+      <c r="X27" s="3">
         <v>-200</v>
       </c>
-      <c r="W27" s="3">
+      <c r="Y27" s="3">
         <v>-5700</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Z27" s="3">
         <v>-1000</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="AA27" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2120,8 +2236,14 @@
       <c r="Y28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2155,17 +2277,17 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-      <c r="N29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P29" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q29" s="3">
-        <v>0</v>
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q29" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="R29" s="3">
         <v>0</v>
@@ -2174,25 +2296,31 @@
         <v>0</v>
       </c>
       <c r="T29" s="3">
+        <v>0</v>
+      </c>
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+      <c r="V29" s="3">
         <v>6800</v>
       </c>
-      <c r="U29" s="3">
+      <c r="W29" s="3">
         <v>-200</v>
       </c>
-      <c r="V29" s="3">
+      <c r="X29" s="3">
         <v>-100</v>
       </c>
-      <c r="W29" s="3">
+      <c r="Y29" s="3">
         <v>7600</v>
       </c>
-      <c r="X29" s="3">
+      <c r="Z29" s="3">
         <v>700</v>
       </c>
-      <c r="Y29" s="3">
+      <c r="AA29" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2262,8 +2390,14 @@
       <c r="Y30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2333,150 +2467,168 @@
       <c r="Y31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F32" s="3">
         <v>-2100</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>-1700</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>1300</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>1600</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>-15400</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>22900</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>3300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>9600</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>7800</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>-2000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>-900</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>600</v>
       </c>
-      <c r="P32" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q32" s="3">
-        <v>100</v>
-      </c>
       <c r="R32" s="3">
+        <v>0</v>
+      </c>
+      <c r="S32" s="3">
+        <v>100</v>
+      </c>
+      <c r="T32" s="3">
         <v>700</v>
-      </c>
-      <c r="S32" s="3">
-        <v>-100</v>
-      </c>
-      <c r="T32" s="3">
-        <v>6300</v>
       </c>
       <c r="U32" s="3">
         <v>-100</v>
       </c>
       <c r="V32" s="3">
-        <v>100</v>
+        <v>6300</v>
       </c>
       <c r="W32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="X32" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y32" s="3">
         <v>4800</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Z32" s="3">
         <v>200</v>
       </c>
-      <c r="Y32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="AA32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F33" s="3">
         <v>1900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>1500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-2600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-2400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>14600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-11600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>9000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-10300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-9800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-1700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-3100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-8200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>-2400</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>-2900</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>-1200</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>-1400</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>-100</v>
-      </c>
-      <c r="V33" s="3">
-        <v>-300</v>
-      </c>
-      <c r="W33" s="3">
-        <v>1900</v>
       </c>
       <c r="X33" s="3">
         <v>-300</v>
       </c>
       <c r="Y33" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
+        <v>1900</v>
+      </c>
+      <c r="Z33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="AA33" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2546,155 +2698,173 @@
       <c r="Y34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F35" s="3">
         <v>1900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>1500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-2600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-2400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>14600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-11600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>9000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-10300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-9800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-1700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-3100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-8200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>-2400</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>-2900</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>-1200</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>-1400</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>-100</v>
-      </c>
-      <c r="V35" s="3">
-        <v>-300</v>
-      </c>
-      <c r="W35" s="3">
-        <v>1900</v>
       </c>
       <c r="X35" s="3">
         <v>-300</v>
       </c>
       <c r="Y35" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
+        <v>1900</v>
+      </c>
+      <c r="Z35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="AA35" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43555</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43465</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43373</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43281</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43190</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43100</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43008</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>42916</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>42825</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>42735</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="AA38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2720,8 +2890,10 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z39" s="3"/>
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2747,31 +2919,33 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z40" s="3"/>
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F41" s="3">
         <v>0</v>
       </c>
       <c r="G41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I41" s="3">
         <v>0</v>
       </c>
       <c r="J41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K41" s="3">
         <v>0</v>
@@ -2792,17 +2966,17 @@
         <v>0</v>
       </c>
       <c r="Q41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R41" s="3">
+        <v>0</v>
+      </c>
+      <c r="S41" s="3">
+        <v>100</v>
+      </c>
+      <c r="T41" s="3">
         <v>300</v>
       </c>
-      <c r="S41" s="3">
-        <v>0</v>
-      </c>
-      <c r="T41" s="3">
-        <v>0</v>
-      </c>
       <c r="U41" s="3">
         <v>0</v>
       </c>
@@ -2810,40 +2984,46 @@
         <v>0</v>
       </c>
       <c r="W41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="X41" s="3">
         <v>0</v>
       </c>
       <c r="Y41" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="Z41" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D42" s="3">
-        <v>0</v>
-      </c>
-      <c r="E42" s="3">
-        <v>0</v>
+      <c r="D42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="F42" s="3">
+        <v>0</v>
+      </c>
+      <c r="G42" s="3">
+        <v>0</v>
+      </c>
+      <c r="H42" s="3">
         <v>1200</v>
       </c>
-      <c r="G42" s="3">
+      <c r="I42" s="3">
         <v>1000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="J42" s="3">
         <v>700</v>
       </c>
-      <c r="I42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J42" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="K42" s="3" t="s">
         <v>5</v>
       </c>
@@ -2856,11 +3036,11 @@
       <c r="N42" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O42" s="3">
-        <v>0</v>
-      </c>
-      <c r="P42" s="3">
-        <v>0</v>
+      <c r="O42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P42" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="Q42" s="3">
         <v>0</v>
@@ -2889,23 +3069,29 @@
       <c r="Y42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z42" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>300</v>
+      </c>
+      <c r="E43" s="3">
+        <v>300</v>
+      </c>
+      <c r="F43" s="3">
         <v>200</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>200</v>
       </c>
-      <c r="F43" s="3">
-        <v>0</v>
-      </c>
-      <c r="G43" s="3">
-        <v>0</v>
-      </c>
       <c r="H43" s="3">
         <v>0</v>
       </c>
@@ -2916,52 +3102,58 @@
         <v>0</v>
       </c>
       <c r="K43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M43" s="3">
+        <v>100</v>
+      </c>
+      <c r="N43" s="3">
+        <v>100</v>
+      </c>
+      <c r="O43" s="3">
         <v>200</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>300</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>300</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>200</v>
       </c>
-      <c r="Q43" s="3">
-        <v>100</v>
-      </c>
-      <c r="R43" s="3">
-        <v>100</v>
-      </c>
       <c r="S43" s="3">
+        <v>100</v>
+      </c>
+      <c r="T43" s="3">
+        <v>100</v>
+      </c>
+      <c r="U43" s="3">
         <v>200</v>
       </c>
-      <c r="T43" s="3">
+      <c r="V43" s="3">
         <v>200</v>
       </c>
-      <c r="U43" s="3">
+      <c r="W43" s="3">
         <v>1000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="X43" s="3">
         <v>600</v>
       </c>
-      <c r="W43" s="3">
+      <c r="Y43" s="3">
         <v>300</v>
       </c>
-      <c r="X43" s="3">
-        <v>100</v>
-      </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
+        <v>100</v>
+      </c>
+      <c r="AA43" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3031,150 +3223,168 @@
       <c r="Y44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z44" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E45" s="3">
         <v>0</v>
       </c>
       <c r="F45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H45" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="I45" s="3">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="J45" s="3">
         <v>200</v>
       </c>
       <c r="K45" s="3">
+        <v>500</v>
+      </c>
+      <c r="L45" s="3">
         <v>200</v>
-      </c>
-      <c r="L45" s="3">
-        <v>100</v>
       </c>
       <c r="M45" s="3">
         <v>200</v>
       </c>
       <c r="N45" s="3">
+        <v>100</v>
+      </c>
+      <c r="O45" s="3">
         <v>200</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q45" s="3">
         <v>2000</v>
       </c>
-      <c r="P45" s="3">
-        <v>100</v>
-      </c>
-      <c r="Q45" s="3">
-        <v>100</v>
-      </c>
       <c r="R45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S45" s="3">
         <v>100</v>
       </c>
       <c r="T45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W45" s="3">
         <v>0</v>
       </c>
       <c r="X45" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y45" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z45" s="3">
         <v>200</v>
       </c>
-      <c r="Y45" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="AA45" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>500</v>
+      </c>
+      <c r="E46" s="3">
+        <v>400</v>
+      </c>
+      <c r="F46" s="3">
         <v>300</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>300</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>1300</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>1200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>900</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>500</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>300</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>600</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>2400</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>400</v>
-      </c>
-      <c r="Q46" s="3">
-        <v>300</v>
-      </c>
-      <c r="R46" s="3">
-        <v>500</v>
       </c>
       <c r="S46" s="3">
         <v>300</v>
       </c>
       <c r="T46" s="3">
+        <v>500</v>
+      </c>
+      <c r="U46" s="3">
         <v>300</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
+        <v>300</v>
+      </c>
+      <c r="W46" s="3">
         <v>1000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="X46" s="3">
         <v>600</v>
-      </c>
-      <c r="W46" s="3">
-        <v>400</v>
-      </c>
-      <c r="X46" s="3">
-        <v>300</v>
       </c>
       <c r="Y46" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z46" s="3">
+        <v>300</v>
+      </c>
+      <c r="AA46" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3235,103 +3445,115 @@
       <c r="V47" s="3">
         <v>0</v>
       </c>
-      <c r="W47" s="3" t="s">
-        <v>5</v>
+      <c r="W47" s="3">
+        <v>0</v>
       </c>
       <c r="X47" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Y47" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z47" s="3">
+        <v>100</v>
+      </c>
+      <c r="AA47" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>4700</v>
+        <v>4600</v>
       </c>
       <c r="E48" s="3">
         <v>4700</v>
       </c>
       <c r="F48" s="3">
-        <v>2900</v>
+        <v>4700</v>
       </c>
       <c r="G48" s="3">
-        <v>2900</v>
+        <v>4700</v>
       </c>
       <c r="H48" s="3">
         <v>2900</v>
       </c>
       <c r="I48" s="3">
+        <v>2900</v>
+      </c>
+      <c r="J48" s="3">
+        <v>2900</v>
+      </c>
+      <c r="K48" s="3">
         <v>2800</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>2800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>2700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>3000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>20100</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>20400</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>22900</v>
-      </c>
-      <c r="P48" s="3">
-        <v>8900</v>
-      </c>
-      <c r="Q48" s="3">
-        <v>8900</v>
       </c>
       <c r="R48" s="3">
         <v>8900</v>
       </c>
       <c r="S48" s="3">
+        <v>8900</v>
+      </c>
+      <c r="T48" s="3">
+        <v>8900</v>
+      </c>
+      <c r="U48" s="3">
         <v>9000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="V48" s="3">
         <v>9200</v>
       </c>
-      <c r="U48" s="3">
+      <c r="W48" s="3">
         <v>12200</v>
       </c>
-      <c r="V48" s="3">
+      <c r="X48" s="3">
         <v>12000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="Y48" s="3">
         <v>10800</v>
       </c>
-      <c r="X48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA48" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E49" s="3">
+        <v>1500</v>
+      </c>
+      <c r="F49" s="3">
         <v>1600</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>1700</v>
       </c>
-      <c r="F49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G49" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="H49" s="3" t="s">
         <v>5</v>
       </c>
@@ -3344,11 +3566,11 @@
       <c r="K49" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L49" s="3">
-        <v>0</v>
-      </c>
-      <c r="M49" s="3">
-        <v>0</v>
+      <c r="L49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M49" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="N49" s="3">
         <v>0</v>
@@ -3368,26 +3590,32 @@
       <c r="S49" s="3">
         <v>0</v>
       </c>
-      <c r="T49" s="3" t="s">
-        <v>5</v>
+      <c r="T49" s="3">
+        <v>0</v>
       </c>
       <c r="U49" s="3">
-        <v>1400</v>
-      </c>
-      <c r="V49" s="3">
-        <v>1400</v>
+        <v>0</v>
+      </c>
+      <c r="V49" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="W49" s="3">
         <v>1400</v>
       </c>
-      <c r="X49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y49" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="X49" s="3">
+        <v>1400</v>
+      </c>
+      <c r="Y49" s="3">
+        <v>1400</v>
+      </c>
+      <c r="Z49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA49" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3457,8 +3685,14 @@
       <c r="Y50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3528,8 +3762,14 @@
       <c r="Y51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3561,46 +3801,52 @@
         <v>0</v>
       </c>
       <c r="M52" s="3">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="N52" s="3">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="O52" s="3">
         <v>3000</v>
       </c>
       <c r="P52" s="3">
+        <v>3000</v>
+      </c>
+      <c r="Q52" s="3">
+        <v>3000</v>
+      </c>
+      <c r="R52" s="3">
         <v>3300</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="S52" s="3">
         <v>3400</v>
       </c>
-      <c r="R52" s="3">
+      <c r="T52" s="3">
         <v>3400</v>
       </c>
-      <c r="S52" s="3">
+      <c r="U52" s="3">
         <v>2600</v>
       </c>
-      <c r="T52" s="3">
+      <c r="V52" s="3">
         <v>2800</v>
       </c>
-      <c r="U52" s="3">
+      <c r="W52" s="3">
         <v>1400</v>
       </c>
-      <c r="V52" s="3">
+      <c r="X52" s="3">
         <v>1300</v>
       </c>
-      <c r="W52" s="3">
+      <c r="Y52" s="3">
         <v>1300</v>
       </c>
-      <c r="X52" s="3">
-        <v>100</v>
-      </c>
-      <c r="Y52" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z52" s="3">
+        <v>100</v>
+      </c>
+      <c r="AA52" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3670,79 +3916,91 @@
       <c r="Y53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>6500</v>
+      </c>
+      <c r="E54" s="3">
         <v>6600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
+        <v>6600</v>
+      </c>
+      <c r="G54" s="3">
         <v>6700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>4200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>4100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>3800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>3300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>3000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>2900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>3200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>23500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>24000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>28300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>12700</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>12600</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>12800</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>11900</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>12300</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>16000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>15300</v>
       </c>
-      <c r="W54" s="3">
+      <c r="Y54" s="3">
         <v>13900</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Z54" s="3">
         <v>500</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="AA54" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3768,8 +4026,10 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-    </row>
-    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z55" s="3"/>
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3795,8 +4055,10 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-    </row>
-    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z56" s="3"/>
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3804,13 +4066,13 @@
         <v>400</v>
       </c>
       <c r="E57" s="3">
+        <v>400</v>
+      </c>
+      <c r="F57" s="3">
+        <v>400</v>
+      </c>
+      <c r="G57" s="3">
         <v>900</v>
-      </c>
-      <c r="F57" s="3">
-        <v>800</v>
-      </c>
-      <c r="G57" s="3">
-        <v>800</v>
       </c>
       <c r="H57" s="3">
         <v>800</v>
@@ -3822,34 +4084,34 @@
         <v>800</v>
       </c>
       <c r="K57" s="3">
+        <v>800</v>
+      </c>
+      <c r="L57" s="3">
+        <v>800</v>
+      </c>
+      <c r="M57" s="3">
         <v>900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>1000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>2200</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>1800</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>1600</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>1100</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>700</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>300</v>
-      </c>
-      <c r="S57" s="3">
-        <v>400</v>
-      </c>
-      <c r="T57" s="3">
-        <v>400</v>
       </c>
       <c r="U57" s="3">
         <v>400</v>
@@ -3858,229 +4120,253 @@
         <v>400</v>
       </c>
       <c r="W57" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="X57" s="3">
         <v>400</v>
       </c>
       <c r="Y57" s="3">
+        <v>500</v>
+      </c>
+      <c r="Z57" s="3">
+        <v>400</v>
+      </c>
+      <c r="AA57" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>11600</v>
+        <v>11900</v>
       </c>
       <c r="E58" s="3">
         <v>11900</v>
       </c>
       <c r="F58" s="3">
+        <v>11600</v>
+      </c>
+      <c r="G58" s="3">
+        <v>11900</v>
+      </c>
+      <c r="H58" s="3">
         <v>8200</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>7800</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>7400</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>7500</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>7300</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>8300</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>8100</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>7700</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>7700</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>10400</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>7200</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="S58" s="3">
         <v>6100</v>
       </c>
-      <c r="R58" s="3">
+      <c r="T58" s="3">
         <v>4800</v>
       </c>
-      <c r="S58" s="3">
+      <c r="U58" s="3">
         <v>3500</v>
       </c>
-      <c r="T58" s="3">
+      <c r="V58" s="3">
         <v>2900</v>
       </c>
-      <c r="U58" s="3">
+      <c r="W58" s="3">
         <v>2000</v>
       </c>
-      <c r="V58" s="3">
+      <c r="X58" s="3">
         <v>6000</v>
       </c>
-      <c r="W58" s="3">
+      <c r="Y58" s="3">
         <v>5500</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Z58" s="3">
         <v>500</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="AA58" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E59" s="3">
+        <v>1400</v>
+      </c>
+      <c r="F59" s="3">
         <v>1500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>3000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>5500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>5300</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>5600</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>20500</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>10200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>19200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>9500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>4300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>5500</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>7200</v>
-      </c>
-      <c r="P59" s="3">
-        <v>5400</v>
-      </c>
-      <c r="Q59" s="3">
-        <v>5600</v>
       </c>
       <c r="R59" s="3">
         <v>5400</v>
       </c>
       <c r="S59" s="3">
+        <v>5600</v>
+      </c>
+      <c r="T59" s="3">
+        <v>5400</v>
+      </c>
+      <c r="U59" s="3">
         <v>4000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>3500</v>
-      </c>
-      <c r="U59" s="3">
-        <v>600</v>
-      </c>
-      <c r="V59" s="3">
-        <v>500</v>
       </c>
       <c r="W59" s="3">
         <v>600</v>
       </c>
       <c r="X59" s="3">
+        <v>500</v>
+      </c>
+      <c r="Y59" s="3">
+        <v>600</v>
+      </c>
+      <c r="Z59" s="3">
         <v>2800</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="AA59" s="3">
         <v>2800</v>
       </c>
     </row>
-    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>14000</v>
+      </c>
+      <c r="E60" s="3">
+        <v>13700</v>
+      </c>
+      <c r="F60" s="3">
         <v>13500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>15700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>14500</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>13900</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>13900</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>28800</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>18300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>28400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>18600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>14200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>15000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>19200</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>13700</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>12400</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>10600</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>7900</v>
-      </c>
-      <c r="T60" s="3">
-        <v>6900</v>
-      </c>
-      <c r="U60" s="3">
-        <v>2900</v>
       </c>
       <c r="V60" s="3">
         <v>6900</v>
       </c>
       <c r="W60" s="3">
+        <v>2900</v>
+      </c>
+      <c r="X60" s="3">
+        <v>6900</v>
+      </c>
+      <c r="Y60" s="3">
         <v>6600</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Z60" s="3">
         <v>3600</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="AA60" s="3">
         <v>3400</v>
       </c>
     </row>
-    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4091,82 +4377,88 @@
         <v>700</v>
       </c>
       <c r="F61" s="3">
-        <v>4600</v>
+        <v>700</v>
       </c>
       <c r="G61" s="3">
-        <v>4600</v>
+        <v>700</v>
       </c>
       <c r="H61" s="3">
         <v>4600</v>
       </c>
       <c r="I61" s="3">
+        <v>4600</v>
+      </c>
+      <c r="J61" s="3">
+        <v>4600</v>
+      </c>
+      <c r="K61" s="3">
         <v>4400</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>4400</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>4300</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>4700</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>4600</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>3900</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>3900</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>6700</v>
-      </c>
-      <c r="Q61" s="3">
-        <v>7000</v>
-      </c>
-      <c r="R61" s="3">
-        <v>6900</v>
       </c>
       <c r="S61" s="3">
         <v>7000</v>
       </c>
       <c r="T61" s="3">
+        <v>6900</v>
+      </c>
+      <c r="U61" s="3">
+        <v>7000</v>
+      </c>
+      <c r="V61" s="3">
         <v>7200</v>
       </c>
-      <c r="U61" s="3">
+      <c r="W61" s="3">
         <v>7200</v>
       </c>
-      <c r="V61" s="3">
+      <c r="X61" s="3">
         <v>3000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="Y61" s="3">
         <v>3000</v>
       </c>
-      <c r="X61" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y61" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z61" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E62" s="3">
+        <v>1700</v>
+      </c>
+      <c r="F62" s="3">
         <v>1800</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>1800</v>
       </c>
-      <c r="F62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G62" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="H62" s="3" t="s">
         <v>5</v>
       </c>
@@ -4182,32 +4474,32 @@
       <c r="L62" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M62" s="3">
+      <c r="M62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O62" s="3">
         <v>14600</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>14800</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>15000</v>
       </c>
-      <c r="P62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q62" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="R62" s="3" t="s">
         <v>5</v>
       </c>
       <c r="S62" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="T62" s="3">
-        <v>0</v>
-      </c>
-      <c r="U62" s="3">
-        <v>0</v>
+      <c r="T62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U62" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="V62" s="3">
         <v>0</v>
@@ -4221,8 +4513,14 @@
       <c r="Y62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z62" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4292,8 +4590,14 @@
       <c r="Y63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4363,8 +4667,14 @@
       <c r="Y64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4434,79 +4744,91 @@
       <c r="Y65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>17100</v>
+      </c>
+      <c r="E66" s="3">
         <v>16800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
+        <v>16800</v>
+      </c>
+      <c r="G66" s="3">
         <v>19100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>19800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>19200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>19100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>33900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>23400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>32600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>23200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>33400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>33700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>38200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>20400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>19400</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>17500</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>14900</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>14000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>10100</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>9900</v>
       </c>
-      <c r="W66" s="3">
+      <c r="Y66" s="3">
         <v>9600</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Z66" s="3">
         <v>3600</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="AA66" s="3">
         <v>3500</v>
       </c>
     </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4532,8 +4854,10 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
-    </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z67" s="3"/>
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4603,8 +4927,14 @@
       <c r="Y68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4674,8 +5004,14 @@
       <c r="Y69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4701,10 +5037,10 @@
         <v>400</v>
       </c>
       <c r="K70" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="L70" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="M70" s="3">
         <v>0</v>
@@ -4745,8 +5081,14 @@
       <c r="Y70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4816,79 +5158,91 @@
       <c r="Y71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-44500</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-44300</v>
+      </c>
+      <c r="F72" s="3">
         <v>-44100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-46000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-47500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-44900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-42500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-57100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-46800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-55800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-45500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-35600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-35300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-33600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-30500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-28900</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-26500</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>-23600</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>-22400</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>-14800</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>-14700</v>
       </c>
-      <c r="W72" s="3">
+      <c r="Y72" s="3">
         <v>-15500</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Z72" s="3">
         <v>-21000</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="AA72" s="3">
         <v>-20400</v>
       </c>
     </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4958,8 +5312,14 @@
       <c r="Y73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5029,8 +5389,14 @@
       <c r="Y74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5100,79 +5466,91 @@
       <c r="Y75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-11000</v>
+      </c>
+      <c r="E76" s="3">
         <v>-10700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
+        <v>-10700</v>
+      </c>
+      <c r="G76" s="3">
         <v>-12900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>-16100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>-15600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>-15800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>-31000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>-20800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>-29800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>-20000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>-10000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>-9700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>-9900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>-7700</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>-6800</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>-4800</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>-3000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>-1800</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>5900</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>5400</v>
       </c>
-      <c r="W76" s="3">
+      <c r="Y76" s="3">
         <v>4400</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Z76" s="3">
         <v>-3200</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="AA76" s="3">
         <v>-2900</v>
       </c>
     </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5242,155 +5620,173 @@
       <c r="Y77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43555</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43465</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43373</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43281</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43190</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43100</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43008</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>42916</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>42825</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>42735</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="AA80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F81" s="3">
         <v>1900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>1500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-2600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-2400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>14600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-11600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>9000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-10300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-9800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-1700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-3100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-8200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>-2400</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>-2900</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>-1200</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>-1400</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>-100</v>
-      </c>
-      <c r="V81" s="3">
-        <v>-300</v>
-      </c>
-      <c r="W81" s="3">
-        <v>1900</v>
       </c>
       <c r="X81" s="3">
         <v>-300</v>
       </c>
       <c r="Y81" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
+        <v>1900</v>
+      </c>
+      <c r="Z81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="AA81" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5416,8 +5812,10 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
-    </row>
-    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z82" s="3"/>
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5428,22 +5826,22 @@
         <v>100</v>
       </c>
       <c r="F83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H83" s="3">
         <v>0</v>
       </c>
       <c r="I83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J83" s="3">
         <v>0</v>
       </c>
       <c r="K83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L83" s="3">
         <v>0</v>
@@ -5452,43 +5850,49 @@
         <v>0</v>
       </c>
       <c r="N83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P83" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q83" s="3">
+        <v>100</v>
+      </c>
+      <c r="R83" s="3">
         <v>300</v>
       </c>
-      <c r="Q83" s="3">
-        <v>100</v>
-      </c>
-      <c r="R83" s="3">
-        <v>100</v>
-      </c>
       <c r="S83" s="3">
         <v>100</v>
       </c>
       <c r="T83" s="3">
+        <v>100</v>
+      </c>
+      <c r="U83" s="3">
+        <v>100</v>
+      </c>
+      <c r="V83" s="3">
         <v>200</v>
       </c>
-      <c r="U83" s="3">
-        <v>100</v>
-      </c>
-      <c r="V83" s="3">
-        <v>100</v>
-      </c>
       <c r="W83" s="3">
         <v>100</v>
       </c>
-      <c r="X83" s="3" t="s">
-        <v>5</v>
+      <c r="X83" s="3">
+        <v>100</v>
       </c>
       <c r="Y83" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="Z83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5558,8 +5962,14 @@
       <c r="Y84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5629,8 +6039,14 @@
       <c r="Y85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5700,8 +6116,14 @@
       <c r="Y86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5771,8 +6193,14 @@
       <c r="Y87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5842,79 +6270,91 @@
       <c r="Y88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>300</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F89" s="3">
         <v>-200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>-500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>-900</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>-1100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>-1500</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>-800</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>-400</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>200</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>-4600</v>
       </c>
-      <c r="U89" s="3">
+      <c r="W89" s="3">
         <v>-500</v>
       </c>
-      <c r="V89" s="3">
+      <c r="X89" s="3">
         <v>-400</v>
       </c>
-      <c r="W89" s="3">
+      <c r="Y89" s="3">
         <v>-3100</v>
       </c>
-      <c r="X89" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA89" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5940,19 +6380,21 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
-    </row>
-    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z90" s="3"/>
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
         <v>-100</v>
       </c>
-      <c r="E91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F91" s="3" t="s">
-        <v>5</v>
+      <c r="E91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F91" s="3">
+        <v>-100</v>
       </c>
       <c r="G91" s="3" t="s">
         <v>5</v>
@@ -5969,50 +6411,56 @@
       <c r="K91" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L91" s="3">
+      <c r="L91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N91" s="3">
         <v>-100</v>
       </c>
-      <c r="M91" s="3">
-        <v>0</v>
-      </c>
-      <c r="N91" s="3">
-        <v>0</v>
-      </c>
       <c r="O91" s="3">
         <v>0</v>
       </c>
       <c r="P91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+      <c r="R91" s="3">
         <v>-300</v>
       </c>
-      <c r="Q91" s="3">
-        <v>0</v>
-      </c>
-      <c r="R91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T91" s="3">
+      <c r="S91" s="3">
+        <v>0</v>
+      </c>
+      <c r="T91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V91" s="3">
         <v>-400</v>
       </c>
-      <c r="U91" s="3">
-        <v>0</v>
-      </c>
-      <c r="V91" s="3">
-        <v>0</v>
-      </c>
       <c r="W91" s="3">
         <v>0</v>
       </c>
-      <c r="X91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y91" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="X91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA91" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6082,8 +6530,14 @@
       <c r="Y92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6153,8 +6607,14 @@
       <c r="Y93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -6162,70 +6622,76 @@
         <v>-100</v>
       </c>
       <c r="E94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G94" s="3">
+        <v>0</v>
+      </c>
+      <c r="H94" s="3">
         <v>-200</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-300</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-700</v>
       </c>
-      <c r="I94" s="3">
-        <v>0</v>
-      </c>
-      <c r="J94" s="3">
-        <v>0</v>
-      </c>
       <c r="K94" s="3">
         <v>0</v>
       </c>
       <c r="L94" s="3">
+        <v>0</v>
+      </c>
+      <c r="M94" s="3">
+        <v>0</v>
+      </c>
+      <c r="N94" s="3">
         <v>1200</v>
       </c>
-      <c r="M94" s="3">
-        <v>0</v>
-      </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
+        <v>0</v>
+      </c>
+      <c r="P94" s="3">
         <v>3300</v>
       </c>
-      <c r="O94" s="3">
-        <v>0</v>
-      </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+      <c r="R94" s="3">
         <v>-1400</v>
       </c>
-      <c r="Q94" s="3">
-        <v>0</v>
-      </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
+        <v>0</v>
+      </c>
+      <c r="T94" s="3">
         <v>-900</v>
       </c>
-      <c r="S94" s="3">
+      <c r="U94" s="3">
         <v>-300</v>
       </c>
-      <c r="T94" s="3">
+      <c r="V94" s="3">
         <v>1400</v>
       </c>
-      <c r="U94" s="3">
-        <v>100</v>
-      </c>
-      <c r="V94" s="3">
-        <v>0</v>
-      </c>
       <c r="W94" s="3">
+        <v>100</v>
+      </c>
+      <c r="X94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y94" s="3">
         <v>3300</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Z94" s="3">
         <v>-100</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="AA94" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6251,8 +6717,10 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
-    </row>
-    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z95" s="3"/>
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6322,8 +6790,14 @@
       <c r="Y96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6393,8 +6867,14 @@
       <c r="Y97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6464,8 +6944,14 @@
       <c r="Y98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6535,150 +7021,168 @@
       <c r="Y99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>100</v>
+      </c>
+      <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
         <v>200</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>-300</v>
-      </c>
-      <c r="F100" s="3">
-        <v>400</v>
-      </c>
-      <c r="G100" s="3">
-        <v>300</v>
       </c>
       <c r="H100" s="3">
         <v>400</v>
       </c>
       <c r="I100" s="3">
+        <v>300</v>
+      </c>
+      <c r="J100" s="3">
         <v>400</v>
       </c>
-      <c r="J100" s="3">
-        <v>100</v>
-      </c>
       <c r="K100" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="L100" s="3">
+        <v>100</v>
+      </c>
+      <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3">
         <v>-1000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>500</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>-2500</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>1000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>3400</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>500</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>1800</v>
-      </c>
-      <c r="S100" s="3">
-        <v>200</v>
-      </c>
-      <c r="T100" s="3">
-        <v>3300</v>
       </c>
       <c r="U100" s="3">
         <v>200</v>
       </c>
       <c r="V100" s="3">
-        <v>100</v>
+        <v>3300</v>
       </c>
       <c r="W100" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="X100" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z100" s="3">
         <v>200</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="AA100" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="E101" s="3">
+        <v>100</v>
+      </c>
+      <c r="F101" s="3">
+        <v>0</v>
+      </c>
+      <c r="G101" s="3">
         <v>-100</v>
       </c>
-      <c r="F101" s="3">
-        <v>100</v>
-      </c>
-      <c r="G101" s="3">
-        <v>100</v>
-      </c>
       <c r="H101" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I101" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J101" s="3">
+        <v>0</v>
+      </c>
+      <c r="K101" s="3">
+        <v>0</v>
+      </c>
+      <c r="L101" s="3">
         <v>500</v>
       </c>
-      <c r="K101" s="3">
+      <c r="M101" s="3">
         <v>-500</v>
       </c>
-      <c r="L101" s="3">
-        <v>100</v>
-      </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
+        <v>100</v>
+      </c>
+      <c r="O101" s="3">
         <v>-100</v>
       </c>
-      <c r="N101" s="3">
-        <v>100</v>
-      </c>
-      <c r="O101" s="3">
-        <v>100</v>
-      </c>
       <c r="P101" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q101" s="3">
+        <v>100</v>
+      </c>
+      <c r="R101" s="3">
         <v>-400</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="S101" s="3">
         <v>200</v>
       </c>
-      <c r="R101" s="3">
+      <c r="T101" s="3">
         <v>-100</v>
       </c>
-      <c r="S101" s="3">
+      <c r="U101" s="3">
         <v>-100</v>
       </c>
-      <c r="T101" s="3">
-        <v>0</v>
-      </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+      <c r="W101" s="3">
         <v>300</v>
       </c>
-      <c r="V101" s="3">
+      <c r="X101" s="3">
         <v>200</v>
       </c>
-      <c r="W101" s="3">
+      <c r="Y101" s="3">
         <v>-200</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Z101" s="3">
         <v>-100</v>
       </c>
-      <c r="Y101" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="AA101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -6692,16 +7196,16 @@
         <v>0</v>
       </c>
       <c r="G102" s="3">
+        <v>0</v>
+      </c>
+      <c r="H102" s="3">
+        <v>0</v>
+      </c>
+      <c r="I102" s="3">
         <v>-100</v>
       </c>
-      <c r="H102" s="3">
-        <v>100</v>
-      </c>
-      <c r="I102" s="3">
-        <v>0</v>
-      </c>
       <c r="J102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K102" s="3">
         <v>0</v>
@@ -6722,30 +7226,36 @@
         <v>0</v>
       </c>
       <c r="Q102" s="3">
+        <v>0</v>
+      </c>
+      <c r="R102" s="3">
+        <v>0</v>
+      </c>
+      <c r="S102" s="3">
         <v>-300</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>300</v>
       </c>
-      <c r="S102" s="3">
-        <v>0</v>
-      </c>
-      <c r="T102" s="3">
-        <v>0</v>
-      </c>
       <c r="U102" s="3">
         <v>0</v>
       </c>
       <c r="V102" s="3">
+        <v>0</v>
+      </c>
+      <c r="W102" s="3">
+        <v>0</v>
+      </c>
+      <c r="X102" s="3">
         <v>-100</v>
       </c>
-      <c r="W102" s="3">
-        <v>100</v>
-      </c>
-      <c r="X102" s="3">
-        <v>0</v>
-      </c>
       <c r="Y102" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/GRST_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GRST_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="92">
   <si>
     <t>GRST</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AA102"/>
+  <dimension ref="A5:AB102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,132 +665,136 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43738</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43646</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43555</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43465</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43373</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43281</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43190</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43100</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43008</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42916</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42825</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42735</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E8" s="3">
         <v>1100</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1000</v>
-      </c>
-      <c r="F8" s="3">
-        <v>900</v>
       </c>
       <c r="G8" s="3">
         <v>900</v>
       </c>
       <c r="H8" s="3">
-        <v>100</v>
+        <v>900</v>
       </c>
       <c r="I8" s="3">
         <v>100</v>
@@ -799,19 +803,19 @@
         <v>100</v>
       </c>
       <c r="K8" s="3">
+        <v>100</v>
+      </c>
+      <c r="L8" s="3">
         <v>300</v>
       </c>
-      <c r="L8" s="3">
-        <v>100</v>
-      </c>
       <c r="M8" s="3">
         <v>100</v>
       </c>
       <c r="N8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P8" s="3">
         <v>100</v>
@@ -820,37 +824,40 @@
         <v>100</v>
       </c>
       <c r="R8" s="3">
+        <v>100</v>
+      </c>
+      <c r="S8" s="3">
         <v>400</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>300</v>
       </c>
-      <c r="T8" s="3">
-        <v>100</v>
-      </c>
       <c r="U8" s="3">
         <v>100</v>
       </c>
       <c r="V8" s="3">
+        <v>100</v>
+      </c>
+      <c r="W8" s="3">
         <v>900</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>600</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>400</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>300</v>
       </c>
-      <c r="Z8" s="3">
-        <v>0</v>
-      </c>
       <c r="AA8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -926,8 +933,11 @@
       <c r="AA9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -1003,8 +1013,11 @@
       <c r="AA10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1032,8 +1045,9 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB11" s="3"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1109,8 +1123,11 @@
       <c r="AA12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1186,52 +1203,55 @@
       <c r="AA13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E14" s="3">
         <v>0</v>
       </c>
       <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
         <v>-200</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
       <c r="H14" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I14" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
         <v>400</v>
-      </c>
-      <c r="K14" s="3">
-        <v>-12700</v>
       </c>
       <c r="L14" s="3">
         <v>-12700</v>
       </c>
       <c r="M14" s="3">
-        <v>0</v>
+        <v>-12700</v>
       </c>
       <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
         <v>900</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
       <c r="P14" s="3">
-        <v>100</v>
-      </c>
-      <c r="Q14" s="3" t="s">
-        <v>5</v>
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3">
+        <v>100</v>
       </c>
       <c r="R14" s="3" t="s">
         <v>5</v>
@@ -1245,8 +1265,8 @@
       <c r="U14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="V14" s="3">
-        <v>0</v>
+      <c r="V14" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="W14" s="3">
         <v>0</v>
@@ -1263,8 +1283,11 @@
       <c r="AA14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1281,7 +1304,7 @@
         <v>100</v>
       </c>
       <c r="H15" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I15" s="3">
         <v>0</v>
@@ -1290,10 +1313,10 @@
         <v>0</v>
       </c>
       <c r="K15" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L15" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M15" s="3">
         <v>0</v>
@@ -1305,17 +1328,17 @@
         <v>0</v>
       </c>
       <c r="P15" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q15" s="3">
         <v>100</v>
       </c>
       <c r="R15" s="3">
+        <v>100</v>
+      </c>
+      <c r="S15" s="3">
         <v>300</v>
       </c>
-      <c r="S15" s="3">
-        <v>100</v>
-      </c>
       <c r="T15" s="3">
         <v>100</v>
       </c>
@@ -1323,25 +1346,28 @@
         <v>100</v>
       </c>
       <c r="V15" s="3">
+        <v>100</v>
+      </c>
+      <c r="W15" s="3">
         <v>200</v>
       </c>
-      <c r="W15" s="3">
-        <v>100</v>
-      </c>
       <c r="X15" s="3">
         <v>100</v>
       </c>
       <c r="Y15" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA15" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="Z15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1366,8 +1392,9 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
-    </row>
-    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB16" s="3"/>
+    </row>
+    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1375,153 +1402,159 @@
         <v>1100</v>
       </c>
       <c r="E17" s="3">
+        <v>1100</v>
+      </c>
+      <c r="F17" s="3">
         <v>900</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>200</v>
       </c>
-      <c r="I17" s="3">
-        <v>100</v>
-      </c>
       <c r="J17" s="3">
+        <v>100</v>
+      </c>
+      <c r="K17" s="3">
         <v>500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>-12300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>-12600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1500</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>3300</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1200</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>800</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>500</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>2400</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>500</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>400</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>900</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>800</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E18" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F18" s="3">
+        <v>100</v>
+      </c>
+      <c r="G18" s="3">
         <v>-100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>200</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-100</v>
       </c>
-      <c r="I18" s="3">
-        <v>0</v>
-      </c>
       <c r="J18" s="3">
+        <v>0</v>
+      </c>
+      <c r="K18" s="3">
         <v>-400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>12600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>12700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-100</v>
-      </c>
-      <c r="N18" s="3">
-        <v>-1100</v>
       </c>
       <c r="O18" s="3">
         <v>-1100</v>
       </c>
       <c r="P18" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="Q18" s="3">
         <v>-1500</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-1400</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-2900</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-900</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-700</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-400</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-1500</v>
       </c>
-      <c r="W18" s="3">
-        <v>100</v>
-      </c>
       <c r="X18" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y18" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z18" s="3">
         <v>-600</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>-800</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1549,162 +1582,169 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
-    </row>
-    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB19" s="3"/>
+    </row>
+    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>500</v>
+      </c>
+      <c r="E20" s="3">
         <v>200</v>
       </c>
-      <c r="E20" s="3">
-        <v>100</v>
-      </c>
       <c r="F20" s="3">
+        <v>100</v>
+      </c>
+      <c r="G20" s="3">
         <v>2100</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>1700</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-1300</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-1600</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>15400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-22900</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-3300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-9600</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-7800</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>2000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>900</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-600</v>
       </c>
-      <c r="R20" s="3">
-        <v>0</v>
-      </c>
       <c r="S20" s="3">
+        <v>0</v>
+      </c>
+      <c r="T20" s="3">
         <v>-100</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-700</v>
       </c>
-      <c r="U20" s="3">
-        <v>100</v>
-      </c>
       <c r="V20" s="3">
+        <v>100</v>
+      </c>
+      <c r="W20" s="3">
         <v>-6300</v>
       </c>
-      <c r="W20" s="3">
-        <v>100</v>
-      </c>
       <c r="X20" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y20" s="3">
         <v>-100</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-4800</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>-200</v>
       </c>
-      <c r="AA20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>300</v>
+        <v>900</v>
       </c>
       <c r="E21" s="3">
         <v>300</v>
       </c>
       <c r="F21" s="3">
+        <v>300</v>
+      </c>
+      <c r="G21" s="3">
         <v>2200</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>2000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-1300</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-1600</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>15000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-10200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>9400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-9600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-8800</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>1000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-600</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-1900</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-2600</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-900</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-1300</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-200</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-7600</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>200</v>
       </c>
-      <c r="X21" s="3">
-        <v>0</v>
-      </c>
       <c r="Y21" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z21" s="3">
         <v>-5400</v>
       </c>
-      <c r="Z21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA21" s="3">
+      <c r="AA21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB21" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1715,150 +1755,156 @@
         <v>300</v>
       </c>
       <c r="F22" s="3">
+        <v>300</v>
+      </c>
+      <c r="G22" s="3">
         <v>400</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>300</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>1300</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>800</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>400</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>1200</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>300</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>700</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>1000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>1300</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>1000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>1100</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>5200</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>1400</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>1500</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>900</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>400</v>
       </c>
-      <c r="W22" s="3">
-        <v>100</v>
-      </c>
       <c r="X22" s="3">
         <v>100</v>
       </c>
       <c r="Y22" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z22" s="3">
         <v>300</v>
       </c>
-      <c r="Z22" s="3">
-        <v>0</v>
-      </c>
       <c r="AA22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>600</v>
+      </c>
+      <c r="E23" s="3">
         <v>-200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>1600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>1500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-2600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-2400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>14600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-11500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>9000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-10300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-9800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-1700</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-3100</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-8100</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-2400</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-2900</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-1200</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-8200</v>
       </c>
-      <c r="W23" s="3">
-        <v>100</v>
-      </c>
       <c r="X23" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y23" s="3">
         <v>-200</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>-5700</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>-1000</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1869,22 +1915,22 @@
         <v>0</v>
       </c>
       <c r="F24" s="3">
+        <v>0</v>
+      </c>
+      <c r="G24" s="3">
         <v>-300</v>
       </c>
-      <c r="G24" s="3">
-        <v>0</v>
-      </c>
       <c r="H24" s="3">
         <v>0</v>
       </c>
       <c r="I24" s="3">
         <v>0</v>
       </c>
-      <c r="J24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K24" s="3">
-        <v>0</v>
+      <c r="J24" s="3">
+        <v>0</v>
+      </c>
+      <c r="K24" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="L24" s="3">
         <v>0</v>
@@ -1905,10 +1951,10 @@
         <v>0</v>
       </c>
       <c r="R24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T24" s="3">
         <v>0</v>
@@ -1934,8 +1980,11 @@
       <c r="AA24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2011,162 +2060,171 @@
       <c r="AA25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-200</v>
+        <v>500</v>
       </c>
       <c r="E26" s="3">
         <v>-200</v>
       </c>
       <c r="F26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G26" s="3">
         <v>1900</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>1500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-2600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-2400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>14600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-11500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>9000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-10300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-9800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-1700</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-3100</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-8200</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-2400</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-2900</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-1200</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-8200</v>
       </c>
-      <c r="W26" s="3">
-        <v>100</v>
-      </c>
       <c r="X26" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y26" s="3">
         <v>-200</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>-5700</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>-1000</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-200</v>
+        <v>500</v>
       </c>
       <c r="E27" s="3">
         <v>-200</v>
       </c>
       <c r="F27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G27" s="3">
         <v>1900</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>1500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-2600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-2400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>14600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-11600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>9000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-10300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-9800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-1700</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-3100</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-8200</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-2400</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-2900</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-1200</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-8200</v>
       </c>
-      <c r="W27" s="3">
-        <v>100</v>
-      </c>
       <c r="X27" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y27" s="3">
         <v>-200</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>-5700</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>-1000</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2242,8 +2300,11 @@
       <c r="AA28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2283,14 +2344,14 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-      <c r="P29" s="3" t="s">
-        <v>5</v>
+      <c r="P29" s="3">
+        <v>0</v>
       </c>
       <c r="Q29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="R29" s="3">
-        <v>0</v>
+      <c r="R29" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="S29" s="3">
         <v>0</v>
@@ -2302,25 +2363,28 @@
         <v>0</v>
       </c>
       <c r="V29" s="3">
+        <v>0</v>
+      </c>
+      <c r="W29" s="3">
         <v>6800</v>
       </c>
-      <c r="W29" s="3">
+      <c r="X29" s="3">
         <v>-200</v>
       </c>
-      <c r="X29" s="3">
+      <c r="Y29" s="3">
         <v>-100</v>
       </c>
-      <c r="Y29" s="3">
+      <c r="Z29" s="3">
         <v>7600</v>
       </c>
-      <c r="Z29" s="3">
+      <c r="AA29" s="3">
         <v>700</v>
       </c>
-      <c r="AA29" s="3">
+      <c r="AB29" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2396,8 +2460,11 @@
       <c r="AA30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2473,162 +2540,171 @@
       <c r="AA31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E32" s="3">
         <v>-200</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-100</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-2100</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-1700</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>1300</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>1600</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-15400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>22900</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>3300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>9600</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>7800</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-2000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-900</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>600</v>
       </c>
-      <c r="R32" s="3">
-        <v>0</v>
-      </c>
       <c r="S32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T32" s="3">
+        <v>100</v>
+      </c>
+      <c r="U32" s="3">
         <v>700</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-100</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>6300</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-100</v>
       </c>
-      <c r="X32" s="3">
-        <v>100</v>
-      </c>
       <c r="Y32" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z32" s="3">
         <v>4800</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>200</v>
       </c>
-      <c r="AA32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-200</v>
+        <v>500</v>
       </c>
       <c r="E33" s="3">
         <v>-200</v>
       </c>
       <c r="F33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G33" s="3">
         <v>1900</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>1500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-2600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-2400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>14600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-11600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>9000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-10300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-9800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-1700</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-3100</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-8200</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-2400</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-2900</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-1200</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-1400</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-100</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-300</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>1900</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>-300</v>
       </c>
-      <c r="AA33" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB33" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2704,167 +2780,176 @@
       <c r="AA34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-200</v>
+        <v>500</v>
       </c>
       <c r="E35" s="3">
         <v>-200</v>
       </c>
       <c r="F35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G35" s="3">
         <v>1900</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>1500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-2600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-2400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>14600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-11600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>9000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-10300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-9800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-1700</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-3100</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-8200</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-2400</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-2900</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-1200</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-1400</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-100</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-300</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>1900</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>-300</v>
       </c>
-      <c r="AA35" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB35" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43738</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43646</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43555</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43465</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43373</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43281</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43190</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43100</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43008</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42916</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42825</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42735</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2892,8 +2977,9 @@
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
-    </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB39" s="3"/>
+    </row>
+    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2921,34 +3007,35 @@
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
-    </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB40" s="3"/>
+    </row>
+    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>100</v>
+        <v>600</v>
       </c>
       <c r="E41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F41" s="3">
         <v>0</v>
       </c>
       <c r="G41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I41" s="3">
         <v>0</v>
       </c>
       <c r="J41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L41" s="3">
         <v>0</v>
@@ -2972,14 +3059,14 @@
         <v>0</v>
       </c>
       <c r="S41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T41" s="3">
+        <v>100</v>
+      </c>
+      <c r="U41" s="3">
         <v>300</v>
       </c>
-      <c r="U41" s="3">
-        <v>0</v>
-      </c>
       <c r="V41" s="3">
         <v>0</v>
       </c>
@@ -2990,16 +3077,19 @@
         <v>0</v>
       </c>
       <c r="Y41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Z41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AA41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3009,24 +3099,24 @@
       <c r="E42" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F42" s="3">
-        <v>0</v>
+      <c r="F42" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="G42" s="3">
         <v>0</v>
       </c>
       <c r="H42" s="3">
+        <v>0</v>
+      </c>
+      <c r="I42" s="3">
         <v>1200</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>1000</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>700</v>
       </c>
-      <c r="K42" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="L42" s="3" t="s">
         <v>5</v>
       </c>
@@ -3042,8 +3132,8 @@
       <c r="P42" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q42" s="3">
-        <v>0</v>
+      <c r="Q42" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="R42" s="3">
         <v>0</v>
@@ -3075,8 +3165,11 @@
       <c r="AA42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3087,13 +3180,13 @@
         <v>300</v>
       </c>
       <c r="F43" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="G43" s="3">
         <v>200</v>
       </c>
       <c r="H43" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="I43" s="3">
         <v>0</v>
@@ -3108,52 +3201,55 @@
         <v>0</v>
       </c>
       <c r="M43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N43" s="3">
         <v>100</v>
       </c>
       <c r="O43" s="3">
+        <v>100</v>
+      </c>
+      <c r="P43" s="3">
         <v>200</v>
-      </c>
-      <c r="P43" s="3">
-        <v>300</v>
       </c>
       <c r="Q43" s="3">
         <v>300</v>
       </c>
       <c r="R43" s="3">
+        <v>300</v>
+      </c>
+      <c r="S43" s="3">
         <v>200</v>
       </c>
-      <c r="S43" s="3">
-        <v>100</v>
-      </c>
       <c r="T43" s="3">
         <v>100</v>
       </c>
       <c r="U43" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="V43" s="3">
         <v>200</v>
       </c>
       <c r="W43" s="3">
+        <v>200</v>
+      </c>
+      <c r="X43" s="3">
         <v>1000</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>600</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>300</v>
       </c>
-      <c r="Z43" s="3">
-        <v>100</v>
-      </c>
       <c r="AA43" s="3">
+        <v>100</v>
+      </c>
+      <c r="AB43" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3229,8 +3325,11 @@
       <c r="AA44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3238,7 +3337,7 @@
         <v>100</v>
       </c>
       <c r="E45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F45" s="3">
         <v>0</v>
@@ -3247,52 +3346,52 @@
         <v>0</v>
       </c>
       <c r="H45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I45" s="3">
         <v>100</v>
       </c>
       <c r="J45" s="3">
+        <v>100</v>
+      </c>
+      <c r="K45" s="3">
         <v>200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>500</v>
-      </c>
-      <c r="L45" s="3">
-        <v>200</v>
       </c>
       <c r="M45" s="3">
         <v>200</v>
       </c>
       <c r="N45" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="O45" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="P45" s="3">
         <v>200</v>
       </c>
       <c r="Q45" s="3">
+        <v>200</v>
+      </c>
+      <c r="R45" s="3">
         <v>2000</v>
       </c>
-      <c r="R45" s="3">
-        <v>100</v>
-      </c>
       <c r="S45" s="3">
         <v>100</v>
       </c>
       <c r="T45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V45" s="3">
         <v>100</v>
       </c>
       <c r="W45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X45" s="3">
         <v>0</v>
@@ -3301,90 +3400,96 @@
         <v>0</v>
       </c>
       <c r="Z45" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA45" s="3">
         <v>200</v>
       </c>
-      <c r="AA45" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB45" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E46" s="3">
         <v>500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>400</v>
-      </c>
-      <c r="F46" s="3">
-        <v>300</v>
       </c>
       <c r="G46" s="3">
         <v>300</v>
       </c>
       <c r="H46" s="3">
+        <v>300</v>
+      </c>
+      <c r="I46" s="3">
         <v>1300</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>500</v>
-      </c>
-      <c r="L46" s="3">
-        <v>200</v>
       </c>
       <c r="M46" s="3">
         <v>200</v>
       </c>
       <c r="N46" s="3">
+        <v>200</v>
+      </c>
+      <c r="O46" s="3">
         <v>300</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>400</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>600</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>2400</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>400</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>300</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>500</v>
-      </c>
-      <c r="U46" s="3">
-        <v>300</v>
       </c>
       <c r="V46" s="3">
         <v>300</v>
       </c>
       <c r="W46" s="3">
+        <v>300</v>
+      </c>
+      <c r="X46" s="3">
         <v>1000</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>600</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>400</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>300</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3451,25 +3556,28 @@
       <c r="X47" s="3">
         <v>0</v>
       </c>
-      <c r="Y47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z47" s="3">
-        <v>100</v>
-      </c>
-      <c r="AA47" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="Y47" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA47" s="3">
+        <v>100</v>
+      </c>
+      <c r="AB47" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>4400</v>
+      </c>
+      <c r="E48" s="3">
         <v>4600</v>
-      </c>
-      <c r="E48" s="3">
-        <v>4700</v>
       </c>
       <c r="F48" s="3">
         <v>4700</v>
@@ -3478,7 +3586,7 @@
         <v>4700</v>
       </c>
       <c r="H48" s="3">
-        <v>2900</v>
+        <v>4700</v>
       </c>
       <c r="I48" s="3">
         <v>2900</v>
@@ -3487,28 +3595,28 @@
         <v>2900</v>
       </c>
       <c r="K48" s="3">
-        <v>2800</v>
+        <v>2900</v>
       </c>
       <c r="L48" s="3">
         <v>2800</v>
       </c>
       <c r="M48" s="3">
+        <v>2800</v>
+      </c>
+      <c r="N48" s="3">
         <v>2700</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>3000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>20100</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>20400</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>22900</v>
-      </c>
-      <c r="R48" s="3">
-        <v>8900</v>
       </c>
       <c r="S48" s="3">
         <v>8900</v>
@@ -3517,46 +3625,49 @@
         <v>8900</v>
       </c>
       <c r="U48" s="3">
+        <v>8900</v>
+      </c>
+      <c r="V48" s="3">
         <v>9000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>9200</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>12200</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>12000</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>10800</v>
       </c>
-      <c r="Z48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA48" s="3">
+      <c r="AA48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB48" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E49" s="3">
         <v>1400</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>1500</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>1600</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>1700</v>
       </c>
-      <c r="H49" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="I49" s="3" t="s">
         <v>5</v>
       </c>
@@ -3572,8 +3683,8 @@
       <c r="M49" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N49" s="3">
-        <v>0</v>
+      <c r="N49" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="O49" s="3">
         <v>0</v>
@@ -3596,11 +3707,11 @@
       <c r="U49" s="3">
         <v>0</v>
       </c>
-      <c r="V49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W49" s="3">
-        <v>1400</v>
+      <c r="V49" s="3">
+        <v>0</v>
+      </c>
+      <c r="W49" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="X49" s="3">
         <v>1400</v>
@@ -3608,14 +3719,17 @@
       <c r="Y49" s="3">
         <v>1400</v>
       </c>
-      <c r="Z49" s="3" t="s">
-        <v>5</v>
+      <c r="Z49" s="3">
+        <v>1400</v>
       </c>
       <c r="AA49" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB49" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3691,8 +3805,11 @@
       <c r="AA50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3768,8 +3885,11 @@
       <c r="AA51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3807,7 +3927,7 @@
         <v>0</v>
       </c>
       <c r="O52" s="3">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="P52" s="3">
         <v>3000</v>
@@ -3816,37 +3936,40 @@
         <v>3000</v>
       </c>
       <c r="R52" s="3">
+        <v>3000</v>
+      </c>
+      <c r="S52" s="3">
         <v>3300</v>
-      </c>
-      <c r="S52" s="3">
-        <v>3400</v>
       </c>
       <c r="T52" s="3">
         <v>3400</v>
       </c>
       <c r="U52" s="3">
+        <v>3400</v>
+      </c>
+      <c r="V52" s="3">
         <v>2600</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>2800</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>1400</v>
-      </c>
-      <c r="X52" s="3">
-        <v>1300</v>
       </c>
       <c r="Y52" s="3">
         <v>1300</v>
       </c>
       <c r="Z52" s="3">
-        <v>100</v>
+        <v>1300</v>
       </c>
       <c r="AA52" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB52" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3922,85 +4045,91 @@
       <c r="AA53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>6700</v>
+      </c>
+      <c r="E54" s="3">
         <v>6500</v>
-      </c>
-      <c r="E54" s="3">
-        <v>6600</v>
       </c>
       <c r="F54" s="3">
         <v>6600</v>
       </c>
       <c r="G54" s="3">
+        <v>6600</v>
+      </c>
+      <c r="H54" s="3">
         <v>6700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>4200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>4100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>3800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>3300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>3000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>2900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>3200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>23500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>24000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>28300</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>12700</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>12600</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>12800</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>11900</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>12300</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>16000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>15300</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>13900</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>500</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4028,8 +4157,9 @@
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
-    </row>
-    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB55" s="3"/>
+    </row>
+    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4057,8 +4187,9 @@
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
-    </row>
-    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB56" s="3"/>
+    </row>
+    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -4072,10 +4203,10 @@
         <v>400</v>
       </c>
       <c r="G57" s="3">
+        <v>400</v>
+      </c>
+      <c r="H57" s="3">
         <v>900</v>
-      </c>
-      <c r="H57" s="3">
-        <v>800</v>
       </c>
       <c r="I57" s="3">
         <v>800</v>
@@ -4090,31 +4221,31 @@
         <v>800</v>
       </c>
       <c r="M57" s="3">
+        <v>800</v>
+      </c>
+      <c r="N57" s="3">
         <v>900</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>2200</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1800</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1600</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>1100</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>700</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>300</v>
-      </c>
-      <c r="U57" s="3">
-        <v>400</v>
       </c>
       <c r="V57" s="3">
         <v>400</v>
@@ -4126,170 +4257,179 @@
         <v>400</v>
       </c>
       <c r="Y57" s="3">
+        <v>400</v>
+      </c>
+      <c r="Z57" s="3">
         <v>500</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>400</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>11900</v>
+        <v>11800</v>
       </c>
       <c r="E58" s="3">
         <v>11900</v>
       </c>
       <c r="F58" s="3">
+        <v>11900</v>
+      </c>
+      <c r="G58" s="3">
         <v>11600</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>11900</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>8200</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>7800</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>7400</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>7500</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>7300</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>8300</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>8100</v>
-      </c>
-      <c r="O58" s="3">
-        <v>7700</v>
       </c>
       <c r="P58" s="3">
         <v>7700</v>
       </c>
       <c r="Q58" s="3">
+        <v>7700</v>
+      </c>
+      <c r="R58" s="3">
         <v>10400</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>7200</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>6100</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>4800</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>3500</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>2900</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>2000</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>6000</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>5500</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>500</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E59" s="3">
         <v>1700</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1400</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>3000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>5500</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>5300</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>5600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>20500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>10200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>19200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>9500</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>4300</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>5500</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>7200</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>5400</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>5600</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>5400</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>4000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>3500</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>600</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>500</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>600</v>
-      </c>
-      <c r="Z59" s="3">
-        <v>2800</v>
       </c>
       <c r="AA59" s="3">
         <v>2800</v>
       </c>
-    </row>
-    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB59" s="3">
+        <v>2800</v>
+      </c>
+    </row>
+    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4297,81 +4437,84 @@
         <v>14000</v>
       </c>
       <c r="E60" s="3">
+        <v>14000</v>
+      </c>
+      <c r="F60" s="3">
         <v>13700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>13500</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>15700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>14500</v>
-      </c>
-      <c r="I60" s="3">
-        <v>13900</v>
       </c>
       <c r="J60" s="3">
         <v>13900</v>
       </c>
       <c r="K60" s="3">
+        <v>13900</v>
+      </c>
+      <c r="L60" s="3">
         <v>28800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>18300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>28400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>18600</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>14200</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>15000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>19200</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>13700</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>12400</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>10600</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>7900</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>6900</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>2900</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>6900</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>6600</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>3600</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>3400</v>
       </c>
     </row>
-    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="E61" s="3">
         <v>700</v>
@@ -4383,7 +4526,7 @@
         <v>700</v>
       </c>
       <c r="H61" s="3">
-        <v>4600</v>
+        <v>700</v>
       </c>
       <c r="I61" s="3">
         <v>4600</v>
@@ -4392,75 +4535,78 @@
         <v>4600</v>
       </c>
       <c r="K61" s="3">
-        <v>4400</v>
+        <v>4600</v>
       </c>
       <c r="L61" s="3">
         <v>4400</v>
       </c>
       <c r="M61" s="3">
+        <v>4400</v>
+      </c>
+      <c r="N61" s="3">
         <v>4300</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>4700</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>4600</v>
-      </c>
-      <c r="P61" s="3">
-        <v>3900</v>
       </c>
       <c r="Q61" s="3">
         <v>3900</v>
       </c>
       <c r="R61" s="3">
+        <v>3900</v>
+      </c>
+      <c r="S61" s="3">
         <v>6700</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>7000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>6900</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>7000</v>
-      </c>
-      <c r="V61" s="3">
-        <v>7200</v>
       </c>
       <c r="W61" s="3">
         <v>7200</v>
       </c>
       <c r="X61" s="3">
-        <v>3000</v>
+        <v>7200</v>
       </c>
       <c r="Y61" s="3">
         <v>3000</v>
       </c>
       <c r="Z61" s="3">
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="AA61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E62" s="3">
         <v>1600</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>1700</v>
-      </c>
-      <c r="F62" s="3">
-        <v>1800</v>
       </c>
       <c r="G62" s="3">
         <v>1800</v>
       </c>
-      <c r="H62" s="3" t="s">
-        <v>5</v>
+      <c r="H62" s="3">
+        <v>1800</v>
       </c>
       <c r="I62" s="3" t="s">
         <v>5</v>
@@ -4480,18 +4626,18 @@
       <c r="N62" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O62" s="3">
+      <c r="O62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P62" s="3">
         <v>14600</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>14800</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>15000</v>
       </c>
-      <c r="R62" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="S62" s="3" t="s">
         <v>5</v>
       </c>
@@ -4501,8 +4647,8 @@
       <c r="U62" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="V62" s="3">
-        <v>0</v>
+      <c r="V62" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="W62" s="3">
         <v>0</v>
@@ -4519,8 +4665,11 @@
       <c r="AA62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4596,8 +4745,11 @@
       <c r="AA63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4673,8 +4825,11 @@
       <c r="AA64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4750,85 +4905,91 @@
       <c r="AA65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>17000</v>
+      </c>
+      <c r="E66" s="3">
         <v>17100</v>
-      </c>
-      <c r="E66" s="3">
-        <v>16800</v>
       </c>
       <c r="F66" s="3">
         <v>16800</v>
       </c>
       <c r="G66" s="3">
+        <v>16800</v>
+      </c>
+      <c r="H66" s="3">
         <v>19100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>19800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>19200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>19100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>33900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>23400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>32600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>23200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>33400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>33700</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>38200</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>20400</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>19400</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>17500</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>14900</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>14000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>10100</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>9900</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>9600</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>3600</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>3500</v>
       </c>
     </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4856,8 +5017,9 @@
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
-    </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB67" s="3"/>
+    </row>
+    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4933,8 +5095,11 @@
       <c r="AA68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5010,8 +5175,11 @@
       <c r="AA69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5043,7 +5211,7 @@
         <v>400</v>
       </c>
       <c r="M70" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="N70" s="3">
         <v>0</v>
@@ -5087,8 +5255,11 @@
       <c r="AA70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5164,85 +5335,91 @@
       <c r="AA71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-44100</v>
+      </c>
+      <c r="E72" s="3">
         <v>-44500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-44300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-44100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-46000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-47500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-44900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-42500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-57100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-46800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-55800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-45500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-35600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-35300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-33600</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-30500</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-28900</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-26500</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-23600</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-22400</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-14800</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-14700</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-15500</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>-21000</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>-20400</v>
       </c>
     </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5318,8 +5495,11 @@
       <c r="AA73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5395,8 +5575,11 @@
       <c r="AA74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5472,85 +5655,91 @@
       <c r="AA75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-10700</v>
+      </c>
+      <c r="E76" s="3">
         <v>-11000</v>
-      </c>
-      <c r="E76" s="3">
-        <v>-10700</v>
       </c>
       <c r="F76" s="3">
         <v>-10700</v>
       </c>
       <c r="G76" s="3">
+        <v>-10700</v>
+      </c>
+      <c r="H76" s="3">
         <v>-12900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-16100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-15600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-15800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-31000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-20800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-29800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-20000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-10000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-9700</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-9900</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-7700</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-6800</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>-4800</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>-3000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>-1800</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>5900</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>5400</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>4400</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>-3200</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>-2900</v>
       </c>
     </row>
-    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5626,167 +5815,176 @@
       <c r="AA77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43738</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43646</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43555</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43465</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43373</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43281</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43190</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43100</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43008</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42916</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42825</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42735</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-200</v>
+        <v>500</v>
       </c>
       <c r="E81" s="3">
         <v>-200</v>
       </c>
       <c r="F81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G81" s="3">
         <v>1900</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>1500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-2600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-2400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>14600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-11600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>9000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-10300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-9800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-1700</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-3100</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-8200</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-2400</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-2900</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-1200</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-1400</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-100</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-300</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>1900</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>-300</v>
       </c>
-      <c r="AA81" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB81" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5814,8 +6012,9 @@
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
-    </row>
-    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB82" s="3"/>
+    </row>
+    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5832,7 +6031,7 @@
         <v>100</v>
       </c>
       <c r="H83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I83" s="3">
         <v>0</v>
@@ -5841,10 +6040,10 @@
         <v>0</v>
       </c>
       <c r="K83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M83" s="3">
         <v>0</v>
@@ -5856,17 +6055,17 @@
         <v>0</v>
       </c>
       <c r="P83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q83" s="3">
         <v>100</v>
       </c>
       <c r="R83" s="3">
+        <v>100</v>
+      </c>
+      <c r="S83" s="3">
         <v>300</v>
       </c>
-      <c r="S83" s="3">
-        <v>100</v>
-      </c>
       <c r="T83" s="3">
         <v>100</v>
       </c>
@@ -5874,25 +6073,28 @@
         <v>100</v>
       </c>
       <c r="V83" s="3">
+        <v>100</v>
+      </c>
+      <c r="W83" s="3">
         <v>200</v>
       </c>
-      <c r="W83" s="3">
-        <v>100</v>
-      </c>
       <c r="X83" s="3">
         <v>100</v>
       </c>
       <c r="Y83" s="3">
         <v>100</v>
       </c>
-      <c r="Z83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA83" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="Z83" s="3">
+        <v>100</v>
+      </c>
+      <c r="AA83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5968,8 +6170,11 @@
       <c r="AA84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6045,8 +6250,11 @@
       <c r="AA85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6122,8 +6330,11 @@
       <c r="AA86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6199,8 +6410,11 @@
       <c r="AA87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6276,85 +6490,91 @@
       <c r="AA88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>800</v>
+      </c>
+      <c r="E89" s="3">
         <v>300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-500</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-900</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-1100</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-1500</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-800</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-400</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>200</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-4600</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-500</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>-400</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>-3100</v>
       </c>
-      <c r="Z89" s="3">
-        <v>0</v>
-      </c>
       <c r="AA89" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB89" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6382,8 +6602,9 @@
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
-    </row>
-    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB90" s="3"/>
+    </row>
+    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6396,8 +6617,8 @@
       <c r="F91" s="3">
         <v>-100</v>
       </c>
-      <c r="G91" s="3" t="s">
-        <v>5</v>
+      <c r="G91" s="3">
+        <v>-100</v>
       </c>
       <c r="H91" s="3" t="s">
         <v>5</v>
@@ -6417,12 +6638,12 @@
       <c r="M91" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N91" s="3">
+      <c r="N91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O91" s="3">
         <v>-100</v>
       </c>
-      <c r="O91" s="3">
-        <v>0</v>
-      </c>
       <c r="P91" s="3">
         <v>0</v>
       </c>
@@ -6430,37 +6651,40 @@
         <v>0</v>
       </c>
       <c r="R91" s="3">
+        <v>0</v>
+      </c>
+      <c r="S91" s="3">
         <v>-300</v>
       </c>
-      <c r="S91" s="3">
-        <v>0</v>
-      </c>
-      <c r="T91" s="3" t="s">
-        <v>5</v>
+      <c r="T91" s="3">
+        <v>0</v>
       </c>
       <c r="U91" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="V91" s="3">
+      <c r="V91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W91" s="3">
         <v>-400</v>
       </c>
-      <c r="W91" s="3">
-        <v>0</v>
-      </c>
       <c r="X91" s="3">
         <v>0</v>
       </c>
       <c r="Y91" s="3">
         <v>0</v>
       </c>
-      <c r="Z91" s="3" t="s">
-        <v>5</v>
+      <c r="Z91" s="3">
+        <v>0</v>
       </c>
       <c r="AA91" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB91" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6536,8 +6760,11 @@
       <c r="AA92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6613,8 +6840,11 @@
       <c r="AA93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -6628,20 +6858,20 @@
         <v>-100</v>
       </c>
       <c r="G94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H94" s="3">
+        <v>0</v>
+      </c>
+      <c r="I94" s="3">
         <v>-200</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-300</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-700</v>
       </c>
-      <c r="K94" s="3">
-        <v>0</v>
-      </c>
       <c r="L94" s="3">
         <v>0</v>
       </c>
@@ -6649,49 +6879,52 @@
         <v>0</v>
       </c>
       <c r="N94" s="3">
+        <v>0</v>
+      </c>
+      <c r="O94" s="3">
         <v>1200</v>
       </c>
-      <c r="O94" s="3">
-        <v>0</v>
-      </c>
       <c r="P94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q94" s="3">
         <v>3300</v>
       </c>
-      <c r="Q94" s="3">
-        <v>0</v>
-      </c>
       <c r="R94" s="3">
+        <v>0</v>
+      </c>
+      <c r="S94" s="3">
         <v>-1400</v>
       </c>
-      <c r="S94" s="3">
-        <v>0</v>
-      </c>
       <c r="T94" s="3">
+        <v>0</v>
+      </c>
+      <c r="U94" s="3">
         <v>-900</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-300</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>1400</v>
       </c>
-      <c r="W94" s="3">
-        <v>100</v>
-      </c>
       <c r="X94" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z94" s="3">
         <v>3300</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-100</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6719,8 +6952,9 @@
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
-    </row>
-    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB95" s="3"/>
+    </row>
+    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6796,8 +7030,11 @@
       <c r="AA96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6873,8 +7110,11 @@
       <c r="AA97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6950,8 +7190,11 @@
       <c r="AA98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7027,167 +7270,176 @@
       <c r="AA99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="E100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
         <v>200</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-300</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>400</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>300</v>
-      </c>
-      <c r="J100" s="3">
-        <v>400</v>
       </c>
       <c r="K100" s="3">
         <v>400</v>
       </c>
       <c r="L100" s="3">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="M100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N100" s="3">
+        <v>0</v>
+      </c>
+      <c r="O100" s="3">
         <v>-1000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>500</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-2500</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>1000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>3400</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>500</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>1800</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>200</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>3300</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>200</v>
       </c>
-      <c r="X100" s="3">
-        <v>100</v>
-      </c>
       <c r="Y100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z100" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA100" s="3">
         <v>200</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E101" s="3">
         <v>-200</v>
       </c>
-      <c r="E101" s="3">
-        <v>100</v>
-      </c>
       <c r="F101" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G101" s="3">
+        <v>0</v>
+      </c>
+      <c r="H101" s="3">
         <v>-100</v>
       </c>
-      <c r="H101" s="3">
-        <v>100</v>
-      </c>
       <c r="I101" s="3">
         <v>100</v>
       </c>
       <c r="J101" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K101" s="3">
         <v>0</v>
       </c>
       <c r="L101" s="3">
+        <v>0</v>
+      </c>
+      <c r="M101" s="3">
         <v>500</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-500</v>
       </c>
-      <c r="N101" s="3">
-        <v>100</v>
-      </c>
       <c r="O101" s="3">
+        <v>100</v>
+      </c>
+      <c r="P101" s="3">
         <v>-100</v>
       </c>
-      <c r="P101" s="3">
-        <v>100</v>
-      </c>
       <c r="Q101" s="3">
         <v>100</v>
       </c>
       <c r="R101" s="3">
+        <v>100</v>
+      </c>
+      <c r="S101" s="3">
         <v>-400</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>200</v>
-      </c>
-      <c r="T101" s="3">
-        <v>-100</v>
       </c>
       <c r="U101" s="3">
         <v>-100</v>
       </c>
       <c r="V101" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="W101" s="3">
+        <v>0</v>
+      </c>
+      <c r="X101" s="3">
         <v>300</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>200</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>-200</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>-100</v>
       </c>
-      <c r="AA101" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="E102" s="3">
         <v>0</v>
@@ -7202,13 +7454,13 @@
         <v>0</v>
       </c>
       <c r="I102" s="3">
+        <v>0</v>
+      </c>
+      <c r="J102" s="3">
         <v>-100</v>
       </c>
-      <c r="J102" s="3">
-        <v>100</v>
-      </c>
       <c r="K102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L102" s="3">
         <v>0</v>
@@ -7232,14 +7484,14 @@
         <v>0</v>
       </c>
       <c r="S102" s="3">
+        <v>0</v>
+      </c>
+      <c r="T102" s="3">
         <v>-300</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>300</v>
       </c>
-      <c r="U102" s="3">
-        <v>0</v>
-      </c>
       <c r="V102" s="3">
         <v>0</v>
       </c>
@@ -7247,15 +7499,18 @@
         <v>0</v>
       </c>
       <c r="X102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y102" s="3">
         <v>-100</v>
       </c>
-      <c r="Y102" s="3">
-        <v>100</v>
-      </c>
       <c r="Z102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AA102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/GRST_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GRST_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="92">
   <si>
     <t>GRST</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AB102"/>
+  <dimension ref="A5:AC102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,139 +665,142 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44104</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44012</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43921</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43830</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43738</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43646</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43555</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43465</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43373</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43281</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43190</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43100</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43008</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42916</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42825</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42735</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E8" s="3">
         <v>1400</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1100</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1000</v>
-      </c>
-      <c r="G8" s="3">
-        <v>900</v>
       </c>
       <c r="H8" s="3">
         <v>900</v>
       </c>
       <c r="I8" s="3">
-        <v>100</v>
+        <v>900</v>
       </c>
       <c r="J8" s="3">
         <v>100</v>
@@ -806,19 +809,19 @@
         <v>100</v>
       </c>
       <c r="L8" s="3">
+        <v>100</v>
+      </c>
+      <c r="M8" s="3">
         <v>300</v>
       </c>
-      <c r="M8" s="3">
-        <v>100</v>
-      </c>
       <c r="N8" s="3">
         <v>100</v>
       </c>
       <c r="O8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q8" s="3">
         <v>100</v>
@@ -827,37 +830,40 @@
         <v>100</v>
       </c>
       <c r="S8" s="3">
+        <v>100</v>
+      </c>
+      <c r="T8" s="3">
         <v>400</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>300</v>
       </c>
-      <c r="U8" s="3">
-        <v>100</v>
-      </c>
       <c r="V8" s="3">
         <v>100</v>
       </c>
       <c r="W8" s="3">
+        <v>100</v>
+      </c>
+      <c r="X8" s="3">
         <v>900</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>600</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>400</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>300</v>
       </c>
-      <c r="AA8" s="3">
-        <v>0</v>
-      </c>
       <c r="AB8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -936,8 +942,11 @@
       <c r="AB9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -1016,8 +1025,11 @@
       <c r="AB10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1046,8 +1058,9 @@
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC11" s="3"/>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1126,8 +1139,11 @@
       <c r="AB12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1206,55 +1222,58 @@
       <c r="AB13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>100</v>
+      </c>
+      <c r="E14" s="3">
         <v>-100</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
       <c r="F14" s="3">
         <v>0</v>
       </c>
       <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
         <v>-200</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
       <c r="I14" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J14" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
         <v>400</v>
-      </c>
-      <c r="L14" s="3">
-        <v>-12700</v>
       </c>
       <c r="M14" s="3">
         <v>-12700</v>
       </c>
       <c r="N14" s="3">
-        <v>0</v>
+        <v>-12700</v>
       </c>
       <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
         <v>900</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
-      </c>
       <c r="Q14" s="3">
-        <v>100</v>
-      </c>
-      <c r="R14" s="3" t="s">
-        <v>5</v>
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
+        <v>100</v>
       </c>
       <c r="S14" s="3" t="s">
         <v>5</v>
@@ -1268,8 +1287,8 @@
       <c r="V14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="W14" s="3">
-        <v>0</v>
+      <c r="W14" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="X14" s="3">
         <v>0</v>
@@ -1286,8 +1305,11 @@
       <c r="AB14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1307,7 +1329,7 @@
         <v>100</v>
       </c>
       <c r="I15" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J15" s="3">
         <v>0</v>
@@ -1316,10 +1338,10 @@
         <v>0</v>
       </c>
       <c r="L15" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M15" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N15" s="3">
         <v>0</v>
@@ -1331,17 +1353,17 @@
         <v>0</v>
       </c>
       <c r="Q15" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R15" s="3">
         <v>100</v>
       </c>
       <c r="S15" s="3">
+        <v>100</v>
+      </c>
+      <c r="T15" s="3">
         <v>300</v>
       </c>
-      <c r="T15" s="3">
-        <v>100</v>
-      </c>
       <c r="U15" s="3">
         <v>100</v>
       </c>
@@ -1349,25 +1371,28 @@
         <v>100</v>
       </c>
       <c r="W15" s="3">
+        <v>100</v>
+      </c>
+      <c r="X15" s="3">
         <v>200</v>
       </c>
-      <c r="X15" s="3">
-        <v>100</v>
-      </c>
       <c r="Y15" s="3">
         <v>100</v>
       </c>
       <c r="Z15" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB15" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="AA15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1393,168 +1418,175 @@
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
-    </row>
-    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC16" s="3"/>
+    </row>
+    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="E17" s="3">
         <v>1100</v>
       </c>
       <c r="F17" s="3">
+        <v>1100</v>
+      </c>
+      <c r="G17" s="3">
         <v>900</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>200</v>
       </c>
-      <c r="J17" s="3">
-        <v>100</v>
-      </c>
       <c r="K17" s="3">
+        <v>100</v>
+      </c>
+      <c r="L17" s="3">
         <v>500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>-12300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>-12600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1100</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1200</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1600</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1500</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>3300</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>1200</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>800</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>500</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>2400</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>500</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>400</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>900</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>800</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>0</v>
+      </c>
+      <c r="E18" s="3">
         <v>300</v>
       </c>
-      <c r="E18" s="3">
-        <v>0</v>
-      </c>
       <c r="F18" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G18" s="3">
+        <v>100</v>
+      </c>
+      <c r="H18" s="3">
         <v>-100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-100</v>
       </c>
-      <c r="J18" s="3">
-        <v>0</v>
-      </c>
       <c r="K18" s="3">
+        <v>0</v>
+      </c>
+      <c r="L18" s="3">
         <v>-400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>12600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>12700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-100</v>
-      </c>
-      <c r="O18" s="3">
-        <v>-1100</v>
       </c>
       <c r="P18" s="3">
         <v>-1100</v>
       </c>
       <c r="Q18" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="R18" s="3">
         <v>-1500</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-1400</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-2900</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-900</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-700</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-400</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-1500</v>
       </c>
-      <c r="X18" s="3">
-        <v>100</v>
-      </c>
       <c r="Y18" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z18" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA18" s="3">
         <v>-600</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>-800</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1583,168 +1615,175 @@
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
-    </row>
-    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC19" s="3"/>
+    </row>
+    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>400</v>
+      </c>
+      <c r="E20" s="3">
         <v>500</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>200</v>
       </c>
-      <c r="F20" s="3">
-        <v>100</v>
-      </c>
       <c r="G20" s="3">
+        <v>100</v>
+      </c>
+      <c r="H20" s="3">
         <v>2100</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>1700</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-1300</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-1600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>15400</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-22900</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-3300</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-9600</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-7800</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>2000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>900</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-600</v>
       </c>
-      <c r="S20" s="3">
-        <v>0</v>
-      </c>
       <c r="T20" s="3">
+        <v>0</v>
+      </c>
+      <c r="U20" s="3">
         <v>-100</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-700</v>
       </c>
-      <c r="V20" s="3">
-        <v>100</v>
-      </c>
       <c r="W20" s="3">
+        <v>100</v>
+      </c>
+      <c r="X20" s="3">
         <v>-6300</v>
       </c>
-      <c r="X20" s="3">
-        <v>100</v>
-      </c>
       <c r="Y20" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z20" s="3">
         <v>-100</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>-4800</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>-200</v>
       </c>
-      <c r="AB20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>600</v>
+      </c>
+      <c r="E21" s="3">
         <v>900</v>
-      </c>
-      <c r="E21" s="3">
-        <v>300</v>
       </c>
       <c r="F21" s="3">
         <v>300</v>
       </c>
       <c r="G21" s="3">
+        <v>300</v>
+      </c>
+      <c r="H21" s="3">
         <v>2200</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>2000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-1300</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-1600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>15000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-10200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>9400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-9600</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-8800</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>1000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-600</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-1900</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-2600</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-900</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-1300</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-200</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>-7600</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>200</v>
       </c>
-      <c r="Y21" s="3">
-        <v>0</v>
-      </c>
       <c r="Z21" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA21" s="3">
         <v>-5400</v>
       </c>
-      <c r="AA21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB21" s="3">
+      <c r="AB21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC21" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1758,153 +1797,159 @@
         <v>300</v>
       </c>
       <c r="G22" s="3">
+        <v>300</v>
+      </c>
+      <c r="H22" s="3">
         <v>400</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>300</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>1300</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>800</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>400</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>1200</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>300</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>700</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>1000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>1300</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>1000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>1100</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>5200</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>1400</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>1500</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>900</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>400</v>
       </c>
-      <c r="X22" s="3">
-        <v>100</v>
-      </c>
       <c r="Y22" s="3">
         <v>100</v>
       </c>
       <c r="Z22" s="3">
+        <v>100</v>
+      </c>
+      <c r="AA22" s="3">
         <v>300</v>
       </c>
-      <c r="AA22" s="3">
-        <v>0</v>
-      </c>
       <c r="AB22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>200</v>
+      </c>
+      <c r="E23" s="3">
         <v>600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>1600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>1500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-2600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-2400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>14600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-11500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>9000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-10300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-9800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-1700</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-3100</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-8100</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-2400</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-2900</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-1200</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-8200</v>
       </c>
-      <c r="X23" s="3">
-        <v>100</v>
-      </c>
       <c r="Y23" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z23" s="3">
         <v>-200</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>-5700</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>-1000</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1918,22 +1963,22 @@
         <v>0</v>
       </c>
       <c r="G24" s="3">
+        <v>0</v>
+      </c>
+      <c r="H24" s="3">
         <v>-300</v>
       </c>
-      <c r="H24" s="3">
-        <v>0</v>
-      </c>
       <c r="I24" s="3">
         <v>0</v>
       </c>
       <c r="J24" s="3">
         <v>0</v>
       </c>
-      <c r="K24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L24" s="3">
-        <v>0</v>
+      <c r="K24" s="3">
+        <v>0</v>
+      </c>
+      <c r="L24" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="M24" s="3">
         <v>0</v>
@@ -1954,10 +1999,10 @@
         <v>0</v>
       </c>
       <c r="S24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U24" s="3">
         <v>0</v>
@@ -1983,8 +2028,11 @@
       <c r="AB24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2063,168 +2111,177 @@
       <c r="AB25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>100</v>
+      </c>
+      <c r="E26" s="3">
         <v>500</v>
-      </c>
-      <c r="E26" s="3">
-        <v>-200</v>
       </c>
       <c r="F26" s="3">
         <v>-200</v>
       </c>
       <c r="G26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="H26" s="3">
         <v>1900</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>1500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-2600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-2400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>14600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-11500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>9000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-10300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-9800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-1700</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-3100</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-8200</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-2400</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-2900</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-1200</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-8200</v>
       </c>
-      <c r="X26" s="3">
-        <v>100</v>
-      </c>
       <c r="Y26" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z26" s="3">
         <v>-200</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>-5700</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>-1000</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>100</v>
+      </c>
+      <c r="E27" s="3">
         <v>500</v>
-      </c>
-      <c r="E27" s="3">
-        <v>-200</v>
       </c>
       <c r="F27" s="3">
         <v>-200</v>
       </c>
       <c r="G27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="H27" s="3">
         <v>1900</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>1500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-2600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-2400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>14600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-11600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>9000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-10300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-9800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-400</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-1700</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-3100</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-8200</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-2400</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-2900</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-1200</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-8200</v>
       </c>
-      <c r="X27" s="3">
-        <v>100</v>
-      </c>
       <c r="Y27" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z27" s="3">
         <v>-200</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>-5700</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>-1000</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2303,8 +2360,11 @@
       <c r="AB28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2347,14 +2407,14 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-      <c r="Q29" s="3" t="s">
-        <v>5</v>
+      <c r="Q29" s="3">
+        <v>0</v>
       </c>
       <c r="R29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="S29" s="3">
-        <v>0</v>
+      <c r="S29" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="T29" s="3">
         <v>0</v>
@@ -2366,25 +2426,28 @@
         <v>0</v>
       </c>
       <c r="W29" s="3">
+        <v>0</v>
+      </c>
+      <c r="X29" s="3">
         <v>6800</v>
       </c>
-      <c r="X29" s="3">
+      <c r="Y29" s="3">
         <v>-200</v>
       </c>
-      <c r="Y29" s="3">
+      <c r="Z29" s="3">
         <v>-100</v>
       </c>
-      <c r="Z29" s="3">
+      <c r="AA29" s="3">
         <v>7600</v>
       </c>
-      <c r="AA29" s="3">
+      <c r="AB29" s="3">
         <v>700</v>
       </c>
-      <c r="AB29" s="3">
+      <c r="AC29" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2463,8 +2526,11 @@
       <c r="AB30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2543,168 +2609,177 @@
       <c r="AB31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E32" s="3">
         <v>-500</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-200</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-100</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-2100</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-1700</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>1300</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>1600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-15400</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>22900</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>3300</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>9600</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>7800</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-2000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-900</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>600</v>
       </c>
-      <c r="S32" s="3">
-        <v>0</v>
-      </c>
       <c r="T32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U32" s="3">
+        <v>100</v>
+      </c>
+      <c r="V32" s="3">
         <v>700</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-100</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>6300</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-100</v>
       </c>
-      <c r="Y32" s="3">
-        <v>100</v>
-      </c>
       <c r="Z32" s="3">
+        <v>100</v>
+      </c>
+      <c r="AA32" s="3">
         <v>4800</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>200</v>
       </c>
-      <c r="AB32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>100</v>
+      </c>
+      <c r="E33" s="3">
         <v>500</v>
-      </c>
-      <c r="E33" s="3">
-        <v>-200</v>
       </c>
       <c r="F33" s="3">
         <v>-200</v>
       </c>
       <c r="G33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="H33" s="3">
         <v>1900</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>1500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-2600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-2400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>14600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-11600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>9000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-10300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-9800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-400</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-1700</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-3100</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-8200</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-2400</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-2900</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-1200</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-1400</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-100</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-300</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>1900</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>-300</v>
       </c>
-      <c r="AB33" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC33" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2783,173 +2858,182 @@
       <c r="AB34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>100</v>
+      </c>
+      <c r="E35" s="3">
         <v>500</v>
-      </c>
-      <c r="E35" s="3">
-        <v>-200</v>
       </c>
       <c r="F35" s="3">
         <v>-200</v>
       </c>
       <c r="G35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="H35" s="3">
         <v>1900</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>1500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-2600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-2400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>14600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-11600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>9000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-10300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-9800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-400</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-1700</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-3100</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-8200</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-2400</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-2900</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-1200</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-1400</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-100</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-300</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>1900</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>-300</v>
       </c>
-      <c r="AB35" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC35" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44104</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44012</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43921</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43830</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43738</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43646</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43555</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43465</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43373</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43281</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43190</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43100</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43008</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42916</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42825</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42735</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2978,8 +3062,9 @@
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
-    </row>
-    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC39" s="3"/>
+    </row>
+    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3008,37 +3093,38 @@
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
-    </row>
-    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC40" s="3"/>
+    </row>
+    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>100</v>
+      </c>
+      <c r="E41" s="3">
         <v>600</v>
       </c>
-      <c r="E41" s="3">
-        <v>100</v>
-      </c>
       <c r="F41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G41" s="3">
         <v>0</v>
       </c>
       <c r="H41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J41" s="3">
         <v>0</v>
       </c>
       <c r="K41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M41" s="3">
         <v>0</v>
@@ -3062,14 +3148,14 @@
         <v>0</v>
       </c>
       <c r="T41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U41" s="3">
+        <v>100</v>
+      </c>
+      <c r="V41" s="3">
         <v>300</v>
       </c>
-      <c r="V41" s="3">
-        <v>0</v>
-      </c>
       <c r="W41" s="3">
         <v>0</v>
       </c>
@@ -3080,16 +3166,19 @@
         <v>0</v>
       </c>
       <c r="Z41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AA41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AB41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3102,24 +3191,24 @@
       <c r="F42" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G42" s="3">
-        <v>0</v>
+      <c r="G42" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="H42" s="3">
         <v>0</v>
       </c>
       <c r="I42" s="3">
+        <v>0</v>
+      </c>
+      <c r="J42" s="3">
         <v>1200</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>1000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>700</v>
       </c>
-      <c r="L42" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="M42" s="3" t="s">
         <v>5</v>
       </c>
@@ -3135,8 +3224,8 @@
       <c r="Q42" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="R42" s="3">
-        <v>0</v>
+      <c r="R42" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="S42" s="3">
         <v>0</v>
@@ -3168,8 +3257,11 @@
       <c r="AB42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3183,13 +3275,13 @@
         <v>300</v>
       </c>
       <c r="G43" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="H43" s="3">
         <v>200</v>
       </c>
       <c r="I43" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="J43" s="3">
         <v>0</v>
@@ -3204,52 +3296,55 @@
         <v>0</v>
       </c>
       <c r="N43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O43" s="3">
         <v>100</v>
       </c>
       <c r="P43" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q43" s="3">
         <v>200</v>
-      </c>
-      <c r="Q43" s="3">
-        <v>300</v>
       </c>
       <c r="R43" s="3">
         <v>300</v>
       </c>
       <c r="S43" s="3">
+        <v>300</v>
+      </c>
+      <c r="T43" s="3">
         <v>200</v>
       </c>
-      <c r="T43" s="3">
-        <v>100</v>
-      </c>
       <c r="U43" s="3">
         <v>100</v>
       </c>
       <c r="V43" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="W43" s="3">
         <v>200</v>
       </c>
       <c r="X43" s="3">
+        <v>200</v>
+      </c>
+      <c r="Y43" s="3">
         <v>1000</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>600</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>300</v>
       </c>
-      <c r="AA43" s="3">
-        <v>100</v>
-      </c>
       <c r="AB43" s="3">
+        <v>100</v>
+      </c>
+      <c r="AC43" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3328,8 +3423,11 @@
       <c r="AB44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3340,7 +3438,7 @@
         <v>100</v>
       </c>
       <c r="F45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G45" s="3">
         <v>0</v>
@@ -3349,52 +3447,52 @@
         <v>0</v>
       </c>
       <c r="I45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J45" s="3">
         <v>100</v>
       </c>
       <c r="K45" s="3">
+        <v>100</v>
+      </c>
+      <c r="L45" s="3">
         <v>200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>500</v>
-      </c>
-      <c r="M45" s="3">
-        <v>200</v>
       </c>
       <c r="N45" s="3">
         <v>200</v>
       </c>
       <c r="O45" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="P45" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="Q45" s="3">
         <v>200</v>
       </c>
       <c r="R45" s="3">
+        <v>200</v>
+      </c>
+      <c r="S45" s="3">
         <v>2000</v>
       </c>
-      <c r="S45" s="3">
-        <v>100</v>
-      </c>
       <c r="T45" s="3">
         <v>100</v>
       </c>
       <c r="U45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W45" s="3">
         <v>100</v>
       </c>
       <c r="X45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y45" s="3">
         <v>0</v>
@@ -3403,93 +3501,99 @@
         <v>0</v>
       </c>
       <c r="AA45" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB45" s="3">
         <v>200</v>
       </c>
-      <c r="AB45" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC45" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>500</v>
+      </c>
+      <c r="E46" s="3">
         <v>1000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>500</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>400</v>
-      </c>
-      <c r="G46" s="3">
-        <v>300</v>
       </c>
       <c r="H46" s="3">
         <v>300</v>
       </c>
       <c r="I46" s="3">
+        <v>300</v>
+      </c>
+      <c r="J46" s="3">
         <v>1300</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>500</v>
-      </c>
-      <c r="M46" s="3">
-        <v>200</v>
       </c>
       <c r="N46" s="3">
         <v>200</v>
       </c>
       <c r="O46" s="3">
+        <v>200</v>
+      </c>
+      <c r="P46" s="3">
         <v>300</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>400</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>600</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>2400</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>400</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>300</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>500</v>
-      </c>
-      <c r="V46" s="3">
-        <v>300</v>
       </c>
       <c r="W46" s="3">
         <v>300</v>
       </c>
       <c r="X46" s="3">
+        <v>300</v>
+      </c>
+      <c r="Y46" s="3">
         <v>1000</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>600</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>400</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>300</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3559,17 +3663,20 @@
       <c r="Y47" s="3">
         <v>0</v>
       </c>
-      <c r="Z47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA47" s="3">
-        <v>100</v>
-      </c>
-      <c r="AB47" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="Z47" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA47" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB47" s="3">
+        <v>100</v>
+      </c>
+      <c r="AC47" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3577,10 +3684,10 @@
         <v>4400</v>
       </c>
       <c r="E48" s="3">
+        <v>4400</v>
+      </c>
+      <c r="F48" s="3">
         <v>4600</v>
-      </c>
-      <c r="F48" s="3">
-        <v>4700</v>
       </c>
       <c r="G48" s="3">
         <v>4700</v>
@@ -3589,7 +3696,7 @@
         <v>4700</v>
       </c>
       <c r="I48" s="3">
-        <v>2900</v>
+        <v>4700</v>
       </c>
       <c r="J48" s="3">
         <v>2900</v>
@@ -3598,28 +3705,28 @@
         <v>2900</v>
       </c>
       <c r="L48" s="3">
-        <v>2800</v>
+        <v>2900</v>
       </c>
       <c r="M48" s="3">
         <v>2800</v>
       </c>
       <c r="N48" s="3">
+        <v>2800</v>
+      </c>
+      <c r="O48" s="3">
         <v>2700</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>3000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>20100</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>20400</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>22900</v>
-      </c>
-      <c r="S48" s="3">
-        <v>8900</v>
       </c>
       <c r="T48" s="3">
         <v>8900</v>
@@ -3628,28 +3735,31 @@
         <v>8900</v>
       </c>
       <c r="V48" s="3">
+        <v>8900</v>
+      </c>
+      <c r="W48" s="3">
         <v>9000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>9200</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>12200</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>12000</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>10800</v>
       </c>
-      <c r="AA48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB48" s="3">
+      <c r="AB48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC48" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3657,20 +3767,20 @@
         <v>1300</v>
       </c>
       <c r="E49" s="3">
+        <v>1300</v>
+      </c>
+      <c r="F49" s="3">
         <v>1400</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>1500</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>1600</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>1700</v>
       </c>
-      <c r="I49" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="J49" s="3" t="s">
         <v>5</v>
       </c>
@@ -3686,8 +3796,8 @@
       <c r="N49" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O49" s="3">
-        <v>0</v>
+      <c r="O49" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="P49" s="3">
         <v>0</v>
@@ -3710,11 +3820,11 @@
       <c r="V49" s="3">
         <v>0</v>
       </c>
-      <c r="W49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X49" s="3">
-        <v>1400</v>
+      <c r="W49" s="3">
+        <v>0</v>
+      </c>
+      <c r="X49" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="Y49" s="3">
         <v>1400</v>
@@ -3722,14 +3832,17 @@
       <c r="Z49" s="3">
         <v>1400</v>
       </c>
-      <c r="AA49" s="3" t="s">
-        <v>5</v>
+      <c r="AA49" s="3">
+        <v>1400</v>
       </c>
       <c r="AB49" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC49" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3808,8 +3921,11 @@
       <c r="AB50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3888,13 +4004,16 @@
       <c r="AB51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E52" s="3">
         <v>0</v>
@@ -3930,7 +4049,7 @@
         <v>0</v>
       </c>
       <c r="P52" s="3">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="Q52" s="3">
         <v>3000</v>
@@ -3939,37 +4058,40 @@
         <v>3000</v>
       </c>
       <c r="S52" s="3">
+        <v>3000</v>
+      </c>
+      <c r="T52" s="3">
         <v>3300</v>
-      </c>
-      <c r="T52" s="3">
-        <v>3400</v>
       </c>
       <c r="U52" s="3">
         <v>3400</v>
       </c>
       <c r="V52" s="3">
+        <v>3400</v>
+      </c>
+      <c r="W52" s="3">
         <v>2600</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>2800</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>1400</v>
-      </c>
-      <c r="Y52" s="3">
-        <v>1300</v>
       </c>
       <c r="Z52" s="3">
         <v>1300</v>
       </c>
       <c r="AA52" s="3">
-        <v>100</v>
+        <v>1300</v>
       </c>
       <c r="AB52" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC52" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4048,88 +4170,94 @@
       <c r="AB53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>6600</v>
+      </c>
+      <c r="E54" s="3">
         <v>6700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>6500</v>
-      </c>
-      <c r="F54" s="3">
-        <v>6600</v>
       </c>
       <c r="G54" s="3">
         <v>6600</v>
       </c>
       <c r="H54" s="3">
+        <v>6600</v>
+      </c>
+      <c r="I54" s="3">
         <v>6700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>4200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>4100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>3800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>3300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>3000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>2900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>3200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>23500</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>24000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>28300</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>12700</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>12600</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>12800</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>11900</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>12300</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>16000</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>15300</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>13900</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>500</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4158,8 +4286,9 @@
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
-    </row>
-    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC55" s="3"/>
+    </row>
+    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4188,13 +4317,14 @@
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
-    </row>
-    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC56" s="3"/>
+    </row>
+    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="E57" s="3">
         <v>400</v>
@@ -4206,10 +4336,10 @@
         <v>400</v>
       </c>
       <c r="H57" s="3">
+        <v>400</v>
+      </c>
+      <c r="I57" s="3">
         <v>900</v>
-      </c>
-      <c r="I57" s="3">
-        <v>800</v>
       </c>
       <c r="J57" s="3">
         <v>800</v>
@@ -4224,31 +4354,31 @@
         <v>800</v>
       </c>
       <c r="N57" s="3">
+        <v>800</v>
+      </c>
+      <c r="O57" s="3">
         <v>900</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>2200</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1800</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>1600</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>1100</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>700</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>300</v>
-      </c>
-      <c r="V57" s="3">
-        <v>400</v>
       </c>
       <c r="W57" s="3">
         <v>400</v>
@@ -4260,264 +4390,276 @@
         <v>400</v>
       </c>
       <c r="Z57" s="3">
+        <v>400</v>
+      </c>
+      <c r="AA57" s="3">
         <v>500</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>400</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>12000</v>
+      </c>
+      <c r="E58" s="3">
         <v>11800</v>
-      </c>
-      <c r="E58" s="3">
-        <v>11900</v>
       </c>
       <c r="F58" s="3">
         <v>11900</v>
       </c>
       <c r="G58" s="3">
+        <v>11900</v>
+      </c>
+      <c r="H58" s="3">
         <v>11600</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>11900</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>8200</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>7800</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>7400</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>7500</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>7300</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>8300</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>8100</v>
-      </c>
-      <c r="P58" s="3">
-        <v>7700</v>
       </c>
       <c r="Q58" s="3">
         <v>7700</v>
       </c>
       <c r="R58" s="3">
+        <v>7700</v>
+      </c>
+      <c r="S58" s="3">
         <v>10400</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>7200</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>6100</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>4800</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>3500</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>2900</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>2000</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>6000</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>5500</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>500</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AC58" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E59" s="3">
         <v>1900</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1400</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>3000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>5500</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>5300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>5600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>20500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>10200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>19200</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>9500</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>4300</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>5500</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>7200</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>5400</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>5600</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>5400</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>4000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>3500</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>600</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>500</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>600</v>
-      </c>
-      <c r="AA59" s="3">
-        <v>2800</v>
       </c>
       <c r="AB59" s="3">
         <v>2800</v>
       </c>
-    </row>
-    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC59" s="3">
+        <v>2800</v>
+      </c>
+    </row>
+    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>14000</v>
+        <v>13300</v>
       </c>
       <c r="E60" s="3">
         <v>14000</v>
       </c>
       <c r="F60" s="3">
+        <v>14000</v>
+      </c>
+      <c r="G60" s="3">
         <v>13700</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>13500</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>15700</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>14500</v>
-      </c>
-      <c r="J60" s="3">
-        <v>13900</v>
       </c>
       <c r="K60" s="3">
         <v>13900</v>
       </c>
       <c r="L60" s="3">
+        <v>13900</v>
+      </c>
+      <c r="M60" s="3">
         <v>28800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>18300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>28400</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>18600</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>14200</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>15000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>19200</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>13700</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>12400</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>10600</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>7900</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>6900</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>2900</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>6900</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>6600</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>3600</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>3400</v>
       </c>
     </row>
-    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>700</v>
+      </c>
+      <c r="E61" s="3">
         <v>600</v>
-      </c>
-      <c r="E61" s="3">
-        <v>700</v>
       </c>
       <c r="F61" s="3">
         <v>700</v>
@@ -4529,7 +4671,7 @@
         <v>700</v>
       </c>
       <c r="I61" s="3">
-        <v>4600</v>
+        <v>700</v>
       </c>
       <c r="J61" s="3">
         <v>4600</v>
@@ -4538,78 +4680,81 @@
         <v>4600</v>
       </c>
       <c r="L61" s="3">
-        <v>4400</v>
+        <v>4600</v>
       </c>
       <c r="M61" s="3">
         <v>4400</v>
       </c>
       <c r="N61" s="3">
+        <v>4400</v>
+      </c>
+      <c r="O61" s="3">
         <v>4300</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>4700</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>4600</v>
-      </c>
-      <c r="Q61" s="3">
-        <v>3900</v>
       </c>
       <c r="R61" s="3">
         <v>3900</v>
       </c>
       <c r="S61" s="3">
+        <v>3900</v>
+      </c>
+      <c r="T61" s="3">
         <v>6700</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>7000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>6900</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>7000</v>
-      </c>
-      <c r="W61" s="3">
-        <v>7200</v>
       </c>
       <c r="X61" s="3">
         <v>7200</v>
       </c>
       <c r="Y61" s="3">
-        <v>3000</v>
+        <v>7200</v>
       </c>
       <c r="Z61" s="3">
         <v>3000</v>
       </c>
       <c r="AA61" s="3">
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="AB61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E62" s="3">
         <v>1500</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>1600</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>1700</v>
-      </c>
-      <c r="G62" s="3">
-        <v>1800</v>
       </c>
       <c r="H62" s="3">
         <v>1800</v>
       </c>
-      <c r="I62" s="3" t="s">
-        <v>5</v>
+      <c r="I62" s="3">
+        <v>1800</v>
       </c>
       <c r="J62" s="3" t="s">
         <v>5</v>
@@ -4629,18 +4774,18 @@
       <c r="O62" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P62" s="3">
+      <c r="P62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q62" s="3">
         <v>14600</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>14800</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>15000</v>
       </c>
-      <c r="S62" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="T62" s="3" t="s">
         <v>5</v>
       </c>
@@ -4650,8 +4795,8 @@
       <c r="V62" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="W62" s="3">
-        <v>0</v>
+      <c r="W62" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="X62" s="3">
         <v>0</v>
@@ -4668,8 +4813,11 @@
       <c r="AB62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4748,8 +4896,11 @@
       <c r="AB63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4828,8 +4979,11 @@
       <c r="AB64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4908,88 +5062,94 @@
       <c r="AB65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>16300</v>
+      </c>
+      <c r="E66" s="3">
         <v>17000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>17100</v>
-      </c>
-      <c r="F66" s="3">
-        <v>16800</v>
       </c>
       <c r="G66" s="3">
         <v>16800</v>
       </c>
       <c r="H66" s="3">
+        <v>16800</v>
+      </c>
+      <c r="I66" s="3">
         <v>19100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>19800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>19200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>19100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>33900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>23400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>32600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>23200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>33400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>33700</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>38200</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>20400</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>19400</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>17500</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>14900</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>14000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>10100</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>9900</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>9600</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>3600</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>3500</v>
       </c>
     </row>
-    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5018,8 +5178,9 @@
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
-    </row>
-    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC67" s="3"/>
+    </row>
+    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5098,8 +5259,11 @@
       <c r="AB68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5178,8 +5342,11 @@
       <c r="AB69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5214,7 +5381,7 @@
         <v>400</v>
       </c>
       <c r="N70" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="O70" s="3">
         <v>0</v>
@@ -5258,8 +5425,11 @@
       <c r="AB70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5338,88 +5508,94 @@
       <c r="AB71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-43500</v>
+      </c>
+      <c r="E72" s="3">
         <v>-44100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-44500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-44300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-44100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-46000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-47500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-44900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-42500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-57100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-46800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-55800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-45500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-35600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-35300</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-33600</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-30500</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-28900</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-26500</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-23600</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-22400</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-14800</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-14700</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>-15500</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>-21000</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>-20400</v>
       </c>
     </row>
-    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5498,8 +5674,11 @@
       <c r="AB73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5578,8 +5757,11 @@
       <c r="AB74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5658,88 +5840,94 @@
       <c r="AB75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-10100</v>
+      </c>
+      <c r="E76" s="3">
         <v>-10700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-11000</v>
-      </c>
-      <c r="F76" s="3">
-        <v>-10700</v>
       </c>
       <c r="G76" s="3">
         <v>-10700</v>
       </c>
       <c r="H76" s="3">
+        <v>-10700</v>
+      </c>
+      <c r="I76" s="3">
         <v>-12900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-16100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-15600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-15800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-31000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-20800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-29800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-20000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-10000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-9700</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-9900</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-7700</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>-6800</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>-4800</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>-3000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>-1800</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>5900</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>5400</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>4400</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>-3200</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>-2900</v>
       </c>
     </row>
-    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5818,173 +6006,182 @@
       <c r="AB77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44104</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44012</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43921</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43830</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43738</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43646</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43555</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43465</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43373</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43281</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43190</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43100</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43008</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42916</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42825</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42735</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>100</v>
+      </c>
+      <c r="E81" s="3">
         <v>500</v>
-      </c>
-      <c r="E81" s="3">
-        <v>-200</v>
       </c>
       <c r="F81" s="3">
         <v>-200</v>
       </c>
       <c r="G81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="H81" s="3">
         <v>1900</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>1500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-2600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-2400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>14600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-11600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>9000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-10300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-9800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-400</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-1700</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-3100</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-8200</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-2400</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-2900</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-1200</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-1400</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-100</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-300</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>1900</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>-300</v>
       </c>
-      <c r="AB81" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC81" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6013,8 +6210,9 @@
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
-    </row>
-    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC82" s="3"/>
+    </row>
+    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6034,7 +6232,7 @@
         <v>100</v>
       </c>
       <c r="I83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J83" s="3">
         <v>0</v>
@@ -6043,10 +6241,10 @@
         <v>0</v>
       </c>
       <c r="L83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N83" s="3">
         <v>0</v>
@@ -6058,17 +6256,17 @@
         <v>0</v>
       </c>
       <c r="Q83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R83" s="3">
         <v>100</v>
       </c>
       <c r="S83" s="3">
+        <v>100</v>
+      </c>
+      <c r="T83" s="3">
         <v>300</v>
       </c>
-      <c r="T83" s="3">
-        <v>100</v>
-      </c>
       <c r="U83" s="3">
         <v>100</v>
       </c>
@@ -6076,25 +6274,28 @@
         <v>100</v>
       </c>
       <c r="W83" s="3">
+        <v>100</v>
+      </c>
+      <c r="X83" s="3">
         <v>200</v>
       </c>
-      <c r="X83" s="3">
-        <v>100</v>
-      </c>
       <c r="Y83" s="3">
         <v>100</v>
       </c>
       <c r="Z83" s="3">
         <v>100</v>
       </c>
-      <c r="AA83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB83" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AA83" s="3">
+        <v>100</v>
+      </c>
+      <c r="AB83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6173,8 +6374,11 @@
       <c r="AB84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6253,8 +6457,11 @@
       <c r="AB85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6333,8 +6540,11 @@
       <c r="AB86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6413,8 +6623,11 @@
       <c r="AB87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6493,88 +6706,94 @@
       <c r="AB88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>600</v>
+      </c>
+      <c r="E89" s="3">
         <v>800</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>500</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-400</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-500</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-900</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-1100</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-1500</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-800</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-400</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>200</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-4600</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>-500</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>-400</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>-3100</v>
       </c>
-      <c r="AA89" s="3">
-        <v>0</v>
-      </c>
       <c r="AB89" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC89" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6603,13 +6822,14 @@
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
-    </row>
-    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC90" s="3"/>
+    </row>
+    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="E91" s="3">
         <v>-100</v>
@@ -6620,14 +6840,14 @@
       <c r="G91" s="3">
         <v>-100</v>
       </c>
-      <c r="H91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J91" s="3" t="s">
-        <v>5</v>
+      <c r="H91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I91" s="3">
+        <v>0</v>
+      </c>
+      <c r="J91" s="3">
+        <v>0</v>
       </c>
       <c r="K91" s="3" t="s">
         <v>5</v>
@@ -6641,12 +6861,12 @@
       <c r="N91" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O91" s="3">
+      <c r="O91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P91" s="3">
         <v>-100</v>
       </c>
-      <c r="P91" s="3">
-        <v>0</v>
-      </c>
       <c r="Q91" s="3">
         <v>0</v>
       </c>
@@ -6654,37 +6874,40 @@
         <v>0</v>
       </c>
       <c r="S91" s="3">
+        <v>0</v>
+      </c>
+      <c r="T91" s="3">
         <v>-300</v>
       </c>
-      <c r="T91" s="3">
-        <v>0</v>
-      </c>
-      <c r="U91" s="3" t="s">
-        <v>5</v>
+      <c r="U91" s="3">
+        <v>0</v>
       </c>
       <c r="V91" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="W91" s="3">
+      <c r="W91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X91" s="3">
         <v>-400</v>
       </c>
-      <c r="X91" s="3">
-        <v>0</v>
-      </c>
       <c r="Y91" s="3">
         <v>0</v>
       </c>
       <c r="Z91" s="3">
         <v>0</v>
       </c>
-      <c r="AA91" s="3" t="s">
-        <v>5</v>
+      <c r="AA91" s="3">
+        <v>0</v>
       </c>
       <c r="AB91" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC91" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6763,8 +6986,11 @@
       <c r="AB92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6843,13 +7069,16 @@
       <c r="AB93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-100</v>
+        <v>-400</v>
       </c>
       <c r="E94" s="3">
         <v>-100</v>
@@ -6861,20 +7090,20 @@
         <v>-100</v>
       </c>
       <c r="H94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I94" s="3">
+        <v>0</v>
+      </c>
+      <c r="J94" s="3">
         <v>-200</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-700</v>
       </c>
-      <c r="L94" s="3">
-        <v>0</v>
-      </c>
       <c r="M94" s="3">
         <v>0</v>
       </c>
@@ -6882,49 +7111,52 @@
         <v>0</v>
       </c>
       <c r="O94" s="3">
+        <v>0</v>
+      </c>
+      <c r="P94" s="3">
         <v>1200</v>
       </c>
-      <c r="P94" s="3">
-        <v>0</v>
-      </c>
       <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+      <c r="R94" s="3">
         <v>3300</v>
       </c>
-      <c r="R94" s="3">
-        <v>0</v>
-      </c>
       <c r="S94" s="3">
+        <v>0</v>
+      </c>
+      <c r="T94" s="3">
         <v>-1400</v>
       </c>
-      <c r="T94" s="3">
-        <v>0</v>
-      </c>
       <c r="U94" s="3">
+        <v>0</v>
+      </c>
+      <c r="V94" s="3">
         <v>-900</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-300</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>1400</v>
       </c>
-      <c r="X94" s="3">
-        <v>100</v>
-      </c>
       <c r="Y94" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z94" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA94" s="3">
         <v>3300</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-100</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6953,8 +7185,9 @@
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
-    </row>
-    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC95" s="3"/>
+    </row>
+    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7033,8 +7266,11 @@
       <c r="AB96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7113,8 +7349,11 @@
       <c r="AB97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7193,8 +7432,11 @@
       <c r="AB98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7273,177 +7515,186 @@
       <c r="AB99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E100" s="3">
         <v>300</v>
       </c>
-      <c r="E100" s="3">
-        <v>100</v>
-      </c>
       <c r="F100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
         <v>200</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-300</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>400</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>300</v>
-      </c>
-      <c r="K100" s="3">
-        <v>400</v>
       </c>
       <c r="L100" s="3">
         <v>400</v>
       </c>
       <c r="M100" s="3">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="N100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O100" s="3">
+        <v>0</v>
+      </c>
+      <c r="P100" s="3">
         <v>-1000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>500</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-2500</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>1000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>3400</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>500</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>1800</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>200</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>3300</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>200</v>
       </c>
-      <c r="Y100" s="3">
-        <v>100</v>
-      </c>
       <c r="Z100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AA100" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB100" s="3">
         <v>200</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E101" s="3">
         <v>-400</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-200</v>
       </c>
-      <c r="F101" s="3">
-        <v>100</v>
-      </c>
       <c r="G101" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H101" s="3">
+        <v>0</v>
+      </c>
+      <c r="I101" s="3">
         <v>-100</v>
       </c>
-      <c r="I101" s="3">
-        <v>100</v>
-      </c>
       <c r="J101" s="3">
         <v>100</v>
       </c>
       <c r="K101" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L101" s="3">
         <v>0</v>
       </c>
       <c r="M101" s="3">
+        <v>0</v>
+      </c>
+      <c r="N101" s="3">
         <v>500</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-500</v>
       </c>
-      <c r="O101" s="3">
-        <v>100</v>
-      </c>
       <c r="P101" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q101" s="3">
         <v>-100</v>
       </c>
-      <c r="Q101" s="3">
-        <v>100</v>
-      </c>
       <c r="R101" s="3">
         <v>100</v>
       </c>
       <c r="S101" s="3">
+        <v>100</v>
+      </c>
+      <c r="T101" s="3">
         <v>-400</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>200</v>
-      </c>
-      <c r="U101" s="3">
-        <v>-100</v>
       </c>
       <c r="V101" s="3">
         <v>-100</v>
       </c>
       <c r="W101" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="X101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y101" s="3">
         <v>300</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>200</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>-200</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>-100</v>
       </c>
-      <c r="AB101" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E102" s="3">
         <v>500</v>
       </c>
-      <c r="E102" s="3">
-        <v>0</v>
-      </c>
       <c r="F102" s="3">
         <v>0</v>
       </c>
@@ -7457,13 +7708,13 @@
         <v>0</v>
       </c>
       <c r="J102" s="3">
+        <v>0</v>
+      </c>
+      <c r="K102" s="3">
         <v>-100</v>
       </c>
-      <c r="K102" s="3">
-        <v>100</v>
-      </c>
       <c r="L102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M102" s="3">
         <v>0</v>
@@ -7487,14 +7738,14 @@
         <v>0</v>
       </c>
       <c r="T102" s="3">
+        <v>0</v>
+      </c>
+      <c r="U102" s="3">
         <v>-300</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>300</v>
       </c>
-      <c r="V102" s="3">
-        <v>0</v>
-      </c>
       <c r="W102" s="3">
         <v>0</v>
       </c>
@@ -7502,15 +7753,18 @@
         <v>0</v>
       </c>
       <c r="Y102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z102" s="3">
         <v>-100</v>
       </c>
-      <c r="Z102" s="3">
-        <v>100</v>
-      </c>
       <c r="AA102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AB102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/GRST_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GRST_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="92">
   <si>
     <t>GRST</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AC102"/>
+  <dimension ref="A5:AE102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,205 +665,219 @@
     <col min="1" max="1" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="29" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="31" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43921</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43830</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43738</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43646</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43555</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43465</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43373</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>43281</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>43190</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>43100</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="AA7" s="2">
         <v>43008</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AB7" s="2">
         <v>42916</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AC7" s="2">
         <v>42825</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AD7" s="2">
         <v>42735</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AE7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E8" s="3">
+        <v>1300</v>
+      </c>
+      <c r="F8" s="3">
         <v>1200</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>1400</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>1100</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>1000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>900</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>900</v>
       </c>
-      <c r="J8" s="3">
-        <v>100</v>
-      </c>
-      <c r="K8" s="3">
-        <v>100</v>
-      </c>
       <c r="L8" s="3">
         <v>100</v>
       </c>
       <c r="M8" s="3">
+        <v>100</v>
+      </c>
+      <c r="N8" s="3">
+        <v>100</v>
+      </c>
+      <c r="O8" s="3">
         <v>300</v>
       </c>
-      <c r="N8" s="3">
-        <v>100</v>
-      </c>
-      <c r="O8" s="3">
-        <v>100</v>
-      </c>
       <c r="P8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q8" s="3">
         <v>100</v>
       </c>
       <c r="R8" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S8" s="3">
         <v>100</v>
       </c>
       <c r="T8" s="3">
+        <v>100</v>
+      </c>
+      <c r="U8" s="3">
+        <v>100</v>
+      </c>
+      <c r="V8" s="3">
         <v>400</v>
       </c>
-      <c r="U8" s="3">
+      <c r="W8" s="3">
         <v>300</v>
       </c>
-      <c r="V8" s="3">
-        <v>100</v>
-      </c>
-      <c r="W8" s="3">
-        <v>100</v>
-      </c>
       <c r="X8" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y8" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z8" s="3">
         <v>900</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="AA8" s="3">
         <v>600</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AB8" s="3">
         <v>400</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AC8" s="3">
         <v>300</v>
       </c>
-      <c r="AB8" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC8" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD8" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -945,8 +959,14 @@
       <c r="AC9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -1028,8 +1048,14 @@
       <c r="AC10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1059,8 +1085,10 @@
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD11" s="3"/>
+      <c r="AE11" s="3"/>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1142,8 +1170,14 @@
       <c r="AC12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1225,61 +1259,67 @@
       <c r="AC13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>100</v>
-      </c>
-      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F14" s="3">
+        <v>100</v>
+      </c>
+      <c r="G14" s="3">
         <v>-100</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
       <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
         <v>-200</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3">
-        <v>100</v>
-      </c>
       <c r="K14" s="3">
         <v>0</v>
       </c>
       <c r="L14" s="3">
+        <v>100</v>
+      </c>
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
         <v>400</v>
       </c>
-      <c r="M14" s="3">
+      <c r="O14" s="3">
         <v>-12700</v>
       </c>
-      <c r="N14" s="3">
+      <c r="P14" s="3">
         <v>-12700</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
         <v>900</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
-      </c>
-      <c r="R14" s="3">
-        <v>100</v>
-      </c>
-      <c r="S14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T14" s="3" t="s">
-        <v>5</v>
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+      <c r="T14" s="3">
+        <v>100</v>
       </c>
       <c r="U14" s="3" t="s">
         <v>5</v>
@@ -1290,11 +1330,11 @@
       <c r="W14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="X14" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y14" s="3">
-        <v>0</v>
+      <c r="X14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y14" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="Z14" s="3">
         <v>0</v>
@@ -1308,8 +1348,14 @@
       <c r="AC14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1332,22 +1378,22 @@
         <v>100</v>
       </c>
       <c r="J15" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K15" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L15" s="3">
         <v>0</v>
       </c>
       <c r="M15" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N15" s="3">
         <v>0</v>
       </c>
       <c r="O15" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P15" s="3">
         <v>0</v>
@@ -1356,43 +1402,49 @@
         <v>0</v>
       </c>
       <c r="R15" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S15" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T15" s="3">
+        <v>100</v>
+      </c>
+      <c r="U15" s="3">
+        <v>100</v>
+      </c>
+      <c r="V15" s="3">
         <v>300</v>
       </c>
-      <c r="U15" s="3">
-        <v>100</v>
-      </c>
-      <c r="V15" s="3">
-        <v>100</v>
-      </c>
       <c r="W15" s="3">
         <v>100</v>
       </c>
       <c r="X15" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y15" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z15" s="3">
         <v>200</v>
       </c>
-      <c r="Y15" s="3">
-        <v>100</v>
-      </c>
-      <c r="Z15" s="3">
-        <v>100</v>
-      </c>
       <c r="AA15" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB15" s="3" t="s">
-        <v>5</v>
+        <v>100</v>
+      </c>
+      <c r="AB15" s="3">
+        <v>100</v>
       </c>
       <c r="AC15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1419,91 +1471,99 @@
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
-    </row>
-    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD16" s="3"/>
+      <c r="AE16" s="3"/>
+    </row>
+    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E17" s="3">
         <v>1200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
+        <v>1200</v>
+      </c>
+      <c r="G17" s="3">
         <v>1100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>1100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>900</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>1000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>200</v>
       </c>
-      <c r="K17" s="3">
-        <v>100</v>
-      </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
+        <v>100</v>
+      </c>
+      <c r="N17" s="3">
         <v>500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>-12300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>-12600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>1100</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>1200</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>1600</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>1500</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>3300</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>1200</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>800</v>
-      </c>
-      <c r="W17" s="3">
-        <v>500</v>
-      </c>
-      <c r="X17" s="3">
-        <v>2400</v>
       </c>
       <c r="Y17" s="3">
         <v>500</v>
       </c>
       <c r="Z17" s="3">
+        <v>2400</v>
+      </c>
+      <c r="AA17" s="3">
+        <v>500</v>
+      </c>
+      <c r="AB17" s="3">
         <v>400</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AC17" s="3">
         <v>900</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AD17" s="3">
         <v>800</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AE17" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1511,82 +1571,88 @@
         <v>0</v>
       </c>
       <c r="E18" s="3">
+        <v>100</v>
+      </c>
+      <c r="F18" s="3">
+        <v>0</v>
+      </c>
+      <c r="G18" s="3">
         <v>300</v>
       </c>
-      <c r="F18" s="3">
-        <v>0</v>
-      </c>
-      <c r="G18" s="3">
-        <v>100</v>
-      </c>
       <c r="H18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I18" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="J18" s="3">
         <v>-100</v>
       </c>
       <c r="K18" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="L18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M18" s="3">
+        <v>0</v>
+      </c>
+      <c r="N18" s="3">
         <v>-400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>12600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>12700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>-1100</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>-1100</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>-1500</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>-1400</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>-2900</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>-900</v>
       </c>
-      <c r="V18" s="3">
+      <c r="X18" s="3">
         <v>-700</v>
       </c>
-      <c r="W18" s="3">
+      <c r="Y18" s="3">
         <v>-400</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Z18" s="3">
         <v>-1500</v>
       </c>
-      <c r="Y18" s="3">
-        <v>100</v>
-      </c>
-      <c r="Z18" s="3">
-        <v>0</v>
-      </c>
       <c r="AA18" s="3">
+        <v>100</v>
+      </c>
+      <c r="AB18" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC18" s="3">
         <v>-600</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AD18" s="3">
         <v>-800</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AE18" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1616,182 +1682,196 @@
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
-    </row>
-    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD19" s="3"/>
+      <c r="AE19" s="3"/>
+    </row>
+    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
         <v>400</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>500</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>200</v>
       </c>
-      <c r="G20" s="3">
-        <v>100</v>
-      </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
+        <v>100</v>
+      </c>
+      <c r="J20" s="3">
         <v>2100</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>1700</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>-1300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>-1600</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>15400</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>-22900</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>-3300</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>-9600</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>-7800</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>2000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="T20" s="3">
         <v>900</v>
       </c>
-      <c r="S20" s="3">
+      <c r="U20" s="3">
         <v>-600</v>
       </c>
-      <c r="T20" s="3">
-        <v>0</v>
-      </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
+        <v>0</v>
+      </c>
+      <c r="W20" s="3">
         <v>-100</v>
       </c>
-      <c r="V20" s="3">
+      <c r="X20" s="3">
         <v>-700</v>
       </c>
-      <c r="W20" s="3">
-        <v>100</v>
-      </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z20" s="3">
         <v>-6300</v>
       </c>
-      <c r="Y20" s="3">
-        <v>100</v>
-      </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
+        <v>100</v>
+      </c>
+      <c r="AB20" s="3">
         <v>-100</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AC20" s="3">
         <v>-4800</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AD20" s="3">
         <v>-200</v>
       </c>
-      <c r="AC20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AE20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E21" s="3">
+        <v>200</v>
+      </c>
+      <c r="F21" s="3">
         <v>600</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>900</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>300</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>300</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>2200</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>2000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-1300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-1600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>15000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>-10200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>9400</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>-9600</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>-8800</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>1000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>-600</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>-1900</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>-2600</v>
       </c>
-      <c r="U21" s="3">
+      <c r="W21" s="3">
         <v>-900</v>
       </c>
-      <c r="V21" s="3">
+      <c r="X21" s="3">
         <v>-1300</v>
       </c>
-      <c r="W21" s="3">
+      <c r="Y21" s="3">
         <v>-200</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Z21" s="3">
         <v>-7600</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="AA21" s="3">
         <v>200</v>
       </c>
-      <c r="Z21" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC21" s="3">
         <v>-5400</v>
       </c>
-      <c r="AB21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE21" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="E22" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="F22" s="3">
         <v>300</v>
@@ -1800,161 +1880,173 @@
         <v>300</v>
       </c>
       <c r="H22" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="I22" s="3">
         <v>300</v>
       </c>
       <c r="J22" s="3">
+        <v>400</v>
+      </c>
+      <c r="K22" s="3">
+        <v>300</v>
+      </c>
+      <c r="L22" s="3">
         <v>1300</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>800</v>
       </c>
-      <c r="L22" s="3">
+      <c r="N22" s="3">
         <v>400</v>
       </c>
-      <c r="M22" s="3">
+      <c r="O22" s="3">
         <v>1200</v>
       </c>
-      <c r="N22" s="3">
+      <c r="P22" s="3">
         <v>300</v>
       </c>
-      <c r="O22" s="3">
+      <c r="Q22" s="3">
         <v>700</v>
-      </c>
-      <c r="P22" s="3">
-        <v>1000</v>
-      </c>
-      <c r="Q22" s="3">
-        <v>1300</v>
       </c>
       <c r="R22" s="3">
         <v>1000</v>
       </c>
       <c r="S22" s="3">
+        <v>1300</v>
+      </c>
+      <c r="T22" s="3">
+        <v>1000</v>
+      </c>
+      <c r="U22" s="3">
         <v>1100</v>
       </c>
-      <c r="T22" s="3">
+      <c r="V22" s="3">
         <v>5200</v>
       </c>
-      <c r="U22" s="3">
+      <c r="W22" s="3">
         <v>1400</v>
       </c>
-      <c r="V22" s="3">
+      <c r="X22" s="3">
         <v>1500</v>
       </c>
-      <c r="W22" s="3">
+      <c r="Y22" s="3">
         <v>900</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Z22" s="3">
         <v>400</v>
       </c>
-      <c r="Y22" s="3">
-        <v>100</v>
-      </c>
-      <c r="Z22" s="3">
-        <v>100</v>
-      </c>
       <c r="AA22" s="3">
+        <v>100</v>
+      </c>
+      <c r="AB22" s="3">
+        <v>100</v>
+      </c>
+      <c r="AC22" s="3">
         <v>300</v>
       </c>
-      <c r="AB22" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC22" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F23" s="3">
         <v>200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>1600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>1500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-2600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-2400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>14600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-11500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>9000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-10300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-9800</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>-400</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>-1700</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>-3100</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>-8100</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>-2400</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>-2900</v>
       </c>
-      <c r="W23" s="3">
+      <c r="Y23" s="3">
         <v>-1200</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Z23" s="3">
         <v>-8200</v>
       </c>
-      <c r="Y23" s="3">
-        <v>100</v>
-      </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
+        <v>100</v>
+      </c>
+      <c r="AB23" s="3">
         <v>-200</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AC23" s="3">
         <v>-5700</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AD23" s="3">
         <v>-1000</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AE23" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="E24" s="3">
         <v>0</v>
@@ -1966,25 +2058,25 @@
         <v>0</v>
       </c>
       <c r="H24" s="3">
+        <v>0</v>
+      </c>
+      <c r="I24" s="3">
+        <v>0</v>
+      </c>
+      <c r="J24" s="3">
         <v>-300</v>
       </c>
-      <c r="I24" s="3">
-        <v>0</v>
-      </c>
-      <c r="J24" s="3">
-        <v>0</v>
-      </c>
       <c r="K24" s="3">
         <v>0</v>
       </c>
-      <c r="L24" s="3" t="s">
-        <v>5</v>
+      <c r="L24" s="3">
+        <v>0</v>
       </c>
       <c r="M24" s="3">
         <v>0</v>
       </c>
-      <c r="N24" s="3">
-        <v>0</v>
+      <c r="N24" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="O24" s="3">
         <v>0</v>
@@ -2002,13 +2094,13 @@
         <v>0</v>
       </c>
       <c r="T24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U24" s="3">
         <v>0</v>
       </c>
       <c r="V24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W24" s="3">
         <v>0</v>
@@ -2031,8 +2123,14 @@
       <c r="AC24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2114,174 +2212,192 @@
       <c r="AC25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>100</v>
+        <v>-200</v>
       </c>
       <c r="E26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F26" s="3">
+        <v>100</v>
+      </c>
+      <c r="G26" s="3">
         <v>500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>1900</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>1500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-2600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-2400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>14600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-11500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>9000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-10300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-9800</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>-400</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>-1700</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>-3100</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>-8200</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>-2400</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>-2900</v>
       </c>
-      <c r="W26" s="3">
+      <c r="Y26" s="3">
         <v>-1200</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Z26" s="3">
         <v>-8200</v>
       </c>
-      <c r="Y26" s="3">
-        <v>100</v>
-      </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
+        <v>100</v>
+      </c>
+      <c r="AB26" s="3">
         <v>-200</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AC26" s="3">
         <v>-5700</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AD26" s="3">
         <v>-1000</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AE26" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>100</v>
+        <v>-300</v>
       </c>
       <c r="E27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F27" s="3">
+        <v>100</v>
+      </c>
+      <c r="G27" s="3">
         <v>500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>1900</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>1500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-2600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-2400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>14600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-11600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>9000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-10300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-9800</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>-400</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>-1700</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>-3100</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>-8200</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>-2400</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>-2900</v>
       </c>
-      <c r="W27" s="3">
+      <c r="Y27" s="3">
         <v>-1200</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Z27" s="3">
         <v>-8200</v>
       </c>
-      <c r="Y27" s="3">
-        <v>100</v>
-      </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
+        <v>100</v>
+      </c>
+      <c r="AB27" s="3">
         <v>-200</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AC27" s="3">
         <v>-5700</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AD27" s="3">
         <v>-1000</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AE27" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2363,8 +2479,14 @@
       <c r="AC28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2410,17 +2532,17 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-      <c r="R29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T29" s="3">
-        <v>0</v>
-      </c>
-      <c r="U29" s="3">
-        <v>0</v>
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+      <c r="T29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U29" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="V29" s="3">
         <v>0</v>
@@ -2429,25 +2551,31 @@
         <v>0</v>
       </c>
       <c r="X29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z29" s="3">
         <v>6800</v>
       </c>
-      <c r="Y29" s="3">
+      <c r="AA29" s="3">
         <v>-200</v>
       </c>
-      <c r="Z29" s="3">
+      <c r="AB29" s="3">
         <v>-100</v>
       </c>
-      <c r="AA29" s="3">
+      <c r="AC29" s="3">
         <v>7600</v>
       </c>
-      <c r="AB29" s="3">
+      <c r="AD29" s="3">
         <v>700</v>
       </c>
-      <c r="AC29" s="3">
+      <c r="AE29" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2529,8 +2657,14 @@
       <c r="AC30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2612,174 +2746,192 @@
       <c r="AC31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>300</v>
+      </c>
+      <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
         <v>-400</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>-500</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>-200</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>-100</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>-2100</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>-1700</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>1300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>1600</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>-15400</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>22900</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>3300</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>9600</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>7800</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>-2000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="T32" s="3">
         <v>-900</v>
       </c>
-      <c r="S32" s="3">
+      <c r="U32" s="3">
         <v>600</v>
       </c>
-      <c r="T32" s="3">
-        <v>0</v>
-      </c>
-      <c r="U32" s="3">
-        <v>100</v>
-      </c>
       <c r="V32" s="3">
+        <v>0</v>
+      </c>
+      <c r="W32" s="3">
+        <v>100</v>
+      </c>
+      <c r="X32" s="3">
         <v>700</v>
-      </c>
-      <c r="W32" s="3">
-        <v>-100</v>
-      </c>
-      <c r="X32" s="3">
-        <v>6300</v>
       </c>
       <c r="Y32" s="3">
         <v>-100</v>
       </c>
       <c r="Z32" s="3">
-        <v>100</v>
+        <v>6300</v>
       </c>
       <c r="AA32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AB32" s="3">
+        <v>100</v>
+      </c>
+      <c r="AC32" s="3">
         <v>4800</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AD32" s="3">
         <v>200</v>
       </c>
-      <c r="AC32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AE32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>100</v>
+        <v>-300</v>
       </c>
       <c r="E33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F33" s="3">
+        <v>100</v>
+      </c>
+      <c r="G33" s="3">
         <v>500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>1900</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>1500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-2600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-2400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>14600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-11600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>9000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-10300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-9800</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>-400</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>-1700</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>-3100</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>-8200</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>-2400</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>-2900</v>
       </c>
-      <c r="W33" s="3">
+      <c r="Y33" s="3">
         <v>-1200</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Z33" s="3">
         <v>-1400</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="AA33" s="3">
         <v>-100</v>
-      </c>
-      <c r="Z33" s="3">
-        <v>-300</v>
-      </c>
-      <c r="AA33" s="3">
-        <v>1900</v>
       </c>
       <c r="AB33" s="3">
         <v>-300</v>
       </c>
       <c r="AC33" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
+        <v>1900</v>
+      </c>
+      <c r="AD33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="AE33" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2861,179 +3013,197 @@
       <c r="AC34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>100</v>
+        <v>-300</v>
       </c>
       <c r="E35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F35" s="3">
+        <v>100</v>
+      </c>
+      <c r="G35" s="3">
         <v>500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>1900</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>1500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-2600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-2400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>14600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-11600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>9000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-10300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-9800</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>-400</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>-1700</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>-3100</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>-8200</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>-2400</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>-2900</v>
       </c>
-      <c r="W35" s="3">
+      <c r="Y35" s="3">
         <v>-1200</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Z35" s="3">
         <v>-1400</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="AA35" s="3">
         <v>-100</v>
-      </c>
-      <c r="Z35" s="3">
-        <v>-300</v>
-      </c>
-      <c r="AA35" s="3">
-        <v>1900</v>
       </c>
       <c r="AB35" s="3">
         <v>-300</v>
       </c>
       <c r="AC35" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
+        <v>1900</v>
+      </c>
+      <c r="AD35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="AE35" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43921</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43830</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43738</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43646</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43555</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43465</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43373</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>43281</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>43190</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>43100</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="AA38" s="2">
         <v>43008</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AB38" s="2">
         <v>42916</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AC38" s="2">
         <v>42825</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AD38" s="2">
         <v>42735</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AE38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3063,8 +3233,10 @@
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
-    </row>
-    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD39" s="3"/>
+      <c r="AE39" s="3"/>
+    </row>
+    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3094,43 +3266,45 @@
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
-    </row>
-    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD40" s="3"/>
+      <c r="AE40" s="3"/>
+    </row>
+    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E41" s="3">
+        <v>0</v>
+      </c>
+      <c r="F41" s="3">
+        <v>100</v>
+      </c>
+      <c r="G41" s="3">
         <v>600</v>
       </c>
-      <c r="F41" s="3">
-        <v>100</v>
-      </c>
-      <c r="G41" s="3">
-        <v>0</v>
-      </c>
       <c r="H41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J41" s="3">
         <v>0</v>
       </c>
       <c r="K41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M41" s="3">
         <v>0</v>
       </c>
       <c r="N41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O41" s="3">
         <v>0</v>
@@ -3151,17 +3325,17 @@
         <v>0</v>
       </c>
       <c r="U41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V41" s="3">
+        <v>0</v>
+      </c>
+      <c r="W41" s="3">
+        <v>100</v>
+      </c>
+      <c r="X41" s="3">
         <v>300</v>
       </c>
-      <c r="W41" s="3">
-        <v>0</v>
-      </c>
-      <c r="X41" s="3">
-        <v>0</v>
-      </c>
       <c r="Y41" s="3">
         <v>0</v>
       </c>
@@ -3169,30 +3343,36 @@
         <v>0</v>
       </c>
       <c r="AA41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AB41" s="3">
         <v>0</v>
       </c>
       <c r="AC41" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="AD41" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G42" s="3" t="s">
-        <v>5</v>
+      <c r="D42" s="3">
+        <v>0</v>
+      </c>
+      <c r="E42" s="3">
+        <v>0</v>
+      </c>
+      <c r="F42" s="3">
+        <v>0</v>
+      </c>
+      <c r="G42" s="3">
+        <v>0</v>
       </c>
       <c r="H42" s="3">
         <v>0</v>
@@ -3201,20 +3381,20 @@
         <v>0</v>
       </c>
       <c r="J42" s="3">
+        <v>0</v>
+      </c>
+      <c r="K42" s="3">
+        <v>0</v>
+      </c>
+      <c r="L42" s="3">
         <v>1200</v>
       </c>
-      <c r="K42" s="3">
+      <c r="M42" s="3">
         <v>1000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="N42" s="3">
         <v>700</v>
       </c>
-      <c r="M42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N42" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="O42" s="3" t="s">
         <v>5</v>
       </c>
@@ -3227,11 +3407,11 @@
       <c r="R42" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="S42" s="3">
-        <v>0</v>
-      </c>
-      <c r="T42" s="3">
-        <v>0</v>
+      <c r="S42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T42" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="U42" s="3">
         <v>0</v>
@@ -3260,16 +3440,22 @@
       <c r="AC42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD42" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="E43" s="3">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="F43" s="3">
         <v>300</v>
@@ -3278,17 +3464,17 @@
         <v>300</v>
       </c>
       <c r="H43" s="3">
+        <v>300</v>
+      </c>
+      <c r="I43" s="3">
+        <v>300</v>
+      </c>
+      <c r="J43" s="3">
         <v>200</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>200</v>
       </c>
-      <c r="J43" s="3">
-        <v>0</v>
-      </c>
-      <c r="K43" s="3">
-        <v>0</v>
-      </c>
       <c r="L43" s="3">
         <v>0</v>
       </c>
@@ -3299,52 +3485,58 @@
         <v>0</v>
       </c>
       <c r="O43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q43" s="3">
+        <v>100</v>
+      </c>
+      <c r="R43" s="3">
+        <v>100</v>
+      </c>
+      <c r="S43" s="3">
         <v>200</v>
       </c>
-      <c r="R43" s="3">
+      <c r="T43" s="3">
         <v>300</v>
       </c>
-      <c r="S43" s="3">
+      <c r="U43" s="3">
         <v>300</v>
       </c>
-      <c r="T43" s="3">
+      <c r="V43" s="3">
         <v>200</v>
       </c>
-      <c r="U43" s="3">
-        <v>100</v>
-      </c>
-      <c r="V43" s="3">
-        <v>100</v>
-      </c>
       <c r="W43" s="3">
+        <v>100</v>
+      </c>
+      <c r="X43" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y43" s="3">
         <v>200</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Z43" s="3">
         <v>200</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="AA43" s="3">
         <v>1000</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AB43" s="3">
         <v>600</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AC43" s="3">
         <v>300</v>
       </c>
-      <c r="AB43" s="3">
-        <v>100</v>
-      </c>
-      <c r="AC43" s="3">
+      <c r="AD43" s="3">
+        <v>100</v>
+      </c>
+      <c r="AE43" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3426,8 +3618,14 @@
       <c r="AC44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD44" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3441,159 +3639,171 @@
         <v>100</v>
       </c>
       <c r="G45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I45" s="3">
         <v>0</v>
       </c>
       <c r="J45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L45" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="M45" s="3">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="N45" s="3">
         <v>200</v>
       </c>
       <c r="O45" s="3">
+        <v>500</v>
+      </c>
+      <c r="P45" s="3">
         <v>200</v>
-      </c>
-      <c r="P45" s="3">
-        <v>100</v>
       </c>
       <c r="Q45" s="3">
         <v>200</v>
       </c>
       <c r="R45" s="3">
+        <v>100</v>
+      </c>
+      <c r="S45" s="3">
         <v>200</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
+        <v>200</v>
+      </c>
+      <c r="U45" s="3">
         <v>2000</v>
       </c>
-      <c r="T45" s="3">
-        <v>100</v>
-      </c>
-      <c r="U45" s="3">
-        <v>100</v>
-      </c>
       <c r="V45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W45" s="3">
         <v>100</v>
       </c>
       <c r="X45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Y45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AA45" s="3">
         <v>0</v>
       </c>
       <c r="AB45" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC45" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD45" s="3">
         <v>200</v>
       </c>
-      <c r="AC45" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AE45" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="E46" s="3">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="F46" s="3">
         <v>500</v>
       </c>
       <c r="G46" s="3">
+        <v>1000</v>
+      </c>
+      <c r="H46" s="3">
+        <v>500</v>
+      </c>
+      <c r="I46" s="3">
         <v>400</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>300</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>300</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>1300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>1200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>300</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>400</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>600</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>2400</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>400</v>
-      </c>
-      <c r="U46" s="3">
-        <v>300</v>
-      </c>
-      <c r="V46" s="3">
-        <v>500</v>
       </c>
       <c r="W46" s="3">
         <v>300</v>
       </c>
       <c r="X46" s="3">
+        <v>500</v>
+      </c>
+      <c r="Y46" s="3">
         <v>300</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
+        <v>300</v>
+      </c>
+      <c r="AA46" s="3">
         <v>1000</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AB46" s="3">
         <v>600</v>
-      </c>
-      <c r="AA46" s="3">
-        <v>400</v>
-      </c>
-      <c r="AB46" s="3">
-        <v>300</v>
       </c>
       <c r="AC46" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD46" s="3">
+        <v>300</v>
+      </c>
+      <c r="AE46" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3666,127 +3876,139 @@
       <c r="Z47" s="3">
         <v>0</v>
       </c>
-      <c r="AA47" s="3" t="s">
-        <v>5</v>
+      <c r="AA47" s="3">
+        <v>0</v>
       </c>
       <c r="AB47" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AC47" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD47" s="3">
+        <v>100</v>
+      </c>
+      <c r="AE47" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E48" s="3">
+        <v>4300</v>
+      </c>
+      <c r="F48" s="3">
         <v>4400</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>4400</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>4600</v>
-      </c>
-      <c r="G48" s="3">
-        <v>4700</v>
-      </c>
-      <c r="H48" s="3">
-        <v>4700</v>
       </c>
       <c r="I48" s="3">
         <v>4700</v>
       </c>
       <c r="J48" s="3">
-        <v>2900</v>
+        <v>4700</v>
       </c>
       <c r="K48" s="3">
-        <v>2900</v>
+        <v>4700</v>
       </c>
       <c r="L48" s="3">
         <v>2900</v>
       </c>
       <c r="M48" s="3">
+        <v>2900</v>
+      </c>
+      <c r="N48" s="3">
+        <v>2900</v>
+      </c>
+      <c r="O48" s="3">
         <v>2800</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>2800</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>2700</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>3000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>20100</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>20400</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <v>22900</v>
-      </c>
-      <c r="T48" s="3">
-        <v>8900</v>
-      </c>
-      <c r="U48" s="3">
-        <v>8900</v>
       </c>
       <c r="V48" s="3">
         <v>8900</v>
       </c>
       <c r="W48" s="3">
+        <v>8900</v>
+      </c>
+      <c r="X48" s="3">
+        <v>8900</v>
+      </c>
+      <c r="Y48" s="3">
         <v>9000</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Z48" s="3">
         <v>9200</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="AA48" s="3">
         <v>12200</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AB48" s="3">
         <v>12000</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AC48" s="3">
         <v>10800</v>
       </c>
-      <c r="AB48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AC48" s="3">
+      <c r="AD48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE48" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E49" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F49" s="3">
         <v>1300</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>1300</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>1400</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>1500</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>1600</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>1700</v>
       </c>
-      <c r="J49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K49" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="L49" s="3" t="s">
         <v>5</v>
       </c>
@@ -3799,11 +4021,11 @@
       <c r="O49" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P49" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q49" s="3">
-        <v>0</v>
+      <c r="P49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q49" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="R49" s="3">
         <v>0</v>
@@ -3823,26 +4045,32 @@
       <c r="W49" s="3">
         <v>0</v>
       </c>
-      <c r="X49" s="3" t="s">
-        <v>5</v>
+      <c r="X49" s="3">
+        <v>0</v>
       </c>
       <c r="Y49" s="3">
-        <v>1400</v>
-      </c>
-      <c r="Z49" s="3">
-        <v>1400</v>
+        <v>0</v>
+      </c>
+      <c r="Z49" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="AA49" s="3">
         <v>1400</v>
       </c>
-      <c r="AB49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AC49" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AB49" s="3">
+        <v>1400</v>
+      </c>
+      <c r="AC49" s="3">
+        <v>1400</v>
+      </c>
+      <c r="AD49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE49" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3924,8 +4152,14 @@
       <c r="AC50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4007,8 +4241,14 @@
       <c r="AC51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -4016,10 +4256,10 @@
         <v>400</v>
       </c>
       <c r="E52" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="F52" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G52" s="3">
         <v>0</v>
@@ -4052,46 +4292,52 @@
         <v>0</v>
       </c>
       <c r="Q52" s="3">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="R52" s="3">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="S52" s="3">
         <v>3000</v>
       </c>
       <c r="T52" s="3">
+        <v>3000</v>
+      </c>
+      <c r="U52" s="3">
+        <v>3000</v>
+      </c>
+      <c r="V52" s="3">
         <v>3300</v>
       </c>
-      <c r="U52" s="3">
+      <c r="W52" s="3">
         <v>3400</v>
       </c>
-      <c r="V52" s="3">
+      <c r="X52" s="3">
         <v>3400</v>
       </c>
-      <c r="W52" s="3">
+      <c r="Y52" s="3">
         <v>2600</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Z52" s="3">
         <v>2800</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="AA52" s="3">
         <v>1400</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AB52" s="3">
         <v>1300</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AC52" s="3">
         <v>1300</v>
       </c>
-      <c r="AB52" s="3">
-        <v>100</v>
-      </c>
-      <c r="AC52" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD52" s="3">
+        <v>100</v>
+      </c>
+      <c r="AE52" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4173,91 +4419,103 @@
       <c r="AC53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>3800</v>
+      </c>
+      <c r="E54" s="3">
         <v>6600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
+        <v>6600</v>
+      </c>
+      <c r="G54" s="3">
         <v>6700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>6500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>6600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>6600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>6700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>4200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>4100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>3800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>3300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>3000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>2900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>3200</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>23500</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>24000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>28300</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>12700</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>12600</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>12800</v>
       </c>
-      <c r="W54" s="3">
+      <c r="Y54" s="3">
         <v>11900</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Z54" s="3">
         <v>12300</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="AA54" s="3">
         <v>16000</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AB54" s="3">
         <v>15300</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AC54" s="3">
         <v>13900</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AD54" s="3">
         <v>500</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AE54" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4287,8 +4545,10 @@
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
-    </row>
-    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD55" s="3"/>
+      <c r="AE55" s="3"/>
+    </row>
+    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4318,19 +4578,21 @@
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
-    </row>
-    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD56" s="3"/>
+      <c r="AE56" s="3"/>
+    </row>
+    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E57" s="3">
         <v>400</v>
       </c>
       <c r="F57" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="G57" s="3">
         <v>400</v>
@@ -4339,13 +4601,13 @@
         <v>400</v>
       </c>
       <c r="I57" s="3">
+        <v>400</v>
+      </c>
+      <c r="J57" s="3">
+        <v>400</v>
+      </c>
+      <c r="K57" s="3">
         <v>900</v>
-      </c>
-      <c r="J57" s="3">
-        <v>800</v>
-      </c>
-      <c r="K57" s="3">
-        <v>800</v>
       </c>
       <c r="L57" s="3">
         <v>800</v>
@@ -4357,34 +4619,34 @@
         <v>800</v>
       </c>
       <c r="O57" s="3">
+        <v>800</v>
+      </c>
+      <c r="P57" s="3">
+        <v>800</v>
+      </c>
+      <c r="Q57" s="3">
         <v>900</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>1000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>2200</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>1800</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>1600</v>
       </c>
-      <c r="T57" s="3">
+      <c r="V57" s="3">
         <v>1100</v>
       </c>
-      <c r="U57" s="3">
+      <c r="W57" s="3">
         <v>700</v>
       </c>
-      <c r="V57" s="3">
+      <c r="X57" s="3">
         <v>300</v>
-      </c>
-      <c r="W57" s="3">
-        <v>400</v>
-      </c>
-      <c r="X57" s="3">
-        <v>400</v>
       </c>
       <c r="Y57" s="3">
         <v>400</v>
@@ -4393,270 +4655,294 @@
         <v>400</v>
       </c>
       <c r="AA57" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="AB57" s="3">
         <v>400</v>
       </c>
       <c r="AC57" s="3">
+        <v>500</v>
+      </c>
+      <c r="AD57" s="3">
+        <v>400</v>
+      </c>
+      <c r="AE57" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>9100</v>
+      </c>
+      <c r="E58" s="3">
+        <v>12500</v>
+      </c>
+      <c r="F58" s="3">
         <v>12000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>11800</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>11900</v>
-      </c>
-      <c r="G58" s="3">
-        <v>11900</v>
-      </c>
-      <c r="H58" s="3">
-        <v>11600</v>
       </c>
       <c r="I58" s="3">
         <v>11900</v>
       </c>
       <c r="J58" s="3">
+        <v>11600</v>
+      </c>
+      <c r="K58" s="3">
+        <v>11900</v>
+      </c>
+      <c r="L58" s="3">
         <v>8200</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>7800</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>7400</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>7500</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>7300</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>8300</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>8100</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="S58" s="3">
         <v>7700</v>
       </c>
-      <c r="R58" s="3">
+      <c r="T58" s="3">
         <v>7700</v>
       </c>
-      <c r="S58" s="3">
+      <c r="U58" s="3">
         <v>10400</v>
       </c>
-      <c r="T58" s="3">
+      <c r="V58" s="3">
         <v>7200</v>
       </c>
-      <c r="U58" s="3">
+      <c r="W58" s="3">
         <v>6100</v>
       </c>
-      <c r="V58" s="3">
+      <c r="X58" s="3">
         <v>4800</v>
       </c>
-      <c r="W58" s="3">
+      <c r="Y58" s="3">
         <v>3500</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Z58" s="3">
         <v>2900</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="AA58" s="3">
         <v>2000</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AB58" s="3">
         <v>6000</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AC58" s="3">
         <v>5500</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AD58" s="3">
         <v>500</v>
       </c>
-      <c r="AC58" s="3">
+      <c r="AE58" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>700</v>
+      </c>
+      <c r="E59" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F59" s="3">
         <v>1100</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>1900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>1700</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>1400</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>1500</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>3000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>5500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>5300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>5600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>20500</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>10200</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>19200</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>9500</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>4300</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>5500</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>7200</v>
-      </c>
-      <c r="T59" s="3">
-        <v>5400</v>
-      </c>
-      <c r="U59" s="3">
-        <v>5600</v>
       </c>
       <c r="V59" s="3">
         <v>5400</v>
       </c>
       <c r="W59" s="3">
+        <v>5600</v>
+      </c>
+      <c r="X59" s="3">
+        <v>5400</v>
+      </c>
+      <c r="Y59" s="3">
         <v>4000</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Z59" s="3">
         <v>3500</v>
-      </c>
-      <c r="Y59" s="3">
-        <v>600</v>
-      </c>
-      <c r="Z59" s="3">
-        <v>500</v>
       </c>
       <c r="AA59" s="3">
         <v>600</v>
       </c>
       <c r="AB59" s="3">
+        <v>500</v>
+      </c>
+      <c r="AC59" s="3">
+        <v>600</v>
+      </c>
+      <c r="AD59" s="3">
         <v>2800</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AE59" s="3">
         <v>2800</v>
       </c>
     </row>
-    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>9900</v>
+      </c>
+      <c r="E60" s="3">
+        <v>14100</v>
+      </c>
+      <c r="F60" s="3">
         <v>13300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>14000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>14000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>13700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>13500</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>15700</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>14500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>13900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>13900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>28800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>18300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>28400</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>18600</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>14200</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>15000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>19200</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>13700</v>
       </c>
-      <c r="U60" s="3">
+      <c r="W60" s="3">
         <v>12400</v>
       </c>
-      <c r="V60" s="3">
+      <c r="X60" s="3">
         <v>10600</v>
       </c>
-      <c r="W60" s="3">
+      <c r="Y60" s="3">
         <v>7900</v>
-      </c>
-      <c r="X60" s="3">
-        <v>6900</v>
-      </c>
-      <c r="Y60" s="3">
-        <v>2900</v>
       </c>
       <c r="Z60" s="3">
         <v>6900</v>
       </c>
       <c r="AA60" s="3">
+        <v>2900</v>
+      </c>
+      <c r="AB60" s="3">
+        <v>6900</v>
+      </c>
+      <c r="AC60" s="3">
         <v>6600</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AD60" s="3">
         <v>3600</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AE60" s="3">
         <v>3400</v>
       </c>
     </row>
-    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="E61" s="3">
         <v>600</v>
@@ -4665,7 +4951,7 @@
         <v>700</v>
       </c>
       <c r="G61" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="H61" s="3">
         <v>700</v>
@@ -4674,94 +4960,100 @@
         <v>700</v>
       </c>
       <c r="J61" s="3">
-        <v>4600</v>
+        <v>700</v>
       </c>
       <c r="K61" s="3">
-        <v>4600</v>
+        <v>700</v>
       </c>
       <c r="L61" s="3">
         <v>4600</v>
       </c>
       <c r="M61" s="3">
+        <v>4600</v>
+      </c>
+      <c r="N61" s="3">
+        <v>4600</v>
+      </c>
+      <c r="O61" s="3">
         <v>4400</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>4400</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>4300</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>4700</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="S61" s="3">
         <v>4600</v>
       </c>
-      <c r="R61" s="3">
+      <c r="T61" s="3">
         <v>3900</v>
       </c>
-      <c r="S61" s="3">
+      <c r="U61" s="3">
         <v>3900</v>
       </c>
-      <c r="T61" s="3">
+      <c r="V61" s="3">
         <v>6700</v>
-      </c>
-      <c r="U61" s="3">
-        <v>7000</v>
-      </c>
-      <c r="V61" s="3">
-        <v>6900</v>
       </c>
       <c r="W61" s="3">
         <v>7000</v>
       </c>
       <c r="X61" s="3">
+        <v>6900</v>
+      </c>
+      <c r="Y61" s="3">
+        <v>7000</v>
+      </c>
+      <c r="Z61" s="3">
         <v>7200</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="AA61" s="3">
         <v>7200</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AB61" s="3">
         <v>3000</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AC61" s="3">
         <v>3000</v>
       </c>
-      <c r="AB61" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC61" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD61" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E62" s="3">
+        <v>1300</v>
+      </c>
+      <c r="F62" s="3">
         <v>1400</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>1500</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>1600</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>1700</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>1800</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>1800</v>
       </c>
-      <c r="J62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K62" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="L62" s="3" t="s">
         <v>5</v>
       </c>
@@ -4777,32 +5069,32 @@
       <c r="P62" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="Q62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S62" s="3">
         <v>14600</v>
       </c>
-      <c r="R62" s="3">
+      <c r="T62" s="3">
         <v>14800</v>
       </c>
-      <c r="S62" s="3">
+      <c r="U62" s="3">
         <v>15000</v>
       </c>
-      <c r="T62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U62" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="V62" s="3" t="s">
         <v>5</v>
       </c>
       <c r="W62" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="X62" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y62" s="3">
-        <v>0</v>
+      <c r="X62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y62" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="Z62" s="3">
         <v>0</v>
@@ -4816,8 +5108,14 @@
       <c r="AC62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD62" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4899,8 +5197,14 @@
       <c r="AC63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4982,8 +5286,14 @@
       <c r="AC64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5065,91 +5375,103 @@
       <c r="AC65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>12000</v>
+      </c>
+      <c r="E66" s="3">
+        <v>16900</v>
+      </c>
+      <c r="F66" s="3">
         <v>16300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>17000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>17100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>16800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>16800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>19100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>19800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>19200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>19100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>33900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>23400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>32600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>23200</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>33400</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>33700</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>38200</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>20400</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>19400</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>17500</v>
       </c>
-      <c r="W66" s="3">
+      <c r="Y66" s="3">
         <v>14900</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Z66" s="3">
         <v>14000</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="AA66" s="3">
         <v>10100</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AB66" s="3">
         <v>9900</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AC66" s="3">
         <v>9600</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AD66" s="3">
         <v>3600</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AE66" s="3">
         <v>3500</v>
       </c>
     </row>
-    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5179,8 +5501,10 @@
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
-    </row>
-    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD67" s="3"/>
+      <c r="AE67" s="3"/>
+    </row>
+    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5262,8 +5586,14 @@
       <c r="AC68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5345,16 +5675,22 @@
       <c r="AC69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E70" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F70" s="3">
         <v>400</v>
@@ -5384,10 +5720,10 @@
         <v>400</v>
       </c>
       <c r="O70" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="P70" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Q70" s="3">
         <v>0</v>
@@ -5428,8 +5764,14 @@
       <c r="AC70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5511,91 +5853,103 @@
       <c r="AC71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-44000</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-43700</v>
+      </c>
+      <c r="F72" s="3">
         <v>-43500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-44100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-44500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-44300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-44100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-46000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-47500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-44900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-42500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-57100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-46800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-55800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-45500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-35600</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-35300</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>-33600</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>-30500</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>-28900</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>-26500</v>
       </c>
-      <c r="W72" s="3">
+      <c r="Y72" s="3">
         <v>-23600</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Z72" s="3">
         <v>-22400</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="AA72" s="3">
         <v>-14800</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AB72" s="3">
         <v>-14700</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AC72" s="3">
         <v>-15500</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AD72" s="3">
         <v>-21000</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AE72" s="3">
         <v>-20400</v>
       </c>
     </row>
-    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5677,8 +6031,14 @@
       <c r="AC73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5760,8 +6120,14 @@
       <c r="AC74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5843,91 +6209,103 @@
       <c r="AC75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-8200</v>
+      </c>
+      <c r="E76" s="3">
+        <v>-10300</v>
+      </c>
+      <c r="F76" s="3">
         <v>-10100</v>
-      </c>
-      <c r="E76" s="3">
-        <v>-10700</v>
-      </c>
-      <c r="F76" s="3">
-        <v>-11000</v>
       </c>
       <c r="G76" s="3">
         <v>-10700</v>
       </c>
       <c r="H76" s="3">
+        <v>-11000</v>
+      </c>
+      <c r="I76" s="3">
         <v>-10700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
+        <v>-10700</v>
+      </c>
+      <c r="K76" s="3">
         <v>-12900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>-16100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>-15600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>-15800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>-31000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>-20800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>-29800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>-20000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>-10000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>-9700</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>-9900</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>-7700</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>-6800</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>-4800</v>
       </c>
-      <c r="W76" s="3">
+      <c r="Y76" s="3">
         <v>-3000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Z76" s="3">
         <v>-1800</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="AA76" s="3">
         <v>5900</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AB76" s="3">
         <v>5400</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AC76" s="3">
         <v>4400</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AD76" s="3">
         <v>-3200</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AE76" s="3">
         <v>-2900</v>
       </c>
     </row>
-    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6009,179 +6387,197 @@
       <c r="AC77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43921</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43830</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43738</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43646</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43555</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43465</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43373</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>43281</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>43190</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>43100</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="AA80" s="2">
         <v>43008</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AB80" s="2">
         <v>42916</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AC80" s="2">
         <v>42825</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AD80" s="2">
         <v>42735</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AE80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>100</v>
+        <v>-300</v>
       </c>
       <c r="E81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F81" s="3">
+        <v>100</v>
+      </c>
+      <c r="G81" s="3">
         <v>500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>1900</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>1500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-2600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-2400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>14600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-11600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>9000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-10300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-9800</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>-400</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>-1700</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>-3100</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>-8200</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>-2400</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>-2900</v>
       </c>
-      <c r="W81" s="3">
+      <c r="Y81" s="3">
         <v>-1200</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Z81" s="3">
         <v>-1400</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="AA81" s="3">
         <v>-100</v>
-      </c>
-      <c r="Z81" s="3">
-        <v>-300</v>
-      </c>
-      <c r="AA81" s="3">
-        <v>1900</v>
       </c>
       <c r="AB81" s="3">
         <v>-300</v>
       </c>
       <c r="AC81" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
+        <v>1900</v>
+      </c>
+      <c r="AD81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="AE81" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6211,8 +6607,10 @@
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
-    </row>
-    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD82" s="3"/>
+      <c r="AE82" s="3"/>
+    </row>
+    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6235,22 +6633,22 @@
         <v>100</v>
       </c>
       <c r="J83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L83" s="3">
         <v>0</v>
       </c>
       <c r="M83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N83" s="3">
         <v>0</v>
       </c>
       <c r="O83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P83" s="3">
         <v>0</v>
@@ -6259,43 +6657,49 @@
         <v>0</v>
       </c>
       <c r="R83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T83" s="3">
+        <v>100</v>
+      </c>
+      <c r="U83" s="3">
+        <v>100</v>
+      </c>
+      <c r="V83" s="3">
         <v>300</v>
       </c>
-      <c r="U83" s="3">
-        <v>100</v>
-      </c>
-      <c r="V83" s="3">
-        <v>100</v>
-      </c>
       <c r="W83" s="3">
         <v>100</v>
       </c>
       <c r="X83" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y83" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z83" s="3">
         <v>200</v>
       </c>
-      <c r="Y83" s="3">
-        <v>100</v>
-      </c>
-      <c r="Z83" s="3">
-        <v>100</v>
-      </c>
       <c r="AA83" s="3">
         <v>100</v>
       </c>
-      <c r="AB83" s="3" t="s">
-        <v>5</v>
+      <c r="AB83" s="3">
+        <v>100</v>
       </c>
       <c r="AC83" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="AD83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6377,8 +6781,14 @@
       <c r="AC84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6460,8 +6870,14 @@
       <c r="AC85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6543,8 +6959,14 @@
       <c r="AC86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6626,8 +7048,14 @@
       <c r="AC87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6709,91 +7137,103 @@
       <c r="AC88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E89" s="3">
+        <v>100</v>
+      </c>
+      <c r="F89" s="3">
         <v>600</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>800</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>-400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>-600</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>500</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>-400</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>-500</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>-900</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>-1100</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>-1500</v>
       </c>
-      <c r="U89" s="3">
+      <c r="W89" s="3">
         <v>-800</v>
       </c>
-      <c r="V89" s="3">
+      <c r="X89" s="3">
         <v>-400</v>
       </c>
-      <c r="W89" s="3">
+      <c r="Y89" s="3">
         <v>200</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Z89" s="3">
         <v>-4600</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="AA89" s="3">
         <v>-500</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AB89" s="3">
         <v>-400</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AC89" s="3">
         <v>-3100</v>
       </c>
-      <c r="AB89" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE89" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6823,8 +7263,10 @@
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
-    </row>
-    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD90" s="3"/>
+      <c r="AE90" s="3"/>
+    </row>
+    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6835,7 +7277,7 @@
         <v>-100</v>
       </c>
       <c r="F91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G91" s="3">
         <v>-100</v>
@@ -6844,16 +7286,16 @@
         <v>-100</v>
       </c>
       <c r="I91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J91" s="3">
-        <v>0</v>
-      </c>
-      <c r="K91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L91" s="3" t="s">
-        <v>5</v>
+        <v>-100</v>
+      </c>
+      <c r="K91" s="3">
+        <v>0</v>
+      </c>
+      <c r="L91" s="3">
+        <v>0</v>
       </c>
       <c r="M91" s="3" t="s">
         <v>5</v>
@@ -6864,50 +7306,56 @@
       <c r="O91" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P91" s="3">
+      <c r="P91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R91" s="3">
         <v>-100</v>
       </c>
-      <c r="Q91" s="3">
-        <v>0</v>
-      </c>
-      <c r="R91" s="3">
-        <v>0</v>
-      </c>
       <c r="S91" s="3">
         <v>0</v>
       </c>
       <c r="T91" s="3">
+        <v>0</v>
+      </c>
+      <c r="U91" s="3">
+        <v>0</v>
+      </c>
+      <c r="V91" s="3">
         <v>-300</v>
       </c>
-      <c r="U91" s="3">
-        <v>0</v>
-      </c>
-      <c r="V91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="W91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X91" s="3">
+      <c r="W91" s="3">
+        <v>0</v>
+      </c>
+      <c r="X91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z91" s="3">
         <v>-400</v>
       </c>
-      <c r="Y91" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z91" s="3">
-        <v>0</v>
-      </c>
       <c r="AA91" s="3">
         <v>0</v>
       </c>
-      <c r="AB91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="AC91" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AB91" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC91" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE91" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6989,8 +7437,14 @@
       <c r="AC92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7072,19 +7526,25 @@
       <c r="AC93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-400</v>
+        <v>100</v>
       </c>
       <c r="E94" s="3">
         <v>-100</v>
       </c>
       <c r="F94" s="3">
-        <v>-100</v>
+        <v>-400</v>
       </c>
       <c r="G94" s="3">
         <v>-100</v>
@@ -7093,70 +7553,76 @@
         <v>-100</v>
       </c>
       <c r="I94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K94" s="3">
+        <v>0</v>
+      </c>
+      <c r="L94" s="3">
         <v>-200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-700</v>
       </c>
-      <c r="M94" s="3">
-        <v>0</v>
-      </c>
-      <c r="N94" s="3">
-        <v>0</v>
-      </c>
       <c r="O94" s="3">
         <v>0</v>
       </c>
       <c r="P94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+      <c r="R94" s="3">
         <v>1200</v>
       </c>
-      <c r="Q94" s="3">
-        <v>0</v>
-      </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
+        <v>0</v>
+      </c>
+      <c r="T94" s="3">
         <v>3300</v>
       </c>
-      <c r="S94" s="3">
-        <v>0</v>
-      </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
+        <v>0</v>
+      </c>
+      <c r="V94" s="3">
         <v>-1400</v>
       </c>
-      <c r="U94" s="3">
-        <v>0</v>
-      </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
+        <v>0</v>
+      </c>
+      <c r="X94" s="3">
         <v>-900</v>
       </c>
-      <c r="W94" s="3">
+      <c r="Y94" s="3">
         <v>-300</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Z94" s="3">
         <v>1400</v>
       </c>
-      <c r="Y94" s="3">
-        <v>100</v>
-      </c>
-      <c r="Z94" s="3">
-        <v>0</v>
-      </c>
       <c r="AA94" s="3">
+        <v>100</v>
+      </c>
+      <c r="AB94" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC94" s="3">
         <v>3300</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AD94" s="3">
         <v>-100</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AE94" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7186,8 +7652,10 @@
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
-    </row>
-    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD95" s="3"/>
+      <c r="AE95" s="3"/>
+    </row>
+    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7269,8 +7737,14 @@
       <c r="AC96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7352,8 +7826,14 @@
       <c r="AC97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7435,8 +7915,14 @@
       <c r="AC98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7518,8 +8004,14 @@
       <c r="AC99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -7527,180 +8019,192 @@
         <v>-100</v>
       </c>
       <c r="E100" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F100" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G100" s="3">
         <v>300</v>
       </c>
-      <c r="F100" s="3">
-        <v>100</v>
-      </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
       <c r="H100" s="3">
+        <v>100</v>
+      </c>
+      <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
         <v>200</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>-300</v>
-      </c>
-      <c r="J100" s="3">
-        <v>400</v>
-      </c>
-      <c r="K100" s="3">
-        <v>300</v>
       </c>
       <c r="L100" s="3">
         <v>400</v>
       </c>
       <c r="M100" s="3">
+        <v>300</v>
+      </c>
+      <c r="N100" s="3">
         <v>400</v>
       </c>
-      <c r="N100" s="3">
-        <v>100</v>
-      </c>
       <c r="O100" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="P100" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+      <c r="R100" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>500</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>-2500</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>1000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="V100" s="3">
         <v>3400</v>
       </c>
-      <c r="U100" s="3">
+      <c r="W100" s="3">
         <v>500</v>
       </c>
-      <c r="V100" s="3">
+      <c r="X100" s="3">
         <v>1800</v>
-      </c>
-      <c r="W100" s="3">
-        <v>200</v>
-      </c>
-      <c r="X100" s="3">
-        <v>3300</v>
       </c>
       <c r="Y100" s="3">
         <v>200</v>
       </c>
       <c r="Z100" s="3">
-        <v>100</v>
+        <v>3300</v>
       </c>
       <c r="AA100" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="AB100" s="3">
+        <v>100</v>
+      </c>
+      <c r="AC100" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD100" s="3">
         <v>200</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AE100" s="3">
         <v>-400</v>
       </c>
     </row>
-    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>100</v>
+      </c>
+      <c r="E101" s="3">
+        <v>0</v>
+      </c>
+      <c r="F101" s="3">
         <v>-500</v>
       </c>
-      <c r="E101" s="3">
+      <c r="G101" s="3">
         <v>-400</v>
       </c>
-      <c r="F101" s="3">
+      <c r="H101" s="3">
         <v>-200</v>
       </c>
-      <c r="G101" s="3">
-        <v>100</v>
-      </c>
-      <c r="H101" s="3">
-        <v>0</v>
-      </c>
       <c r="I101" s="3">
+        <v>100</v>
+      </c>
+      <c r="J101" s="3">
+        <v>0</v>
+      </c>
+      <c r="K101" s="3">
         <v>-100</v>
       </c>
-      <c r="J101" s="3">
-        <v>100</v>
-      </c>
-      <c r="K101" s="3">
-        <v>100</v>
-      </c>
       <c r="L101" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M101" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N101" s="3">
+        <v>0</v>
+      </c>
+      <c r="O101" s="3">
+        <v>0</v>
+      </c>
+      <c r="P101" s="3">
         <v>500</v>
       </c>
-      <c r="O101" s="3">
+      <c r="Q101" s="3">
         <v>-500</v>
       </c>
-      <c r="P101" s="3">
-        <v>100</v>
-      </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
+        <v>100</v>
+      </c>
+      <c r="S101" s="3">
         <v>-100</v>
       </c>
-      <c r="R101" s="3">
-        <v>100</v>
-      </c>
-      <c r="S101" s="3">
-        <v>100</v>
-      </c>
       <c r="T101" s="3">
+        <v>100</v>
+      </c>
+      <c r="U101" s="3">
+        <v>100</v>
+      </c>
+      <c r="V101" s="3">
         <v>-400</v>
       </c>
-      <c r="U101" s="3">
+      <c r="W101" s="3">
         <v>200</v>
       </c>
-      <c r="V101" s="3">
+      <c r="X101" s="3">
         <v>-100</v>
       </c>
-      <c r="W101" s="3">
+      <c r="Y101" s="3">
         <v>-100</v>
       </c>
-      <c r="X101" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA101" s="3">
         <v>300</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AB101" s="3">
         <v>200</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AC101" s="3">
         <v>-200</v>
       </c>
-      <c r="AB101" s="3">
+      <c r="AD101" s="3">
         <v>-100</v>
       </c>
-      <c r="AC101" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AE101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>0</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F102" s="3">
         <v>-400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>500</v>
       </c>
-      <c r="F102" s="3">
-        <v>0</v>
-      </c>
-      <c r="G102" s="3">
-        <v>0</v>
-      </c>
       <c r="H102" s="3">
         <v>0</v>
       </c>
@@ -7711,16 +8215,16 @@
         <v>0</v>
       </c>
       <c r="K102" s="3">
+        <v>0</v>
+      </c>
+      <c r="L102" s="3">
+        <v>0</v>
+      </c>
+      <c r="M102" s="3">
         <v>-100</v>
       </c>
-      <c r="L102" s="3">
-        <v>100</v>
-      </c>
-      <c r="M102" s="3">
-        <v>0</v>
-      </c>
       <c r="N102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O102" s="3">
         <v>0</v>
@@ -7741,30 +8245,36 @@
         <v>0</v>
       </c>
       <c r="U102" s="3">
+        <v>0</v>
+      </c>
+      <c r="V102" s="3">
+        <v>0</v>
+      </c>
+      <c r="W102" s="3">
         <v>-300</v>
       </c>
-      <c r="V102" s="3">
+      <c r="X102" s="3">
         <v>300</v>
       </c>
-      <c r="W102" s="3">
-        <v>0</v>
-      </c>
-      <c r="X102" s="3">
-        <v>0</v>
-      </c>
       <c r="Y102" s="3">
         <v>0</v>
       </c>
       <c r="Z102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB102" s="3">
         <v>-100</v>
       </c>
-      <c r="AA102" s="3">
-        <v>100</v>
-      </c>
-      <c r="AB102" s="3">
-        <v>0</v>
-      </c>
       <c r="AC102" s="3">
+        <v>100</v>
+      </c>
+      <c r="AD102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE102" s="3">
         <v>0</v>
       </c>
     </row>
